--- a/F1.xlsx
+++ b/F1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Joel\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\vs\f1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F23382F9-996B-4497-A837-5269FA9494CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A324E15-3AE2-4B76-ADC8-043C1F2E553A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00798B61-A4AB-4634-A493-7936C2BE7462}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1204" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1324" uniqueCount="82">
   <si>
     <t>Race_Name</t>
   </si>
@@ -640,10 +640,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36F0DB36-4229-4BFD-868F-09E812C5EFF8}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:S141"/>
+  <dimension ref="A1:S161"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A116" workbookViewId="0">
-      <selection activeCell="N138" sqref="N138"/>
+    <sheetView tabSelected="1" topLeftCell="A138" workbookViewId="0">
+      <selection activeCell="M147" sqref="M147"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6873,7 +6873,7 @@
         <v>9.2637731481481488E-4</v>
       </c>
       <c r="L131" s="3">
-        <f t="shared" ref="L131:L141" si="2">(K131 - INT(K131/1))*86400</f>
+        <f t="shared" ref="L131:L161" si="2">(K131 - INT(K131/1))*86400</f>
         <v>80.039000000000001</v>
       </c>
       <c r="M131">
@@ -7363,6 +7363,966 @@
         <v>1</v>
       </c>
       <c r="O141" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="142" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A142" t="s">
+        <v>55</v>
+      </c>
+      <c r="B142" t="s">
+        <v>11</v>
+      </c>
+      <c r="C142" t="s">
+        <v>48</v>
+      </c>
+      <c r="D142" t="s">
+        <v>13</v>
+      </c>
+      <c r="E142">
+        <v>158</v>
+      </c>
+      <c r="F142" t="s">
+        <v>14</v>
+      </c>
+      <c r="G142">
+        <v>319</v>
+      </c>
+      <c r="H142">
+        <v>1</v>
+      </c>
+      <c r="I142">
+        <v>1</v>
+      </c>
+      <c r="J142">
+        <v>1</v>
+      </c>
+      <c r="K142" s="2">
+        <v>8.4746527777777782E-4</v>
+      </c>
+      <c r="L142" s="3">
+        <f t="shared" si="2"/>
+        <v>73.221000000000004</v>
+      </c>
+      <c r="M142">
+        <v>164.06700000000001</v>
+      </c>
+      <c r="N142">
+        <v>2</v>
+      </c>
+      <c r="O142" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="143" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A143" t="s">
+        <v>55</v>
+      </c>
+      <c r="B143" t="s">
+        <v>11</v>
+      </c>
+      <c r="C143" t="s">
+        <v>48</v>
+      </c>
+      <c r="D143" t="s">
+        <v>28</v>
+      </c>
+      <c r="E143">
+        <v>79</v>
+      </c>
+      <c r="F143" t="s">
+        <v>29</v>
+      </c>
+      <c r="G143">
+        <v>142</v>
+      </c>
+      <c r="H143">
+        <v>2</v>
+      </c>
+      <c r="I143">
+        <v>2</v>
+      </c>
+      <c r="J143">
+        <v>0</v>
+      </c>
+      <c r="K143" s="2">
+        <v>8.5711805555555563E-4</v>
+      </c>
+      <c r="L143" s="3">
+        <f t="shared" si="2"/>
+        <v>74.055000000000007</v>
+      </c>
+      <c r="M143">
+        <v>162.21899999999999</v>
+      </c>
+      <c r="N143">
+        <v>2</v>
+      </c>
+      <c r="O143" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="144" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A144" t="s">
+        <v>55</v>
+      </c>
+      <c r="B144" t="s">
+        <v>11</v>
+      </c>
+      <c r="C144" t="s">
+        <v>48</v>
+      </c>
+      <c r="D144" t="s">
+        <v>30</v>
+      </c>
+      <c r="E144">
+        <v>161</v>
+      </c>
+      <c r="F144" t="s">
+        <v>14</v>
+      </c>
+      <c r="G144">
+        <v>319</v>
+      </c>
+      <c r="H144">
+        <v>3</v>
+      </c>
+      <c r="I144">
+        <v>3</v>
+      </c>
+      <c r="J144">
+        <v>0</v>
+      </c>
+      <c r="K144" s="2">
+        <v>8.5353009259259269E-4</v>
+      </c>
+      <c r="L144" s="3">
+        <f t="shared" si="2"/>
+        <v>73.745000000000005</v>
+      </c>
+      <c r="M144">
+        <v>162.90100000000001</v>
+      </c>
+      <c r="N144">
+        <v>2</v>
+      </c>
+      <c r="O144" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="145" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A145" t="s">
+        <v>55</v>
+      </c>
+      <c r="B145" t="s">
+        <v>11</v>
+      </c>
+      <c r="C145" t="s">
+        <v>48</v>
+      </c>
+      <c r="D145" t="s">
+        <v>17</v>
+      </c>
+      <c r="E145">
+        <v>136</v>
+      </c>
+      <c r="F145" t="s">
+        <v>18</v>
+      </c>
+      <c r="G145">
+        <v>143</v>
+      </c>
+      <c r="H145">
+        <v>5</v>
+      </c>
+      <c r="I145">
+        <v>4</v>
+      </c>
+      <c r="J145">
+        <v>0</v>
+      </c>
+      <c r="K145" s="2">
+        <v>8.5914351851851852E-4</v>
+      </c>
+      <c r="L145" s="3">
+        <f t="shared" si="2"/>
+        <v>74.23</v>
+      </c>
+      <c r="M145">
+        <v>161.83699999999999</v>
+      </c>
+      <c r="N145">
+        <v>2</v>
+      </c>
+      <c r="O145" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="146" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A146" t="s">
+        <v>55</v>
+      </c>
+      <c r="B146" t="s">
+        <v>11</v>
+      </c>
+      <c r="C146" t="s">
+        <v>48</v>
+      </c>
+      <c r="D146" t="s">
+        <v>31</v>
+      </c>
+      <c r="E146">
+        <v>63</v>
+      </c>
+      <c r="F146" t="s">
+        <v>29</v>
+      </c>
+      <c r="G146">
+        <v>142</v>
+      </c>
+      <c r="H146">
+        <v>4</v>
+      </c>
+      <c r="I146">
+        <v>5</v>
+      </c>
+      <c r="J146">
+        <v>0</v>
+      </c>
+      <c r="K146" s="2">
+        <v>8.5752314814814816E-4</v>
+      </c>
+      <c r="L146" s="3">
+        <f t="shared" si="2"/>
+        <v>74.09</v>
+      </c>
+      <c r="M146">
+        <v>162.143</v>
+      </c>
+      <c r="N146">
+        <v>2</v>
+      </c>
+      <c r="O146" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="147" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A147" t="s">
+        <v>55</v>
+      </c>
+      <c r="B147" t="s">
+        <v>11</v>
+      </c>
+      <c r="C147" t="s">
+        <v>48</v>
+      </c>
+      <c r="D147" t="s">
+        <v>45</v>
+      </c>
+      <c r="E147">
+        <v>15</v>
+      </c>
+      <c r="F147" t="s">
+        <v>35</v>
+      </c>
+      <c r="G147">
+        <v>22</v>
+      </c>
+      <c r="H147">
+        <v>6</v>
+      </c>
+      <c r="I147">
+        <v>6</v>
+      </c>
+      <c r="J147">
+        <v>0</v>
+      </c>
+      <c r="K147" s="2">
+        <v>8.7940972222222218E-4</v>
+      </c>
+      <c r="L147" s="3">
+        <f t="shared" si="2"/>
+        <v>75.980999999999995</v>
+      </c>
+      <c r="M147">
+        <v>158.107</v>
+      </c>
+      <c r="N147">
+        <v>2</v>
+      </c>
+      <c r="O147" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="148" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A148" t="s">
+        <v>55</v>
+      </c>
+      <c r="B148" t="s">
+        <v>11</v>
+      </c>
+      <c r="C148" t="s">
+        <v>48</v>
+      </c>
+      <c r="D148" t="s">
+        <v>36</v>
+      </c>
+      <c r="E148">
+        <v>20</v>
+      </c>
+      <c r="F148" t="s">
+        <v>37</v>
+      </c>
+      <c r="G148">
+        <v>26</v>
+      </c>
+      <c r="H148">
+        <v>8</v>
+      </c>
+      <c r="I148">
+        <v>7</v>
+      </c>
+      <c r="J148">
+        <v>0</v>
+      </c>
+      <c r="K148" s="2">
+        <v>8.6987268518518512E-4</v>
+      </c>
+      <c r="L148" s="3">
+        <f t="shared" si="2"/>
+        <v>75.156999999999996</v>
+      </c>
+      <c r="M148">
+        <v>159.84100000000001</v>
+      </c>
+      <c r="N148">
+        <v>2</v>
+      </c>
+      <c r="O148" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="149" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A149" t="s">
+        <v>55</v>
+      </c>
+      <c r="B149" t="s">
+        <v>11</v>
+      </c>
+      <c r="C149" t="s">
+        <v>48</v>
+      </c>
+      <c r="D149" t="s">
+        <v>39</v>
+      </c>
+      <c r="E149">
+        <v>4</v>
+      </c>
+      <c r="F149" t="s">
+        <v>35</v>
+      </c>
+      <c r="G149">
+        <v>22</v>
+      </c>
+      <c r="H149">
+        <v>9</v>
+      </c>
+      <c r="I149">
+        <v>8</v>
+      </c>
+      <c r="J149">
+        <v>0</v>
+      </c>
+      <c r="K149" s="2">
+        <v>8.7177083333333334E-4</v>
+      </c>
+      <c r="L149" s="3">
+        <f t="shared" si="2"/>
+        <v>75.320999999999998</v>
+      </c>
+      <c r="M149">
+        <v>159.49299999999999</v>
+      </c>
+      <c r="N149">
+        <v>2</v>
+      </c>
+      <c r="O149" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="150" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A150" t="s">
+        <v>55</v>
+      </c>
+      <c r="B150" t="s">
+        <v>11</v>
+      </c>
+      <c r="C150" t="s">
+        <v>48</v>
+      </c>
+      <c r="D150" t="s">
+        <v>22</v>
+      </c>
+      <c r="E150">
+        <v>42</v>
+      </c>
+      <c r="F150" t="s">
+        <v>23</v>
+      </c>
+      <c r="G150">
+        <v>54</v>
+      </c>
+      <c r="H150">
+        <v>10</v>
+      </c>
+      <c r="I150">
+        <v>9</v>
+      </c>
+      <c r="J150">
+        <v>0</v>
+      </c>
+      <c r="K150" s="2">
+        <v>8.6339120370370367E-4</v>
+      </c>
+      <c r="L150" s="3">
+        <f t="shared" si="2"/>
+        <v>74.596999999999994</v>
+      </c>
+      <c r="M150">
+        <v>161.041</v>
+      </c>
+      <c r="N150">
+        <v>2</v>
+      </c>
+      <c r="O150" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="151" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A151" t="s">
+        <v>55</v>
+      </c>
+      <c r="B151" t="s">
+        <v>11</v>
+      </c>
+      <c r="C151" t="s">
+        <v>48</v>
+      </c>
+      <c r="D151" t="s">
+        <v>43</v>
+      </c>
+      <c r="E151">
+        <v>12</v>
+      </c>
+      <c r="F151" t="s">
+        <v>23</v>
+      </c>
+      <c r="G151">
+        <v>54</v>
+      </c>
+      <c r="H151">
+        <v>11</v>
+      </c>
+      <c r="I151">
+        <v>10</v>
+      </c>
+      <c r="J151">
+        <v>0</v>
+      </c>
+      <c r="K151" s="2">
+        <v>8.5634259259259257E-4</v>
+      </c>
+      <c r="L151" s="3">
+        <f t="shared" si="2"/>
+        <v>73.988</v>
+      </c>
+      <c r="M151">
+        <v>162.36600000000001</v>
+      </c>
+      <c r="N151">
+        <v>2</v>
+      </c>
+      <c r="O151" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="152" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A152" t="s">
+        <v>55</v>
+      </c>
+      <c r="B152" t="s">
+        <v>11</v>
+      </c>
+      <c r="C152" t="s">
+        <v>48</v>
+      </c>
+      <c r="D152" t="s">
+        <v>19</v>
+      </c>
+      <c r="E152">
+        <v>99</v>
+      </c>
+      <c r="F152" t="s">
+        <v>20</v>
+      </c>
+      <c r="G152">
+        <v>147</v>
+      </c>
+      <c r="H152">
+        <v>14</v>
+      </c>
+      <c r="I152">
+        <v>11</v>
+      </c>
+      <c r="J152">
+        <v>0</v>
+      </c>
+      <c r="K152" s="2">
+        <v>8.4959490740740742E-4</v>
+      </c>
+      <c r="L152" s="3">
+        <f t="shared" si="2"/>
+        <v>73.405000000000001</v>
+      </c>
+      <c r="M152">
+        <v>163.65600000000001</v>
+      </c>
+      <c r="N152">
+        <v>3</v>
+      </c>
+      <c r="O152" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="153" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A153" t="s">
+        <v>55</v>
+      </c>
+      <c r="B153" t="s">
+        <v>11</v>
+      </c>
+      <c r="C153" t="s">
+        <v>48</v>
+      </c>
+      <c r="D153" t="s">
+        <v>38</v>
+      </c>
+      <c r="E153">
+        <v>6</v>
+      </c>
+      <c r="F153" t="s">
+        <v>37</v>
+      </c>
+      <c r="G153">
+        <v>26</v>
+      </c>
+      <c r="H153">
+        <v>17</v>
+      </c>
+      <c r="I153">
+        <v>12</v>
+      </c>
+      <c r="J153">
+        <v>0</v>
+      </c>
+      <c r="K153" s="2">
+        <v>8.6637731481481483E-4</v>
+      </c>
+      <c r="L153" s="3">
+        <f t="shared" si="2"/>
+        <v>74.855000000000004</v>
+      </c>
+      <c r="M153">
+        <v>160.48599999999999</v>
+      </c>
+      <c r="N153">
+        <v>2</v>
+      </c>
+      <c r="O153" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="154" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A154" t="s">
+        <v>55</v>
+      </c>
+      <c r="B154" t="s">
+        <v>11</v>
+      </c>
+      <c r="C154" t="s">
+        <v>48</v>
+      </c>
+      <c r="D154" t="s">
+        <v>81</v>
+      </c>
+      <c r="E154">
+        <v>0</v>
+      </c>
+      <c r="F154" t="s">
+        <v>33</v>
+      </c>
+      <c r="G154">
+        <v>7</v>
+      </c>
+      <c r="H154">
+        <v>20</v>
+      </c>
+      <c r="I154">
+        <v>13</v>
+      </c>
+      <c r="J154">
+        <v>0</v>
+      </c>
+      <c r="K154" s="2">
+        <v>8.7150462962962963E-4</v>
+      </c>
+      <c r="L154" s="3">
+        <f t="shared" si="2"/>
+        <v>75.298000000000002</v>
+      </c>
+      <c r="M154">
+        <v>159.542</v>
+      </c>
+      <c r="N154">
+        <v>2</v>
+      </c>
+      <c r="O154" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="155" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A155" t="s">
+        <v>55</v>
+      </c>
+      <c r="B155" t="s">
+        <v>11</v>
+      </c>
+      <c r="C155" t="s">
+        <v>48</v>
+      </c>
+      <c r="D155" t="s">
+        <v>41</v>
+      </c>
+      <c r="E155">
+        <v>0</v>
+      </c>
+      <c r="F155" t="s">
+        <v>27</v>
+      </c>
+      <c r="G155">
+        <v>6</v>
+      </c>
+      <c r="H155">
+        <v>16</v>
+      </c>
+      <c r="I155">
+        <v>14</v>
+      </c>
+      <c r="J155">
+        <v>0</v>
+      </c>
+      <c r="K155" s="2">
+        <v>8.6671296296296301E-4</v>
+      </c>
+      <c r="L155" s="3">
+        <f t="shared" si="2"/>
+        <v>74.884</v>
+      </c>
+      <c r="M155">
+        <v>160.42400000000001</v>
+      </c>
+      <c r="N155">
+        <v>3</v>
+      </c>
+      <c r="O155" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="156" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A156" t="s">
+        <v>55</v>
+      </c>
+      <c r="B156" t="s">
+        <v>11</v>
+      </c>
+      <c r="C156" t="s">
+        <v>48</v>
+      </c>
+      <c r="D156" t="s">
+        <v>24</v>
+      </c>
+      <c r="E156">
+        <v>14</v>
+      </c>
+      <c r="F156" t="s">
+        <v>25</v>
+      </c>
+      <c r="G156">
+        <v>14</v>
+      </c>
+      <c r="H156">
+        <v>19</v>
+      </c>
+      <c r="I156">
+        <v>15</v>
+      </c>
+      <c r="J156">
+        <v>0</v>
+      </c>
+      <c r="K156" s="2">
+        <v>8.6663194444444439E-4</v>
+      </c>
+      <c r="L156" s="3">
+        <f t="shared" si="2"/>
+        <v>74.876999999999995</v>
+      </c>
+      <c r="M156">
+        <v>160.43899999999999</v>
+      </c>
+      <c r="N156">
+        <v>2</v>
+      </c>
+      <c r="O156" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="157" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A157" t="s">
+        <v>55</v>
+      </c>
+      <c r="B157" t="s">
+        <v>11</v>
+      </c>
+      <c r="C157" t="s">
+        <v>48</v>
+      </c>
+      <c r="D157" t="s">
+        <v>26</v>
+      </c>
+      <c r="E157">
+        <v>6</v>
+      </c>
+      <c r="F157" t="s">
+        <v>27</v>
+      </c>
+      <c r="G157">
+        <v>6</v>
+      </c>
+      <c r="H157">
+        <v>13</v>
+      </c>
+      <c r="I157">
+        <v>16</v>
+      </c>
+      <c r="J157">
+        <v>0</v>
+      </c>
+      <c r="K157" s="2">
+        <v>8.7063657407407402E-4</v>
+      </c>
+      <c r="L157" s="3">
+        <f t="shared" si="2"/>
+        <v>75.222999999999999</v>
+      </c>
+      <c r="M157">
+        <v>159.70099999999999</v>
+      </c>
+      <c r="N157">
+        <v>2</v>
+      </c>
+      <c r="O157" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="158" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A158" t="s">
+        <v>55</v>
+      </c>
+      <c r="B158" t="s">
+        <v>11</v>
+      </c>
+      <c r="C158" t="s">
+        <v>48</v>
+      </c>
+      <c r="D158" t="s">
+        <v>34</v>
+      </c>
+      <c r="E158">
+        <v>10</v>
+      </c>
+      <c r="F158" t="s">
+        <v>18</v>
+      </c>
+      <c r="G158">
+        <v>143</v>
+      </c>
+      <c r="H158">
+        <v>12</v>
+      </c>
+      <c r="I158">
+        <v>17</v>
+      </c>
+      <c r="J158">
+        <v>0</v>
+      </c>
+      <c r="K158" s="2">
+        <v>8.6704861111111108E-4</v>
+      </c>
+      <c r="L158" s="3">
+        <f t="shared" si="2"/>
+        <v>74.912999999999997</v>
+      </c>
+      <c r="M158">
+        <v>160.36199999999999</v>
+      </c>
+      <c r="N158">
+        <v>2</v>
+      </c>
+      <c r="O158" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="159" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A159" t="s">
+        <v>55</v>
+      </c>
+      <c r="B159" t="s">
+        <v>11</v>
+      </c>
+      <c r="C159" t="s">
+        <v>48</v>
+      </c>
+      <c r="D159" t="s">
+        <v>21</v>
+      </c>
+      <c r="E159">
+        <v>48</v>
+      </c>
+      <c r="F159" t="s">
+        <v>20</v>
+      </c>
+      <c r="G159">
+        <v>147</v>
+      </c>
+      <c r="H159">
+        <v>15</v>
+      </c>
+      <c r="I159">
+        <v>18</v>
+      </c>
+      <c r="J159">
+        <v>0</v>
+      </c>
+      <c r="K159" s="2">
+        <v>8.5090277777777779E-4</v>
+      </c>
+      <c r="L159" s="3">
+        <f t="shared" si="2"/>
+        <v>73.518000000000001</v>
+      </c>
+      <c r="M159">
+        <v>163.404</v>
+      </c>
+      <c r="N159">
+        <v>2</v>
+      </c>
+      <c r="O159" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="160" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A160" t="s">
+        <v>55</v>
+      </c>
+      <c r="B160" t="s">
+        <v>11</v>
+      </c>
+      <c r="C160" t="s">
+        <v>48</v>
+      </c>
+      <c r="D160" t="s">
+        <v>42</v>
+      </c>
+      <c r="E160">
+        <v>0</v>
+      </c>
+      <c r="F160" t="s">
+        <v>25</v>
+      </c>
+      <c r="G160">
+        <v>14</v>
+      </c>
+      <c r="H160">
+        <v>7</v>
+      </c>
+      <c r="I160">
+        <v>19</v>
+      </c>
+      <c r="J160">
+        <v>0</v>
+      </c>
+      <c r="K160" s="2">
+        <v>8.7491898148148151E-4</v>
+      </c>
+      <c r="L160" s="3">
+        <f t="shared" si="2"/>
+        <v>75.593000000000004</v>
+      </c>
+      <c r="M160">
+        <v>158.91900000000001</v>
+      </c>
+      <c r="N160">
+        <v>1</v>
+      </c>
+      <c r="O160" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="161" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A161" t="s">
+        <v>55</v>
+      </c>
+      <c r="B161" t="s">
+        <v>11</v>
+      </c>
+      <c r="C161" t="s">
+        <v>48</v>
+      </c>
+      <c r="D161" t="s">
+        <v>32</v>
+      </c>
+      <c r="E161">
+        <v>7</v>
+      </c>
+      <c r="F161" t="s">
+        <v>33</v>
+      </c>
+      <c r="G161">
+        <v>7</v>
+      </c>
+      <c r="H161">
+        <v>18</v>
+      </c>
+      <c r="I161">
+        <v>20</v>
+      </c>
+      <c r="J161">
+        <v>0</v>
+      </c>
+      <c r="K161" s="2">
+        <v>9.0340277777777782E-4</v>
+      </c>
+      <c r="L161" s="3">
+        <f t="shared" si="2"/>
+        <v>78.054000000000002</v>
+      </c>
+      <c r="M161">
+        <v>153.90799999999999</v>
+      </c>
+      <c r="N161">
+        <v>1</v>
+      </c>
+      <c r="O161" t="s">
         <v>40</v>
       </c>
     </row>

--- a/F1.xlsx
+++ b/F1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\vs\f1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A324E15-3AE2-4B76-ADC8-043C1F2E553A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{488D37C3-4E1D-430A-956A-3AE986FA7751}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00798B61-A4AB-4634-A493-7936C2BE7462}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1324" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1444" uniqueCount="82">
   <si>
     <t>Race_Name</t>
   </si>
@@ -640,10 +640,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36F0DB36-4229-4BFD-868F-09E812C5EFF8}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:S161"/>
+  <dimension ref="A1:S181"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A138" workbookViewId="0">
-      <selection activeCell="M147" sqref="M147"/>
+    <sheetView tabSelected="1" topLeftCell="A165" workbookViewId="0">
+      <selection activeCell="M182" sqref="M182"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6873,7 +6873,7 @@
         <v>9.2637731481481488E-4</v>
       </c>
       <c r="L131" s="3">
-        <f t="shared" ref="L131:L161" si="2">(K131 - INT(K131/1))*86400</f>
+        <f t="shared" ref="L131:L181" si="2">(K131 - INT(K131/1))*86400</f>
         <v>80.039000000000001</v>
       </c>
       <c r="M131">
@@ -8323,6 +8323,955 @@
         <v>1</v>
       </c>
       <c r="O161" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="162" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A162" t="s">
+        <v>57</v>
+      </c>
+      <c r="B162" t="s">
+        <v>47</v>
+      </c>
+      <c r="C162" t="s">
+        <v>48</v>
+      </c>
+      <c r="D162" t="s">
+        <v>30</v>
+      </c>
+      <c r="E162">
+        <v>186</v>
+      </c>
+      <c r="F162" t="s">
+        <v>14</v>
+      </c>
+      <c r="G162">
+        <v>362</v>
+      </c>
+      <c r="H162">
+        <v>1</v>
+      </c>
+      <c r="I162">
+        <v>1</v>
+      </c>
+      <c r="J162">
+        <v>1</v>
+      </c>
+      <c r="K162" s="2">
+        <v>8.766550925925925E-4</v>
+      </c>
+      <c r="L162" s="3">
+        <f t="shared" si="2"/>
+        <v>75.742999999999995</v>
+      </c>
+      <c r="M162">
+        <v>221.34299999999999</v>
+      </c>
+      <c r="N162">
+        <v>3</v>
+      </c>
+      <c r="O162" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="163" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A163" t="s">
+        <v>57</v>
+      </c>
+      <c r="B163" t="s">
+        <v>47</v>
+      </c>
+      <c r="C163" t="s">
+        <v>48</v>
+      </c>
+      <c r="D163" t="s">
+        <v>13</v>
+      </c>
+      <c r="E163">
+        <v>176</v>
+      </c>
+      <c r="F163" t="s">
+        <v>14</v>
+      </c>
+      <c r="G163">
+        <v>362</v>
+      </c>
+      <c r="H163">
+        <v>2</v>
+      </c>
+      <c r="I163">
+        <v>2</v>
+      </c>
+      <c r="J163">
+        <v>0</v>
+      </c>
+      <c r="K163" s="2">
+        <v>8.8179398148148145E-4</v>
+      </c>
+      <c r="L163" s="3">
+        <f t="shared" si="2"/>
+        <v>76.186999999999998</v>
+      </c>
+      <c r="M163">
+        <v>220.053</v>
+      </c>
+      <c r="N163">
+        <v>3</v>
+      </c>
+      <c r="O163" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="164" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A164" t="s">
+        <v>57</v>
+      </c>
+      <c r="B164" t="s">
+        <v>47</v>
+      </c>
+      <c r="C164" t="s">
+        <v>48</v>
+      </c>
+      <c r="D164" t="s">
+        <v>28</v>
+      </c>
+      <c r="E164">
+        <v>94</v>
+      </c>
+      <c r="F164" t="s">
+        <v>29</v>
+      </c>
+      <c r="G164">
+        <v>165</v>
+      </c>
+      <c r="H164">
+        <v>7</v>
+      </c>
+      <c r="I164">
+        <v>3</v>
+      </c>
+      <c r="J164">
+        <v>0</v>
+      </c>
+      <c r="K164" s="2">
+        <v>8.9420138888888893E-4</v>
+      </c>
+      <c r="L164" s="3">
+        <f t="shared" si="2"/>
+        <v>77.259</v>
+      </c>
+      <c r="M164">
+        <v>216.999</v>
+      </c>
+      <c r="N164">
+        <v>3</v>
+      </c>
+      <c r="O164" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="165" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A165" t="s">
+        <v>57</v>
+      </c>
+      <c r="B165" t="s">
+        <v>47</v>
+      </c>
+      <c r="C165" t="s">
+        <v>48</v>
+      </c>
+      <c r="D165" t="s">
+        <v>19</v>
+      </c>
+      <c r="E165">
+        <v>111</v>
+      </c>
+      <c r="F165" t="s">
+        <v>20</v>
+      </c>
+      <c r="G165">
+        <v>159</v>
+      </c>
+      <c r="H165">
+        <v>4</v>
+      </c>
+      <c r="I165">
+        <v>4</v>
+      </c>
+      <c r="J165">
+        <v>0</v>
+      </c>
+      <c r="K165" s="2">
+        <v>8.9402777777777777E-4</v>
+      </c>
+      <c r="L165" s="3">
+        <f t="shared" si="2"/>
+        <v>77.244</v>
+      </c>
+      <c r="M165">
+        <v>217.042</v>
+      </c>
+      <c r="N165">
+        <v>3</v>
+      </c>
+      <c r="O165" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="166" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A166" t="s">
+        <v>57</v>
+      </c>
+      <c r="B166" t="s">
+        <v>47</v>
+      </c>
+      <c r="C166" t="s">
+        <v>48</v>
+      </c>
+      <c r="D166" t="s">
+        <v>26</v>
+      </c>
+      <c r="E166">
+        <v>16</v>
+      </c>
+      <c r="F166" t="s">
+        <v>27</v>
+      </c>
+      <c r="G166">
+        <v>16</v>
+      </c>
+      <c r="H166">
+        <v>16</v>
+      </c>
+      <c r="I166">
+        <v>5</v>
+      </c>
+      <c r="J166">
+        <v>0</v>
+      </c>
+      <c r="K166" s="2">
+        <v>8.9785879629629634E-4</v>
+      </c>
+      <c r="L166" s="3">
+        <f t="shared" si="2"/>
+        <v>77.575000000000003</v>
+      </c>
+      <c r="M166">
+        <v>216.11600000000001</v>
+      </c>
+      <c r="N166">
+        <v>3</v>
+      </c>
+      <c r="O166" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="167" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A167" t="s">
+        <v>57</v>
+      </c>
+      <c r="B167" t="s">
+        <v>47</v>
+      </c>
+      <c r="C167" t="s">
+        <v>48</v>
+      </c>
+      <c r="D167" t="s">
+        <v>31</v>
+      </c>
+      <c r="E167">
+        <v>71</v>
+      </c>
+      <c r="F167" t="s">
+        <v>29</v>
+      </c>
+      <c r="G167">
+        <v>165</v>
+      </c>
+      <c r="H167">
+        <v>5</v>
+      </c>
+      <c r="I167">
+        <v>6</v>
+      </c>
+      <c r="J167">
+        <v>0</v>
+      </c>
+      <c r="K167" s="2">
+        <v>8.99375E-4</v>
+      </c>
+      <c r="L167" s="3">
+        <f t="shared" si="2"/>
+        <v>77.706000000000003</v>
+      </c>
+      <c r="M167">
+        <v>215.751</v>
+      </c>
+      <c r="N167">
+        <v>3</v>
+      </c>
+      <c r="O167" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="168" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A168" t="s">
+        <v>57</v>
+      </c>
+      <c r="B168" t="s">
+        <v>47</v>
+      </c>
+      <c r="C168" t="s">
+        <v>48</v>
+      </c>
+      <c r="D168" t="s">
+        <v>45</v>
+      </c>
+      <c r="E168">
+        <v>21</v>
+      </c>
+      <c r="F168" t="s">
+        <v>35</v>
+      </c>
+      <c r="G168">
+        <v>28</v>
+      </c>
+      <c r="H168">
+        <v>9</v>
+      </c>
+      <c r="I168">
+        <v>7</v>
+      </c>
+      <c r="J168">
+        <v>0</v>
+      </c>
+      <c r="K168" s="2">
+        <v>9.0011574074074072E-4</v>
+      </c>
+      <c r="L168" s="3">
+        <f t="shared" si="2"/>
+        <v>77.77</v>
+      </c>
+      <c r="M168">
+        <v>215.57400000000001</v>
+      </c>
+      <c r="N168">
+        <v>3</v>
+      </c>
+      <c r="O168" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="169" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A169" t="s">
+        <v>57</v>
+      </c>
+      <c r="B169" t="s">
+        <v>47</v>
+      </c>
+      <c r="C169" t="s">
+        <v>48</v>
+      </c>
+      <c r="D169" t="s">
+        <v>32</v>
+      </c>
+      <c r="E169">
+        <v>11</v>
+      </c>
+      <c r="F169" t="s">
+        <v>33</v>
+      </c>
+      <c r="G169">
+        <v>11</v>
+      </c>
+      <c r="H169">
+        <v>8</v>
+      </c>
+      <c r="I169">
+        <v>8</v>
+      </c>
+      <c r="J169">
+        <v>0</v>
+      </c>
+      <c r="K169" s="2">
+        <v>9.0157407407407406E-4</v>
+      </c>
+      <c r="L169" s="3">
+        <f t="shared" si="2"/>
+        <v>77.896000000000001</v>
+      </c>
+      <c r="M169">
+        <v>215.22499999999999</v>
+      </c>
+      <c r="N169">
+        <v>3</v>
+      </c>
+      <c r="O169" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="170" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A170" t="s">
+        <v>57</v>
+      </c>
+      <c r="B170" t="s">
+        <v>47</v>
+      </c>
+      <c r="C170" t="s">
+        <v>48</v>
+      </c>
+      <c r="D170" t="s">
+        <v>42</v>
+      </c>
+      <c r="E170">
+        <v>2</v>
+      </c>
+      <c r="F170" t="s">
+        <v>25</v>
+      </c>
+      <c r="G170">
+        <v>16</v>
+      </c>
+      <c r="H170">
+        <v>10</v>
+      </c>
+      <c r="I170">
+        <v>9</v>
+      </c>
+      <c r="J170">
+        <v>0</v>
+      </c>
+      <c r="K170" s="2">
+        <v>9.0425925925925927E-4</v>
+      </c>
+      <c r="L170" s="3">
+        <f t="shared" si="2"/>
+        <v>78.128</v>
+      </c>
+      <c r="M170">
+        <v>214.58600000000001</v>
+      </c>
+      <c r="N170">
+        <v>3</v>
+      </c>
+      <c r="O170" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="171" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A171" t="s">
+        <v>57</v>
+      </c>
+      <c r="B171" t="s">
+        <v>47</v>
+      </c>
+      <c r="C171" t="s">
+        <v>48</v>
+      </c>
+      <c r="D171" t="s">
+        <v>17</v>
+      </c>
+      <c r="E171">
+        <v>137</v>
+      </c>
+      <c r="F171" t="s">
+        <v>18</v>
+      </c>
+      <c r="G171">
+        <v>144</v>
+      </c>
+      <c r="H171">
+        <v>3</v>
+      </c>
+      <c r="I171">
+        <v>10</v>
+      </c>
+      <c r="J171">
+        <v>0</v>
+      </c>
+      <c r="K171" s="2">
+        <v>8.9142361111111117E-4</v>
+      </c>
+      <c r="L171" s="3">
+        <f t="shared" si="2"/>
+        <v>77.019000000000005</v>
+      </c>
+      <c r="M171">
+        <v>217.67599999999999</v>
+      </c>
+      <c r="N171">
+        <v>4</v>
+      </c>
+      <c r="O171" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="172" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A172" t="s">
+        <v>57</v>
+      </c>
+      <c r="B172" t="s">
+        <v>47</v>
+      </c>
+      <c r="C172" t="s">
+        <v>48</v>
+      </c>
+      <c r="D172" t="s">
+        <v>39</v>
+      </c>
+      <c r="E172">
+        <v>4</v>
+      </c>
+      <c r="F172" t="s">
+        <v>35</v>
+      </c>
+      <c r="G172">
+        <v>28</v>
+      </c>
+      <c r="H172">
+        <v>13</v>
+      </c>
+      <c r="I172">
+        <v>11</v>
+      </c>
+      <c r="J172">
+        <v>0</v>
+      </c>
+      <c r="K172" s="2">
+        <v>9.1925925925925931E-4</v>
+      </c>
+      <c r="L172" s="3">
+        <f t="shared" si="2"/>
+        <v>79.424000000000007</v>
+      </c>
+      <c r="M172">
+        <v>211.084</v>
+      </c>
+      <c r="N172">
+        <v>2</v>
+      </c>
+      <c r="O172" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="173" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A173" t="s">
+        <v>57</v>
+      </c>
+      <c r="B173" t="s">
+        <v>47</v>
+      </c>
+      <c r="C173" t="s">
+        <v>48</v>
+      </c>
+      <c r="D173" t="s">
+        <v>41</v>
+      </c>
+      <c r="E173">
+        <v>0</v>
+      </c>
+      <c r="F173" t="s">
+        <v>27</v>
+      </c>
+      <c r="G173">
+        <v>16</v>
+      </c>
+      <c r="H173">
+        <v>12</v>
+      </c>
+      <c r="I173">
+        <v>12</v>
+      </c>
+      <c r="J173">
+        <v>0</v>
+      </c>
+      <c r="K173" s="2">
+        <v>9.062152777777777E-4</v>
+      </c>
+      <c r="L173" s="3">
+        <f t="shared" si="2"/>
+        <v>78.296999999999997</v>
+      </c>
+      <c r="M173">
+        <v>214.12299999999999</v>
+      </c>
+      <c r="N173">
+        <v>2</v>
+      </c>
+      <c r="O173" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="174" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A174" t="s">
+        <v>57</v>
+      </c>
+      <c r="B174" t="s">
+        <v>47</v>
+      </c>
+      <c r="C174" t="s">
+        <v>48</v>
+      </c>
+      <c r="D174" t="s">
+        <v>34</v>
+      </c>
+      <c r="E174">
+        <v>10</v>
+      </c>
+      <c r="F174" t="s">
+        <v>18</v>
+      </c>
+      <c r="G174">
+        <v>144</v>
+      </c>
+      <c r="H174">
+        <v>20</v>
+      </c>
+      <c r="I174">
+        <v>13</v>
+      </c>
+      <c r="J174">
+        <v>0</v>
+      </c>
+      <c r="K174" s="2">
+        <v>9.0275462962962965E-4</v>
+      </c>
+      <c r="L174" s="3">
+        <f t="shared" si="2"/>
+        <v>77.998000000000005</v>
+      </c>
+      <c r="M174">
+        <v>214.94300000000001</v>
+      </c>
+      <c r="N174">
+        <v>4</v>
+      </c>
+      <c r="O174" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="175" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A175" t="s">
+        <v>57</v>
+      </c>
+      <c r="B175" t="s">
+        <v>47</v>
+      </c>
+      <c r="C175" t="s">
+        <v>48</v>
+      </c>
+      <c r="D175" t="s">
+        <v>43</v>
+      </c>
+      <c r="E175">
+        <v>12</v>
+      </c>
+      <c r="F175" t="s">
+        <v>23</v>
+      </c>
+      <c r="G175">
+        <v>54</v>
+      </c>
+      <c r="H175">
+        <v>18</v>
+      </c>
+      <c r="I175">
+        <v>14</v>
+      </c>
+      <c r="J175">
+        <v>0</v>
+      </c>
+      <c r="K175" s="2">
+        <v>9.1802083333333341E-4</v>
+      </c>
+      <c r="L175" s="3">
+        <f t="shared" si="2"/>
+        <v>79.317000000000007</v>
+      </c>
+      <c r="M175">
+        <v>211.369</v>
+      </c>
+      <c r="N175">
+        <v>3</v>
+      </c>
+      <c r="O175" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="176" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A176" t="s">
+        <v>57</v>
+      </c>
+      <c r="B176" t="s">
+        <v>47</v>
+      </c>
+      <c r="C176" t="s">
+        <v>48</v>
+      </c>
+      <c r="D176" t="s">
+        <v>81</v>
+      </c>
+      <c r="E176">
+        <v>0</v>
+      </c>
+      <c r="F176" t="s">
+        <v>33</v>
+      </c>
+      <c r="G176">
+        <v>11</v>
+      </c>
+      <c r="H176">
+        <v>19</v>
+      </c>
+      <c r="I176">
+        <v>15</v>
+      </c>
+      <c r="J176">
+        <v>0</v>
+      </c>
+      <c r="K176" s="2">
+        <v>9.0686342592592598E-4</v>
+      </c>
+      <c r="L176" s="3">
+        <f t="shared" si="2"/>
+        <v>78.353000000000009</v>
+      </c>
+      <c r="M176">
+        <v>213.97</v>
+      </c>
+      <c r="N176">
+        <v>3</v>
+      </c>
+      <c r="O176" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="177" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A177" t="s">
+        <v>57</v>
+      </c>
+      <c r="B177" t="s">
+        <v>47</v>
+      </c>
+      <c r="C177" t="s">
+        <v>48</v>
+      </c>
+      <c r="D177" t="s">
+        <v>36</v>
+      </c>
+      <c r="E177">
+        <v>20</v>
+      </c>
+      <c r="F177" t="s">
+        <v>37</v>
+      </c>
+      <c r="G177">
+        <v>26</v>
+      </c>
+      <c r="H177">
+        <v>17</v>
+      </c>
+      <c r="I177">
+        <v>16</v>
+      </c>
+      <c r="J177">
+        <v>0</v>
+      </c>
+      <c r="K177" s="2">
+        <v>9.0999999999999989E-4</v>
+      </c>
+      <c r="L177" s="3">
+        <f t="shared" si="2"/>
+        <v>78.623999999999995</v>
+      </c>
+      <c r="M177">
+        <v>213.232</v>
+      </c>
+      <c r="N177">
+        <v>2</v>
+      </c>
+      <c r="O177" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="178" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A178" t="s">
+        <v>57</v>
+      </c>
+      <c r="B178" t="s">
+        <v>47</v>
+      </c>
+      <c r="C178" t="s">
+        <v>48</v>
+      </c>
+      <c r="D178" t="s">
+        <v>38</v>
+      </c>
+      <c r="E178">
+        <v>6</v>
+      </c>
+      <c r="F178" t="s">
+        <v>37</v>
+      </c>
+      <c r="G178">
+        <v>26</v>
+      </c>
+      <c r="H178">
+        <v>15</v>
+      </c>
+      <c r="I178">
+        <v>17</v>
+      </c>
+      <c r="J178">
+        <v>0</v>
+      </c>
+      <c r="K178" s="2">
+        <v>9.1327546296296296E-4</v>
+      </c>
+      <c r="L178" s="3">
+        <f t="shared" si="2"/>
+        <v>78.906999999999996</v>
+      </c>
+      <c r="M178">
+        <v>212.46700000000001</v>
+      </c>
+      <c r="N178">
+        <v>3</v>
+      </c>
+      <c r="O178" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="179" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A179" t="s">
+        <v>57</v>
+      </c>
+      <c r="B179" t="s">
+        <v>47</v>
+      </c>
+      <c r="C179" t="s">
+        <v>48</v>
+      </c>
+      <c r="D179" t="s">
+        <v>21</v>
+      </c>
+      <c r="E179">
+        <v>48</v>
+      </c>
+      <c r="F179" t="s">
+        <v>20</v>
+      </c>
+      <c r="G179">
+        <v>159</v>
+      </c>
+      <c r="H179">
+        <v>6</v>
+      </c>
+      <c r="I179">
+        <v>18</v>
+      </c>
+      <c r="J179">
+        <v>0</v>
+      </c>
+      <c r="K179" s="2">
+        <v>9.0572916666666666E-4</v>
+      </c>
+      <c r="L179" s="3">
+        <f t="shared" si="2"/>
+        <v>78.254999999999995</v>
+      </c>
+      <c r="M179">
+        <v>214.238</v>
+      </c>
+      <c r="N179">
+        <v>2</v>
+      </c>
+      <c r="O179" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="180" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A180" t="s">
+        <v>57</v>
+      </c>
+      <c r="B180" t="s">
+        <v>47</v>
+      </c>
+      <c r="C180" t="s">
+        <v>48</v>
+      </c>
+      <c r="D180" t="s">
+        <v>22</v>
+      </c>
+      <c r="E180">
+        <v>42</v>
+      </c>
+      <c r="F180" t="s">
+        <v>23</v>
+      </c>
+      <c r="G180">
+        <v>54</v>
+      </c>
+      <c r="H180">
+        <v>11</v>
+      </c>
+      <c r="I180">
+        <v>19</v>
+      </c>
+      <c r="J180">
+        <v>0</v>
+      </c>
+      <c r="K180" s="2">
+        <v>9.3180555555555551E-4</v>
+      </c>
+      <c r="L180" s="3">
+        <f t="shared" si="2"/>
+        <v>80.507999999999996</v>
+      </c>
+      <c r="M180">
+        <v>208.24199999999999</v>
+      </c>
+      <c r="N180">
+        <v>2</v>
+      </c>
+      <c r="O180" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="181" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A181" t="s">
+        <v>57</v>
+      </c>
+      <c r="B181" t="s">
+        <v>47</v>
+      </c>
+      <c r="C181" t="s">
+        <v>48</v>
+      </c>
+      <c r="D181" t="s">
+        <v>24</v>
+      </c>
+      <c r="E181">
+        <v>14</v>
+      </c>
+      <c r="F181" t="s">
+        <v>25</v>
+      </c>
+      <c r="G181">
+        <v>16</v>
+      </c>
+      <c r="H181">
+        <v>14</v>
+      </c>
+      <c r="I181">
+        <v>20</v>
+      </c>
+      <c r="J181">
+        <v>0</v>
+      </c>
+      <c r="K181" s="2"/>
+      <c r="L181" s="3"/>
+      <c r="O181" t="s">
         <v>40</v>
       </c>
     </row>

--- a/F1.xlsx
+++ b/F1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\vs\f1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{488D37C3-4E1D-430A-956A-3AE986FA7751}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1A410BC-D2A7-4B93-AA22-3CFD946AFAC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00798B61-A4AB-4634-A493-7936C2BE7462}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1444" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1564" uniqueCount="82">
   <si>
     <t>Race_Name</t>
   </si>
@@ -640,10 +640,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36F0DB36-4229-4BFD-868F-09E812C5EFF8}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:S181"/>
+  <dimension ref="A1:S201"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A165" workbookViewId="0">
-      <selection activeCell="M182" sqref="M182"/>
+    <sheetView tabSelected="1" topLeftCell="A178" workbookViewId="0">
+      <selection activeCell="P182" sqref="P182"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6873,7 +6873,7 @@
         <v>9.2637731481481488E-4</v>
       </c>
       <c r="L131" s="3">
-        <f t="shared" ref="L131:L181" si="2">(K131 - INT(K131/1))*86400</f>
+        <f t="shared" ref="L131:L194" si="2">(K131 - INT(K131/1))*86400</f>
         <v>80.039000000000001</v>
       </c>
       <c r="M131">
@@ -9222,11 +9222,11 @@
         <v>0</v>
       </c>
       <c r="K180" s="2">
-        <v>9.3180555555555551E-4</v>
+        <v>9.3749999999999997E-4</v>
       </c>
       <c r="L180" s="3">
         <f t="shared" si="2"/>
-        <v>80.507999999999996</v>
+        <v>81</v>
       </c>
       <c r="M180">
         <v>208.24199999999999</v>
@@ -9272,6 +9272,966 @@
       <c r="K181" s="2"/>
       <c r="L181" s="3"/>
       <c r="O181" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="182" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A182" t="s">
+        <v>56</v>
+      </c>
+      <c r="B182" t="s">
+        <v>11</v>
+      </c>
+      <c r="C182" t="s">
+        <v>48</v>
+      </c>
+      <c r="D182" t="s">
+        <v>19</v>
+      </c>
+      <c r="E182">
+        <v>136</v>
+      </c>
+      <c r="F182" t="s">
+        <v>20</v>
+      </c>
+      <c r="G182">
+        <v>199</v>
+      </c>
+      <c r="H182">
+        <v>1</v>
+      </c>
+      <c r="I182">
+        <v>1</v>
+      </c>
+      <c r="J182">
+        <v>1</v>
+      </c>
+      <c r="K182" s="2">
+        <v>8.5785879629629634E-4</v>
+      </c>
+      <c r="L182" s="3">
+        <f t="shared" si="2"/>
+        <v>74.119</v>
+      </c>
+      <c r="M182">
+        <v>211.816</v>
+      </c>
+      <c r="N182">
+        <v>2</v>
+      </c>
+      <c r="O182" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="183" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A183" t="s">
+        <v>56</v>
+      </c>
+      <c r="B183" t="s">
+        <v>11</v>
+      </c>
+      <c r="C183" t="s">
+        <v>48</v>
+      </c>
+      <c r="D183" t="s">
+        <v>17</v>
+      </c>
+      <c r="E183">
+        <v>155</v>
+      </c>
+      <c r="F183" t="s">
+        <v>18</v>
+      </c>
+      <c r="G183">
+        <v>162</v>
+      </c>
+      <c r="H183">
+        <v>2</v>
+      </c>
+      <c r="I183">
+        <v>2</v>
+      </c>
+      <c r="J183">
+        <v>0</v>
+      </c>
+      <c r="K183" s="2">
+        <v>8.5980324074074084E-4</v>
+      </c>
+      <c r="L183" s="3">
+        <f t="shared" si="2"/>
+        <v>74.287000000000006</v>
+      </c>
+      <c r="M183">
+        <v>211.33699999999999</v>
+      </c>
+      <c r="N183">
+        <v>2</v>
+      </c>
+      <c r="O183" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="184" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A184" t="s">
+        <v>56</v>
+      </c>
+      <c r="B184" t="s">
+        <v>11</v>
+      </c>
+      <c r="C184" t="s">
+        <v>48</v>
+      </c>
+      <c r="D184" t="s">
+        <v>21</v>
+      </c>
+      <c r="E184">
+        <v>63</v>
+      </c>
+      <c r="F184" t="s">
+        <v>20</v>
+      </c>
+      <c r="G184">
+        <v>199</v>
+      </c>
+      <c r="H184">
+        <v>4</v>
+      </c>
+      <c r="I184">
+        <v>3</v>
+      </c>
+      <c r="J184">
+        <v>0</v>
+      </c>
+      <c r="K184" s="2">
+        <v>8.6174768518518512E-4</v>
+      </c>
+      <c r="L184" s="3">
+        <f t="shared" si="2"/>
+        <v>74.454999999999998</v>
+      </c>
+      <c r="M184">
+        <v>210.86</v>
+      </c>
+      <c r="N184">
+        <v>2</v>
+      </c>
+      <c r="O184" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="185" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A185" t="s">
+        <v>56</v>
+      </c>
+      <c r="B185" t="s">
+        <v>11</v>
+      </c>
+      <c r="C185" t="s">
+        <v>48</v>
+      </c>
+      <c r="D185" t="s">
+        <v>30</v>
+      </c>
+      <c r="E185">
+        <v>198</v>
+      </c>
+      <c r="F185" t="s">
+        <v>14</v>
+      </c>
+      <c r="G185">
+        <v>374</v>
+      </c>
+      <c r="H185">
+        <v>3</v>
+      </c>
+      <c r="I185">
+        <v>4</v>
+      </c>
+      <c r="J185">
+        <v>0</v>
+      </c>
+      <c r="K185" s="2">
+        <v>8.5943287037037032E-4</v>
+      </c>
+      <c r="L185" s="3">
+        <f t="shared" si="2"/>
+        <v>74.254999999999995</v>
+      </c>
+      <c r="M185">
+        <v>211.428</v>
+      </c>
+      <c r="N185">
+        <v>3</v>
+      </c>
+      <c r="O185" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="186" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A186" t="s">
+        <v>56</v>
+      </c>
+      <c r="B186" t="s">
+        <v>11</v>
+      </c>
+      <c r="C186" t="s">
+        <v>48</v>
+      </c>
+      <c r="D186" t="s">
+        <v>28</v>
+      </c>
+      <c r="E186">
+        <v>104</v>
+      </c>
+      <c r="F186" t="s">
+        <v>29</v>
+      </c>
+      <c r="G186">
+        <v>183</v>
+      </c>
+      <c r="H186">
+        <v>8</v>
+      </c>
+      <c r="I186">
+        <v>5</v>
+      </c>
+      <c r="J186">
+        <v>0</v>
+      </c>
+      <c r="K186" s="2">
+        <v>8.5950231481481479E-4</v>
+      </c>
+      <c r="L186" s="3">
+        <f t="shared" si="2"/>
+        <v>74.260999999999996</v>
+      </c>
+      <c r="M186">
+        <v>211.411</v>
+      </c>
+      <c r="N186">
+        <v>2</v>
+      </c>
+      <c r="O186" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="187" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A187" t="s">
+        <v>56</v>
+      </c>
+      <c r="B187" t="s">
+        <v>11</v>
+      </c>
+      <c r="C187" t="s">
+        <v>48</v>
+      </c>
+      <c r="D187" t="s">
+        <v>31</v>
+      </c>
+      <c r="E187">
+        <v>79</v>
+      </c>
+      <c r="F187" t="s">
+        <v>29</v>
+      </c>
+      <c r="G187">
+        <v>183</v>
+      </c>
+      <c r="H187">
+        <v>5</v>
+      </c>
+      <c r="I187">
+        <v>6</v>
+      </c>
+      <c r="J187">
+        <v>0</v>
+      </c>
+      <c r="K187" s="2">
+        <v>8.6579861111111124E-4</v>
+      </c>
+      <c r="L187" s="3">
+        <f t="shared" si="2"/>
+        <v>74.805000000000007</v>
+      </c>
+      <c r="M187">
+        <v>209.87299999999999</v>
+      </c>
+      <c r="N187">
+        <v>2</v>
+      </c>
+      <c r="O187" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="188" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A188" t="s">
+        <v>56</v>
+      </c>
+      <c r="B188" t="s">
+        <v>11</v>
+      </c>
+      <c r="C188" t="s">
+        <v>48</v>
+      </c>
+      <c r="D188" t="s">
+        <v>42</v>
+      </c>
+      <c r="E188">
+        <v>8</v>
+      </c>
+      <c r="F188" t="s">
+        <v>25</v>
+      </c>
+      <c r="G188">
+        <v>22</v>
+      </c>
+      <c r="H188">
+        <v>6</v>
+      </c>
+      <c r="I188">
+        <v>7</v>
+      </c>
+      <c r="J188">
+        <v>0</v>
+      </c>
+      <c r="K188" s="2">
+        <v>8.6833333333333337E-4</v>
+      </c>
+      <c r="L188" s="3">
+        <f t="shared" si="2"/>
+        <v>75.024000000000001</v>
+      </c>
+      <c r="M188">
+        <v>209.261</v>
+      </c>
+      <c r="N188">
+        <v>2</v>
+      </c>
+      <c r="O188" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="189" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A189" t="s">
+        <v>56</v>
+      </c>
+      <c r="B189" t="s">
+        <v>11</v>
+      </c>
+      <c r="C189" t="s">
+        <v>48</v>
+      </c>
+      <c r="D189" t="s">
+        <v>26</v>
+      </c>
+      <c r="E189">
+        <v>20</v>
+      </c>
+      <c r="F189" t="s">
+        <v>27</v>
+      </c>
+      <c r="G189">
+        <v>20</v>
+      </c>
+      <c r="H189">
+        <v>13</v>
+      </c>
+      <c r="I189">
+        <v>8</v>
+      </c>
+      <c r="J189">
+        <v>0</v>
+      </c>
+      <c r="K189" s="2">
+        <v>8.7236111111111108E-4</v>
+      </c>
+      <c r="L189" s="3">
+        <f t="shared" si="2"/>
+        <v>75.372</v>
+      </c>
+      <c r="M189">
+        <v>208.29400000000001</v>
+      </c>
+      <c r="N189">
+        <v>1</v>
+      </c>
+      <c r="O189" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="190" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A190" t="s">
+        <v>56</v>
+      </c>
+      <c r="B190" t="s">
+        <v>11</v>
+      </c>
+      <c r="C190" t="s">
+        <v>48</v>
+      </c>
+      <c r="D190" t="s">
+        <v>36</v>
+      </c>
+      <c r="E190">
+        <v>22</v>
+      </c>
+      <c r="F190" t="s">
+        <v>37</v>
+      </c>
+      <c r="G190">
+        <v>28</v>
+      </c>
+      <c r="H190">
+        <v>15</v>
+      </c>
+      <c r="I190">
+        <v>9</v>
+      </c>
+      <c r="J190">
+        <v>0</v>
+      </c>
+      <c r="K190" s="2">
+        <v>8.633449074074074E-4</v>
+      </c>
+      <c r="L190" s="3">
+        <f t="shared" si="2"/>
+        <v>74.593000000000004</v>
+      </c>
+      <c r="M190">
+        <v>210.47</v>
+      </c>
+      <c r="N190">
+        <v>1</v>
+      </c>
+      <c r="O190" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="191" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A191" t="s">
+        <v>56</v>
+      </c>
+      <c r="B191" t="s">
+        <v>11</v>
+      </c>
+      <c r="C191" t="s">
+        <v>48</v>
+      </c>
+      <c r="D191" t="s">
+        <v>43</v>
+      </c>
+      <c r="E191">
+        <v>13</v>
+      </c>
+      <c r="F191" t="s">
+        <v>23</v>
+      </c>
+      <c r="G191">
+        <v>55</v>
+      </c>
+      <c r="H191">
+        <v>17</v>
+      </c>
+      <c r="I191">
+        <v>10</v>
+      </c>
+      <c r="J191">
+        <v>0</v>
+      </c>
+      <c r="K191" s="2">
+        <v>8.6098379629629622E-4</v>
+      </c>
+      <c r="L191" s="3">
+        <f t="shared" si="2"/>
+        <v>74.388999999999996</v>
+      </c>
+      <c r="M191">
+        <v>211.047</v>
+      </c>
+      <c r="N191">
+        <v>1</v>
+      </c>
+      <c r="O191" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="192" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A192" t="s">
+        <v>56</v>
+      </c>
+      <c r="B192" t="s">
+        <v>11</v>
+      </c>
+      <c r="C192" t="s">
+        <v>48</v>
+      </c>
+      <c r="D192" t="s">
+        <v>38</v>
+      </c>
+      <c r="E192">
+        <v>6</v>
+      </c>
+      <c r="F192" t="s">
+        <v>37</v>
+      </c>
+      <c r="G192">
+        <v>28</v>
+      </c>
+      <c r="H192">
+        <v>14</v>
+      </c>
+      <c r="I192">
+        <v>11</v>
+      </c>
+      <c r="J192">
+        <v>0</v>
+      </c>
+      <c r="K192" s="2">
+        <v>8.7265046296296298E-4</v>
+      </c>
+      <c r="L192" s="3">
+        <f t="shared" si="2"/>
+        <v>75.397000000000006</v>
+      </c>
+      <c r="M192">
+        <v>208.22499999999999</v>
+      </c>
+      <c r="N192">
+        <v>2</v>
+      </c>
+      <c r="O192" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="193" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A193" t="s">
+        <v>56</v>
+      </c>
+      <c r="B193" t="s">
+        <v>11</v>
+      </c>
+      <c r="C193" t="s">
+        <v>48</v>
+      </c>
+      <c r="D193" t="s">
+        <v>34</v>
+      </c>
+      <c r="E193">
+        <v>10</v>
+      </c>
+      <c r="F193" t="s">
+        <v>18</v>
+      </c>
+      <c r="G193">
+        <v>162</v>
+      </c>
+      <c r="H193">
+        <v>11</v>
+      </c>
+      <c r="I193">
+        <v>12</v>
+      </c>
+      <c r="J193">
+        <v>0</v>
+      </c>
+      <c r="K193" s="2">
+        <v>8.7219907407407417E-4</v>
+      </c>
+      <c r="L193" s="3">
+        <f t="shared" si="2"/>
+        <v>75.358000000000004</v>
+      </c>
+      <c r="M193">
+        <v>208.333</v>
+      </c>
+      <c r="N193">
+        <v>1</v>
+      </c>
+      <c r="O193" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="194" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A194" t="s">
+        <v>56</v>
+      </c>
+      <c r="B194" t="s">
+        <v>11</v>
+      </c>
+      <c r="C194" t="s">
+        <v>48</v>
+      </c>
+      <c r="D194" t="s">
+        <v>81</v>
+      </c>
+      <c r="E194">
+        <v>0</v>
+      </c>
+      <c r="F194" t="s">
+        <v>33</v>
+      </c>
+      <c r="G194">
+        <v>11</v>
+      </c>
+      <c r="H194">
+        <v>12</v>
+      </c>
+      <c r="I194">
+        <v>13</v>
+      </c>
+      <c r="J194">
+        <v>0</v>
+      </c>
+      <c r="K194" s="2">
+        <v>8.8050925925925916E-4</v>
+      </c>
+      <c r="L194" s="3">
+        <f t="shared" si="2"/>
+        <v>76.075999999999993</v>
+      </c>
+      <c r="M194">
+        <v>206.36699999999999</v>
+      </c>
+      <c r="N194">
+        <v>1</v>
+      </c>
+      <c r="O194" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="195" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A195" t="s">
+        <v>56</v>
+      </c>
+      <c r="B195" t="s">
+        <v>11</v>
+      </c>
+      <c r="C195" t="s">
+        <v>48</v>
+      </c>
+      <c r="D195" t="s">
+        <v>41</v>
+      </c>
+      <c r="E195">
+        <v>0</v>
+      </c>
+      <c r="F195" t="s">
+        <v>27</v>
+      </c>
+      <c r="G195">
+        <v>20</v>
+      </c>
+      <c r="H195">
+        <v>16</v>
+      </c>
+      <c r="I195">
+        <v>14</v>
+      </c>
+      <c r="J195">
+        <v>0</v>
+      </c>
+      <c r="K195" s="2">
+        <v>8.7284722222222223E-4</v>
+      </c>
+      <c r="L195" s="3">
+        <f t="shared" ref="L195:L201" si="3">(K195 - INT(K195/1))*86400</f>
+        <v>75.414000000000001</v>
+      </c>
+      <c r="M195">
+        <v>208.178</v>
+      </c>
+      <c r="N195">
+        <v>1</v>
+      </c>
+      <c r="O195" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="196" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A196" t="s">
+        <v>56</v>
+      </c>
+      <c r="B196" t="s">
+        <v>11</v>
+      </c>
+      <c r="C196" t="s">
+        <v>48</v>
+      </c>
+      <c r="D196" t="s">
+        <v>32</v>
+      </c>
+      <c r="E196">
+        <v>11</v>
+      </c>
+      <c r="F196" t="s">
+        <v>33</v>
+      </c>
+      <c r="G196">
+        <v>11</v>
+      </c>
+      <c r="H196">
+        <v>20</v>
+      </c>
+      <c r="I196">
+        <v>15</v>
+      </c>
+      <c r="J196">
+        <v>0</v>
+      </c>
+      <c r="K196" s="2">
+        <v>8.67974537037037E-4</v>
+      </c>
+      <c r="L196" s="3">
+        <f t="shared" si="3"/>
+        <v>74.992999999999995</v>
+      </c>
+      <c r="M196">
+        <v>209.34700000000001</v>
+      </c>
+      <c r="N196">
+        <v>1</v>
+      </c>
+      <c r="O196" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="197" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A197" t="s">
+        <v>56</v>
+      </c>
+      <c r="B197" t="s">
+        <v>11</v>
+      </c>
+      <c r="C197" t="s">
+        <v>48</v>
+      </c>
+      <c r="D197" t="s">
+        <v>45</v>
+      </c>
+      <c r="E197">
+        <v>21</v>
+      </c>
+      <c r="F197" t="s">
+        <v>35</v>
+      </c>
+      <c r="G197">
+        <v>28</v>
+      </c>
+      <c r="H197">
+        <v>9</v>
+      </c>
+      <c r="I197">
+        <v>16</v>
+      </c>
+      <c r="J197">
+        <v>0</v>
+      </c>
+      <c r="K197" s="2">
+        <v>8.8300925925925927E-4</v>
+      </c>
+      <c r="L197" s="3">
+        <f t="shared" si="3"/>
+        <v>76.292000000000002</v>
+      </c>
+      <c r="M197">
+        <v>205.78299999999999</v>
+      </c>
+      <c r="N197">
+        <v>2</v>
+      </c>
+      <c r="O197" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="198" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A198" t="s">
+        <v>56</v>
+      </c>
+      <c r="B198" t="s">
+        <v>11</v>
+      </c>
+      <c r="C198" t="s">
+        <v>48</v>
+      </c>
+      <c r="D198" t="s">
+        <v>24</v>
+      </c>
+      <c r="E198">
+        <v>14</v>
+      </c>
+      <c r="F198" t="s">
+        <v>25</v>
+      </c>
+      <c r="G198">
+        <v>22</v>
+      </c>
+      <c r="H198">
+        <v>18</v>
+      </c>
+      <c r="I198">
+        <v>17</v>
+      </c>
+      <c r="J198">
+        <v>0</v>
+      </c>
+      <c r="K198" s="2">
+        <v>8.669212962962963E-4</v>
+      </c>
+      <c r="L198" s="3">
+        <f t="shared" si="3"/>
+        <v>74.902000000000001</v>
+      </c>
+      <c r="M198">
+        <v>209.601</v>
+      </c>
+      <c r="N198">
+        <v>3</v>
+      </c>
+      <c r="O198" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="199" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A199" t="s">
+        <v>56</v>
+      </c>
+      <c r="B199" t="s">
+        <v>11</v>
+      </c>
+      <c r="C199" t="s">
+        <v>48</v>
+      </c>
+      <c r="D199" t="s">
+        <v>13</v>
+      </c>
+      <c r="E199">
+        <v>176</v>
+      </c>
+      <c r="F199" t="s">
+        <v>14</v>
+      </c>
+      <c r="G199">
+        <v>374</v>
+      </c>
+      <c r="H199">
+        <v>7</v>
+      </c>
+      <c r="I199">
+        <v>18</v>
+      </c>
+      <c r="J199">
+        <v>0</v>
+      </c>
+      <c r="K199" s="2">
+        <v>8.5913194444444448E-4</v>
+      </c>
+      <c r="L199" s="3">
+        <f t="shared" si="3"/>
+        <v>74.228999999999999</v>
+      </c>
+      <c r="M199">
+        <v>211.50200000000001</v>
+      </c>
+      <c r="N199">
+        <v>2</v>
+      </c>
+      <c r="O199" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="200" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A200" t="s">
+        <v>56</v>
+      </c>
+      <c r="B200" t="s">
+        <v>11</v>
+      </c>
+      <c r="C200" t="s">
+        <v>48</v>
+      </c>
+      <c r="D200" t="s">
+        <v>39</v>
+      </c>
+      <c r="E200">
+        <v>4</v>
+      </c>
+      <c r="F200" t="s">
+        <v>35</v>
+      </c>
+      <c r="G200">
+        <v>28</v>
+      </c>
+      <c r="H200">
+        <v>19</v>
+      </c>
+      <c r="I200">
+        <v>19</v>
+      </c>
+      <c r="J200">
+        <v>0</v>
+      </c>
+      <c r="K200" s="2">
+        <v>8.833333333333333E-4</v>
+      </c>
+      <c r="L200" s="3">
+        <f t="shared" si="3"/>
+        <v>76.319999999999993</v>
+      </c>
+      <c r="M200">
+        <v>205.70699999999999</v>
+      </c>
+      <c r="N200">
+        <v>1</v>
+      </c>
+      <c r="O200" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="201" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A201" t="s">
+        <v>56</v>
+      </c>
+      <c r="B201" t="s">
+        <v>11</v>
+      </c>
+      <c r="C201" t="s">
+        <v>48</v>
+      </c>
+      <c r="D201" t="s">
+        <v>22</v>
+      </c>
+      <c r="E201">
+        <v>42</v>
+      </c>
+      <c r="F201" t="s">
+        <v>23</v>
+      </c>
+      <c r="G201">
+        <v>55</v>
+      </c>
+      <c r="H201">
+        <v>10</v>
+      </c>
+      <c r="I201">
+        <v>20</v>
+      </c>
+      <c r="J201">
+        <v>0</v>
+      </c>
+      <c r="K201" s="2">
+        <v>8.819097222222223E-4</v>
+      </c>
+      <c r="L201" s="3">
+        <f t="shared" si="3"/>
+        <v>76.197000000000003</v>
+      </c>
+      <c r="M201">
+        <v>206.03899999999999</v>
+      </c>
+      <c r="N201">
+        <v>1</v>
+      </c>
+      <c r="O201" t="s">
         <v>40</v>
       </c>
     </row>

--- a/F1.xlsx
+++ b/F1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\vs\f1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1A410BC-D2A7-4B93-AA22-3CFD946AFAC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16CA00B5-3006-4E85-93CE-2583CF46E560}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00798B61-A4AB-4634-A493-7936C2BE7462}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1564" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1684" uniqueCount="82">
   <si>
     <t>Race_Name</t>
   </si>
@@ -291,8 +291,16 @@
     <numFmt numFmtId="164" formatCode="mm:ss.000"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -320,11 +328,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="47" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -640,10 +649,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36F0DB36-4229-4BFD-868F-09E812C5EFF8}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:S201"/>
+  <dimension ref="A1:S221"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A178" workbookViewId="0">
-      <selection activeCell="P182" sqref="P182"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A199" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="P203" sqref="P203"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -666,49 +676,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="O1" t="s">
+      <c r="O1" s="4" t="s">
         <v>9</v>
       </c>
     </row>
@@ -9934,7 +9944,7 @@
         <v>8.7284722222222223E-4</v>
       </c>
       <c r="L195" s="3">
-        <f t="shared" ref="L195:L201" si="3">(K195 - INT(K195/1))*86400</f>
+        <f t="shared" ref="L195:L221" si="3">(K195 - INT(K195/1))*86400</f>
         <v>75.414000000000001</v>
       </c>
       <c r="M195">
@@ -10232,6 +10242,933 @@
         <v>1</v>
       </c>
       <c r="O201" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="202" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A202" t="s">
+        <v>58</v>
+      </c>
+      <c r="B202" t="s">
+        <v>47</v>
+      </c>
+      <c r="C202" t="s">
+        <v>48</v>
+      </c>
+      <c r="D202" t="s">
+        <v>13</v>
+      </c>
+      <c r="E202">
+        <v>201</v>
+      </c>
+      <c r="F202" t="s">
+        <v>14</v>
+      </c>
+      <c r="G202">
+        <v>374</v>
+      </c>
+      <c r="H202">
+        <v>1</v>
+      </c>
+      <c r="I202">
+        <v>1</v>
+      </c>
+      <c r="J202">
+        <v>1</v>
+      </c>
+      <c r="K202" s="2">
+        <v>7.9018518518518522E-4</v>
+      </c>
+      <c r="L202" s="3">
+        <f t="shared" si="3"/>
+        <v>68.272000000000006</v>
+      </c>
+      <c r="M202">
+        <v>228.11099999999999</v>
+      </c>
+      <c r="N202">
+        <v>2</v>
+      </c>
+      <c r="O202" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="203" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A203" t="s">
+        <v>58</v>
+      </c>
+      <c r="B203" t="s">
+        <v>47</v>
+      </c>
+      <c r="C203" t="s">
+        <v>48</v>
+      </c>
+      <c r="D203" t="s">
+        <v>30</v>
+      </c>
+      <c r="E203">
+        <v>216</v>
+      </c>
+      <c r="F203" t="s">
+        <v>14</v>
+      </c>
+      <c r="G203">
+        <v>374</v>
+      </c>
+      <c r="H203">
+        <v>3</v>
+      </c>
+      <c r="I203">
+        <v>2</v>
+      </c>
+      <c r="J203">
+        <v>0</v>
+      </c>
+      <c r="K203" s="2">
+        <v>7.8615740740740751E-4</v>
+      </c>
+      <c r="L203" s="3">
+        <f t="shared" si="3"/>
+        <v>67.924000000000007</v>
+      </c>
+      <c r="M203">
+        <v>229.279</v>
+      </c>
+      <c r="N203">
+        <v>2</v>
+      </c>
+      <c r="O203" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="204" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A204" t="s">
+        <v>58</v>
+      </c>
+      <c r="B204" t="s">
+        <v>47</v>
+      </c>
+      <c r="C204" t="s">
+        <v>48</v>
+      </c>
+      <c r="D204" t="s">
+        <v>28</v>
+      </c>
+      <c r="E204">
+        <v>119</v>
+      </c>
+      <c r="F204" t="s">
+        <v>29</v>
+      </c>
+      <c r="G204">
+        <v>183</v>
+      </c>
+      <c r="H204">
+        <v>2</v>
+      </c>
+      <c r="I204">
+        <v>3</v>
+      </c>
+      <c r="J204">
+        <v>0</v>
+      </c>
+      <c r="K204" s="2">
+        <v>7.9589120370370371E-4</v>
+      </c>
+      <c r="L204" s="3">
+        <f t="shared" si="3"/>
+        <v>68.765000000000001</v>
+      </c>
+      <c r="M204">
+        <v>226.47499999999999</v>
+      </c>
+      <c r="N204">
+        <v>2</v>
+      </c>
+      <c r="O204" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="205" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A205" t="s">
+        <v>58</v>
+      </c>
+      <c r="B205" t="s">
+        <v>47</v>
+      </c>
+      <c r="C205" t="s">
+        <v>48</v>
+      </c>
+      <c r="D205" t="s">
+        <v>31</v>
+      </c>
+      <c r="E205">
+        <v>91</v>
+      </c>
+      <c r="F205" t="s">
+        <v>29</v>
+      </c>
+      <c r="G205">
+        <v>183</v>
+      </c>
+      <c r="H205">
+        <v>4</v>
+      </c>
+      <c r="I205">
+        <v>4</v>
+      </c>
+      <c r="J205">
+        <v>0</v>
+      </c>
+      <c r="K205" s="2">
+        <v>7.9430555555555558E-4</v>
+      </c>
+      <c r="L205" s="3">
+        <f t="shared" si="3"/>
+        <v>68.628</v>
+      </c>
+      <c r="M205">
+        <v>226.92699999999999</v>
+      </c>
+      <c r="N205">
+        <v>2</v>
+      </c>
+      <c r="O205" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="206" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A206" t="s">
+        <v>58</v>
+      </c>
+      <c r="B206" t="s">
+        <v>47</v>
+      </c>
+      <c r="C206" t="s">
+        <v>48</v>
+      </c>
+      <c r="D206" t="s">
+        <v>19</v>
+      </c>
+      <c r="E206">
+        <v>146</v>
+      </c>
+      <c r="F206" t="s">
+        <v>20</v>
+      </c>
+      <c r="G206">
+        <v>199</v>
+      </c>
+      <c r="H206">
+        <v>5</v>
+      </c>
+      <c r="I206">
+        <v>5</v>
+      </c>
+      <c r="J206">
+        <v>0</v>
+      </c>
+      <c r="K206" s="2">
+        <v>8.0291666666666662E-4</v>
+      </c>
+      <c r="L206" s="3">
+        <f t="shared" si="3"/>
+        <v>69.372</v>
+      </c>
+      <c r="M206">
+        <v>224.494</v>
+      </c>
+      <c r="N206">
+        <v>2</v>
+      </c>
+      <c r="O206" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="207" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A207" t="s">
+        <v>58</v>
+      </c>
+      <c r="B207" t="s">
+        <v>47</v>
+      </c>
+      <c r="C207" t="s">
+        <v>48</v>
+      </c>
+      <c r="D207" t="s">
+        <v>39</v>
+      </c>
+      <c r="E207">
+        <v>12</v>
+      </c>
+      <c r="F207" t="s">
+        <v>35</v>
+      </c>
+      <c r="G207">
+        <v>28</v>
+      </c>
+      <c r="H207">
+        <v>6</v>
+      </c>
+      <c r="I207">
+        <v>6</v>
+      </c>
+      <c r="J207">
+        <v>0</v>
+      </c>
+      <c r="K207" s="2">
+        <v>8.0991898148148156E-4</v>
+      </c>
+      <c r="L207" s="3">
+        <f t="shared" si="3"/>
+        <v>69.977000000000004</v>
+      </c>
+      <c r="M207">
+        <v>222.553</v>
+      </c>
+      <c r="N207">
+        <v>1</v>
+      </c>
+      <c r="O207" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="208" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A208" t="s">
+        <v>58</v>
+      </c>
+      <c r="B208" t="s">
+        <v>47</v>
+      </c>
+      <c r="C208" t="s">
+        <v>48</v>
+      </c>
+      <c r="D208" t="s">
+        <v>42</v>
+      </c>
+      <c r="E208">
+        <v>14</v>
+      </c>
+      <c r="F208" t="s">
+        <v>25</v>
+      </c>
+      <c r="G208">
+        <v>22</v>
+      </c>
+      <c r="H208">
+        <v>11</v>
+      </c>
+      <c r="I208">
+        <v>7</v>
+      </c>
+      <c r="J208">
+        <v>0</v>
+      </c>
+      <c r="K208" s="2">
+        <v>8.0943287037037041E-4</v>
+      </c>
+      <c r="L208" s="3">
+        <f t="shared" si="3"/>
+        <v>69.935000000000002</v>
+      </c>
+      <c r="M208">
+        <v>222.68600000000001</v>
+      </c>
+      <c r="N208">
+        <v>1</v>
+      </c>
+      <c r="O208" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="209" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A209" t="s">
+        <v>58</v>
+      </c>
+      <c r="B209" t="s">
+        <v>47</v>
+      </c>
+      <c r="C209" t="s">
+        <v>48</v>
+      </c>
+      <c r="D209" t="s">
+        <v>41</v>
+      </c>
+      <c r="E209">
+        <v>4</v>
+      </c>
+      <c r="F209" t="s">
+        <v>27</v>
+      </c>
+      <c r="G209">
+        <v>20</v>
+      </c>
+      <c r="H209">
+        <v>8</v>
+      </c>
+      <c r="I209">
+        <v>8</v>
+      </c>
+      <c r="J209">
+        <v>0</v>
+      </c>
+      <c r="K209" s="2">
+        <v>8.0146990740740743E-4</v>
+      </c>
+      <c r="L209" s="3">
+        <f t="shared" si="3"/>
+        <v>69.247</v>
+      </c>
+      <c r="M209">
+        <v>224.899</v>
+      </c>
+      <c r="N209">
+        <v>2</v>
+      </c>
+      <c r="O209" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="210" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A210" t="s">
+        <v>58</v>
+      </c>
+      <c r="B210" t="s">
+        <v>47</v>
+      </c>
+      <c r="C210" t="s">
+        <v>48</v>
+      </c>
+      <c r="D210" t="s">
+        <v>26</v>
+      </c>
+      <c r="E210">
+        <v>22</v>
+      </c>
+      <c r="F210" t="s">
+        <v>27</v>
+      </c>
+      <c r="G210">
+        <v>20</v>
+      </c>
+      <c r="H210">
+        <v>20</v>
+      </c>
+      <c r="I210">
+        <v>9</v>
+      </c>
+      <c r="J210">
+        <v>0</v>
+      </c>
+      <c r="K210" s="2">
+        <v>8.0392361111111116E-4</v>
+      </c>
+      <c r="L210" s="3">
+        <f t="shared" si="3"/>
+        <v>69.459000000000003</v>
+      </c>
+      <c r="M210">
+        <v>224.21199999999999</v>
+      </c>
+      <c r="N210">
+        <v>2</v>
+      </c>
+      <c r="O210" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="211" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A211" t="s">
+        <v>58</v>
+      </c>
+      <c r="B211" t="s">
+        <v>47</v>
+      </c>
+      <c r="C211" t="s">
+        <v>48</v>
+      </c>
+      <c r="D211" t="s">
+        <v>36</v>
+      </c>
+      <c r="E211">
+        <v>23</v>
+      </c>
+      <c r="F211" t="s">
+        <v>37</v>
+      </c>
+      <c r="G211">
+        <v>28</v>
+      </c>
+      <c r="H211">
+        <v>17</v>
+      </c>
+      <c r="I211">
+        <v>10</v>
+      </c>
+      <c r="J211">
+        <v>0</v>
+      </c>
+      <c r="K211" s="2">
+        <v>8.0497685185185186E-4</v>
+      </c>
+      <c r="L211" s="3">
+        <f t="shared" si="3"/>
+        <v>69.55</v>
+      </c>
+      <c r="M211">
+        <v>223.91900000000001</v>
+      </c>
+      <c r="N211">
+        <v>2</v>
+      </c>
+      <c r="O211" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="212" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A212" t="s">
+        <v>58</v>
+      </c>
+      <c r="B212" t="s">
+        <v>47</v>
+      </c>
+      <c r="C212" t="s">
+        <v>48</v>
+      </c>
+      <c r="D212" t="s">
+        <v>38</v>
+      </c>
+      <c r="E212">
+        <v>6</v>
+      </c>
+      <c r="F212" t="s">
+        <v>37</v>
+      </c>
+      <c r="G212">
+        <v>28</v>
+      </c>
+      <c r="H212">
+        <v>15</v>
+      </c>
+      <c r="I212">
+        <v>11</v>
+      </c>
+      <c r="J212">
+        <v>0</v>
+      </c>
+      <c r="K212" s="2">
+        <v>8.0972222222222231E-4</v>
+      </c>
+      <c r="L212" s="3">
+        <f t="shared" si="3"/>
+        <v>69.960000000000008</v>
+      </c>
+      <c r="M212">
+        <v>222.607</v>
+      </c>
+      <c r="N212">
+        <v>2</v>
+      </c>
+      <c r="O212" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="213" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A213" t="s">
+        <v>58</v>
+      </c>
+      <c r="B213" t="s">
+        <v>47</v>
+      </c>
+      <c r="C213" t="s">
+        <v>48</v>
+      </c>
+      <c r="D213" t="s">
+        <v>45</v>
+      </c>
+      <c r="E213">
+        <v>21</v>
+      </c>
+      <c r="F213" t="s">
+        <v>35</v>
+      </c>
+      <c r="G213">
+        <v>28</v>
+      </c>
+      <c r="H213">
+        <v>13</v>
+      </c>
+      <c r="I213">
+        <v>12</v>
+      </c>
+      <c r="J213">
+        <v>0</v>
+      </c>
+      <c r="K213" s="2">
+        <v>8.1254629629629635E-4</v>
+      </c>
+      <c r="L213" s="3">
+        <f t="shared" si="3"/>
+        <v>70.204000000000008</v>
+      </c>
+      <c r="M213">
+        <v>221.833</v>
+      </c>
+      <c r="N213">
+        <v>2</v>
+      </c>
+      <c r="O213" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="214" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A214" t="s">
+        <v>58</v>
+      </c>
+      <c r="B214" t="s">
+        <v>47</v>
+      </c>
+      <c r="C214" t="s">
+        <v>48</v>
+      </c>
+      <c r="D214" t="s">
+        <v>32</v>
+      </c>
+      <c r="E214">
+        <v>11</v>
+      </c>
+      <c r="F214" t="s">
+        <v>33</v>
+      </c>
+      <c r="G214">
+        <v>11</v>
+      </c>
+      <c r="H214">
+        <v>10</v>
+      </c>
+      <c r="I214">
+        <v>13</v>
+      </c>
+      <c r="J214">
+        <v>0</v>
+      </c>
+      <c r="K214" s="2">
+        <v>8.119328703703703E-4</v>
+      </c>
+      <c r="L214" s="3">
+        <f t="shared" si="3"/>
+        <v>70.150999999999996</v>
+      </c>
+      <c r="M214">
+        <v>222.001</v>
+      </c>
+      <c r="N214">
+        <v>2</v>
+      </c>
+      <c r="O214" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="215" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A215" t="s">
+        <v>58</v>
+      </c>
+      <c r="B215" t="s">
+        <v>47</v>
+      </c>
+      <c r="C215" t="s">
+        <v>48</v>
+      </c>
+      <c r="D215" t="s">
+        <v>24</v>
+      </c>
+      <c r="E215">
+        <v>14</v>
+      </c>
+      <c r="F215" t="s">
+        <v>25</v>
+      </c>
+      <c r="G215">
+        <v>22</v>
+      </c>
+      <c r="H215">
+        <v>16</v>
+      </c>
+      <c r="I215">
+        <v>14</v>
+      </c>
+      <c r="J215">
+        <v>0</v>
+      </c>
+      <c r="K215" s="2">
+        <v>8.0108796296296297E-4</v>
+      </c>
+      <c r="L215" s="3">
+        <f t="shared" si="3"/>
+        <v>69.213999999999999</v>
+      </c>
+      <c r="M215">
+        <v>225.006</v>
+      </c>
+      <c r="N215">
+        <v>2</v>
+      </c>
+      <c r="O215" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="216" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A216" t="s">
+        <v>58</v>
+      </c>
+      <c r="B216" t="s">
+        <v>47</v>
+      </c>
+      <c r="C216" t="s">
+        <v>48</v>
+      </c>
+      <c r="D216" t="s">
+        <v>81</v>
+      </c>
+      <c r="E216">
+        <v>0</v>
+      </c>
+      <c r="F216" t="s">
+        <v>33</v>
+      </c>
+      <c r="G216">
+        <v>11</v>
+      </c>
+      <c r="H216">
+        <v>14</v>
+      </c>
+      <c r="I216">
+        <v>15</v>
+      </c>
+      <c r="J216">
+        <v>0</v>
+      </c>
+      <c r="K216" s="2">
+        <v>8.0579861111111108E-4</v>
+      </c>
+      <c r="L216" s="3">
+        <f t="shared" si="3"/>
+        <v>69.620999999999995</v>
+      </c>
+      <c r="M216">
+        <v>223.691</v>
+      </c>
+      <c r="N216">
+        <v>2</v>
+      </c>
+      <c r="O216" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="217" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A217" t="s">
+        <v>58</v>
+      </c>
+      <c r="B217" t="s">
+        <v>47</v>
+      </c>
+      <c r="C217" t="s">
+        <v>48</v>
+      </c>
+      <c r="D217" t="s">
+        <v>34</v>
+      </c>
+      <c r="E217">
+        <v>10</v>
+      </c>
+      <c r="F217" t="s">
+        <v>18</v>
+      </c>
+      <c r="G217">
+        <v>162</v>
+      </c>
+      <c r="H217">
+        <v>18</v>
+      </c>
+      <c r="I217">
+        <v>16</v>
+      </c>
+      <c r="J217">
+        <v>0</v>
+      </c>
+      <c r="K217" s="2">
+        <v>8.0789351851851844E-4</v>
+      </c>
+      <c r="L217" s="3">
+        <f t="shared" si="3"/>
+        <v>69.801999999999992</v>
+      </c>
+      <c r="M217">
+        <v>223.11099999999999</v>
+      </c>
+      <c r="N217">
+        <v>3</v>
+      </c>
+      <c r="O217" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="218" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A218" t="s">
+        <v>58</v>
+      </c>
+      <c r="B218" t="s">
+        <v>47</v>
+      </c>
+      <c r="C218" t="s">
+        <v>48</v>
+      </c>
+      <c r="D218" t="s">
+        <v>22</v>
+      </c>
+      <c r="E218">
+        <v>42</v>
+      </c>
+      <c r="F218" t="s">
+        <v>23</v>
+      </c>
+      <c r="G218">
+        <v>55</v>
+      </c>
+      <c r="H218">
+        <v>12</v>
+      </c>
+      <c r="I218">
+        <v>17</v>
+      </c>
+      <c r="J218">
+        <v>0</v>
+      </c>
+      <c r="K218" s="2">
+        <v>8.1760416666666667E-4</v>
+      </c>
+      <c r="L218" s="3">
+        <f t="shared" si="3"/>
+        <v>70.641000000000005</v>
+      </c>
+      <c r="M218">
+        <v>220.46100000000001</v>
+      </c>
+      <c r="N218">
+        <v>1</v>
+      </c>
+      <c r="O218" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="219" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A219" t="s">
+        <v>58</v>
+      </c>
+      <c r="B219" t="s">
+        <v>47</v>
+      </c>
+      <c r="C219" t="s">
+        <v>48</v>
+      </c>
+      <c r="D219" t="s">
+        <v>17</v>
+      </c>
+      <c r="E219">
+        <v>155</v>
+      </c>
+      <c r="F219" t="s">
+        <v>18</v>
+      </c>
+      <c r="G219">
+        <v>162</v>
+      </c>
+      <c r="H219">
+        <v>7</v>
+      </c>
+      <c r="I219">
+        <v>18</v>
+      </c>
+      <c r="J219">
+        <v>0</v>
+      </c>
+      <c r="K219" s="2"/>
+      <c r="L219" s="3"/>
+      <c r="O219" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="220" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A220" t="s">
+        <v>58</v>
+      </c>
+      <c r="B220" t="s">
+        <v>47</v>
+      </c>
+      <c r="C220" t="s">
+        <v>48</v>
+      </c>
+      <c r="D220" t="s">
+        <v>21</v>
+      </c>
+      <c r="E220">
+        <v>63</v>
+      </c>
+      <c r="F220" t="s">
+        <v>20</v>
+      </c>
+      <c r="G220">
+        <v>199</v>
+      </c>
+      <c r="H220">
+        <v>9</v>
+      </c>
+      <c r="I220">
+        <v>19</v>
+      </c>
+      <c r="J220">
+        <v>0</v>
+      </c>
+      <c r="K220" s="2"/>
+      <c r="L220" s="3"/>
+      <c r="O220" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="221" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A221" t="s">
+        <v>58</v>
+      </c>
+      <c r="B221" t="s">
+        <v>47</v>
+      </c>
+      <c r="C221" t="s">
+        <v>48</v>
+      </c>
+      <c r="D221" t="s">
+        <v>43</v>
+      </c>
+      <c r="E221">
+        <v>13</v>
+      </c>
+      <c r="F221" t="s">
+        <v>23</v>
+      </c>
+      <c r="G221">
+        <v>55</v>
+      </c>
+      <c r="H221">
+        <v>19</v>
+      </c>
+      <c r="I221">
+        <v>20</v>
+      </c>
+      <c r="J221">
+        <v>0</v>
+      </c>
+      <c r="K221" s="2"/>
+      <c r="L221" s="3"/>
+      <c r="O221" t="s">
         <v>40</v>
       </c>
     </row>

--- a/F1.xlsx
+++ b/F1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\vs\f1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16CA00B5-3006-4E85-93CE-2583CF46E560}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8F797F9-1BA6-4AB8-955A-4CC753A3BC49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00798B61-A4AB-4634-A493-7936C2BE7462}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1684" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1804" uniqueCount="82">
   <si>
     <t>Race_Name</t>
   </si>
@@ -649,11 +649,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36F0DB36-4229-4BFD-868F-09E812C5EFF8}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:S221"/>
+  <dimension ref="A1:S241"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A199" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P203" sqref="P203"/>
+      <pane ySplit="1" topLeftCell="A216" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Q224" sqref="Q224"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9944,7 +9944,7 @@
         <v>8.7284722222222223E-4</v>
       </c>
       <c r="L195" s="3">
-        <f t="shared" ref="L195:L221" si="3">(K195 - INT(K195/1))*86400</f>
+        <f t="shared" ref="L195:L241" si="3">(K195 - INT(K195/1))*86400</f>
         <v>75.414000000000001</v>
       </c>
       <c r="M195">
@@ -11169,6 +11169,944 @@
       <c r="K221" s="2"/>
       <c r="L221" s="3"/>
       <c r="O221" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="222" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A222" t="s">
+        <v>59</v>
+      </c>
+      <c r="B222" t="s">
+        <v>47</v>
+      </c>
+      <c r="C222" t="s">
+        <v>12</v>
+      </c>
+      <c r="D222" t="s">
+        <v>13</v>
+      </c>
+      <c r="E222">
+        <v>226</v>
+      </c>
+      <c r="F222" t="s">
+        <v>14</v>
+      </c>
+      <c r="G222">
+        <v>460</v>
+      </c>
+      <c r="H222">
+        <v>3</v>
+      </c>
+      <c r="I222">
+        <v>1</v>
+      </c>
+      <c r="J222">
+        <v>1</v>
+      </c>
+      <c r="K222" s="2">
+        <v>1.0385879629629632E-3</v>
+      </c>
+      <c r="L222" s="3">
+        <f t="shared" si="3"/>
+        <v>89.734000000000023</v>
+      </c>
+      <c r="M222">
+        <v>188.89</v>
+      </c>
+      <c r="N222">
+        <v>2</v>
+      </c>
+      <c r="O222" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="223" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A223" t="s">
+        <v>59</v>
+      </c>
+      <c r="B223" t="s">
+        <v>47</v>
+      </c>
+      <c r="C223" t="s">
+        <v>12</v>
+      </c>
+      <c r="D223" t="s">
+        <v>30</v>
+      </c>
+      <c r="E223">
+        <v>234</v>
+      </c>
+      <c r="F223" t="s">
+        <v>14</v>
+      </c>
+      <c r="G223">
+        <v>460</v>
+      </c>
+      <c r="H223">
+        <v>2</v>
+      </c>
+      <c r="I223">
+        <v>2</v>
+      </c>
+      <c r="J223">
+        <v>0</v>
+      </c>
+      <c r="K223" s="2">
+        <v>1.0339930555555556E-3</v>
+      </c>
+      <c r="L223" s="3">
+        <f t="shared" si="3"/>
+        <v>89.337000000000003</v>
+      </c>
+      <c r="M223">
+        <v>188.66900000000001</v>
+      </c>
+      <c r="N223">
+        <v>2</v>
+      </c>
+      <c r="O223" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="224" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A224" t="s">
+        <v>59</v>
+      </c>
+      <c r="B224" t="s">
+        <v>47</v>
+      </c>
+      <c r="C224" t="s">
+        <v>12</v>
+      </c>
+      <c r="D224" t="s">
+        <v>26</v>
+      </c>
+      <c r="E224">
+        <v>37</v>
+      </c>
+      <c r="F224" t="s">
+        <v>27</v>
+      </c>
+      <c r="G224">
+        <v>41</v>
+      </c>
+      <c r="H224">
+        <v>19</v>
+      </c>
+      <c r="I224">
+        <v>3</v>
+      </c>
+      <c r="J224">
+        <v>0</v>
+      </c>
+      <c r="K224" s="2">
+        <v>1.0524652777777776E-3</v>
+      </c>
+      <c r="L224" s="3">
+        <f t="shared" si="3"/>
+        <v>90.932999999999979</v>
+      </c>
+      <c r="M224">
+        <v>187.77199999999999</v>
+      </c>
+      <c r="N224">
+        <v>2</v>
+      </c>
+      <c r="O224" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="225" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A225" t="s">
+        <v>59</v>
+      </c>
+      <c r="B225" t="s">
+        <v>47</v>
+      </c>
+      <c r="C225" t="s">
+        <v>12</v>
+      </c>
+      <c r="D225" t="s">
+        <v>31</v>
+      </c>
+      <c r="E225">
+        <v>103</v>
+      </c>
+      <c r="F225" t="s">
+        <v>29</v>
+      </c>
+      <c r="G225">
+        <v>222</v>
+      </c>
+      <c r="H225">
+        <v>5</v>
+      </c>
+      <c r="I225">
+        <v>4</v>
+      </c>
+      <c r="J225">
+        <v>0</v>
+      </c>
+      <c r="K225" s="2">
+        <v>1.0418518518518517E-3</v>
+      </c>
+      <c r="L225" s="3">
+        <f t="shared" si="3"/>
+        <v>90.015999999999991</v>
+      </c>
+      <c r="M225">
+        <v>187.61</v>
+      </c>
+      <c r="N225">
+        <v>2</v>
+      </c>
+      <c r="O225" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="226" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A226" t="s">
+        <v>59</v>
+      </c>
+      <c r="B226" t="s">
+        <v>47</v>
+      </c>
+      <c r="C226" t="s">
+        <v>12</v>
+      </c>
+      <c r="D226" t="s">
+        <v>17</v>
+      </c>
+      <c r="E226">
+        <v>165</v>
+      </c>
+      <c r="F226" t="s">
+        <v>18</v>
+      </c>
+      <c r="G226">
+        <v>172</v>
+      </c>
+      <c r="H226">
+        <v>1</v>
+      </c>
+      <c r="I226">
+        <v>5</v>
+      </c>
+      <c r="J226">
+        <v>0</v>
+      </c>
+      <c r="K226" s="2">
+        <v>1.043738425925926E-3</v>
+      </c>
+      <c r="L226" s="3">
+        <f t="shared" si="3"/>
+        <v>90.179000000000016</v>
+      </c>
+      <c r="M226">
+        <v>187.06899999999999</v>
+      </c>
+      <c r="N226">
+        <v>0</v>
+      </c>
+      <c r="O226" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="227" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A227" t="s">
+        <v>59</v>
+      </c>
+      <c r="B227" t="s">
+        <v>47</v>
+      </c>
+      <c r="C227" t="s">
+        <v>12</v>
+      </c>
+      <c r="D227" t="s">
+        <v>32</v>
+      </c>
+      <c r="E227">
+        <v>19</v>
+      </c>
+      <c r="F227" t="s">
+        <v>33</v>
+      </c>
+      <c r="G227">
+        <v>19</v>
+      </c>
+      <c r="H227">
+        <v>10</v>
+      </c>
+      <c r="I227">
+        <v>6</v>
+      </c>
+      <c r="J227">
+        <v>0</v>
+      </c>
+      <c r="K227" s="2">
+        <v>1.0503587962962964E-3</v>
+      </c>
+      <c r="L227" s="3">
+        <f t="shared" si="3"/>
+        <v>90.751000000000005</v>
+      </c>
+      <c r="M227">
+        <v>186.97200000000001</v>
+      </c>
+      <c r="N227">
+        <v>2</v>
+      </c>
+      <c r="O227" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="228" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A228" t="s">
+        <v>59</v>
+      </c>
+      <c r="B228" t="s">
+        <v>47</v>
+      </c>
+      <c r="C228" t="s">
+        <v>12</v>
+      </c>
+      <c r="D228" t="s">
+        <v>24</v>
+      </c>
+      <c r="E228">
+        <v>20</v>
+      </c>
+      <c r="F228" t="s">
+        <v>25</v>
+      </c>
+      <c r="G228">
+        <v>36</v>
+      </c>
+      <c r="H228">
+        <v>18</v>
+      </c>
+      <c r="I228">
+        <v>7</v>
+      </c>
+      <c r="J228">
+        <v>0</v>
+      </c>
+      <c r="K228" s="2">
+        <v>1.0658333333333333E-3</v>
+      </c>
+      <c r="L228" s="3">
+        <f t="shared" si="3"/>
+        <v>92.088000000000008</v>
+      </c>
+      <c r="M228">
+        <v>186.94800000000001</v>
+      </c>
+      <c r="N228">
+        <v>3</v>
+      </c>
+      <c r="O228" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="229" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A229" t="s">
+        <v>59</v>
+      </c>
+      <c r="B229" t="s">
+        <v>47</v>
+      </c>
+      <c r="C229" t="s">
+        <v>12</v>
+      </c>
+      <c r="D229" t="s">
+        <v>22</v>
+      </c>
+      <c r="E229">
+        <v>46</v>
+      </c>
+      <c r="F229" t="s">
+        <v>23</v>
+      </c>
+      <c r="G229">
+        <v>59</v>
+      </c>
+      <c r="H229">
+        <v>14</v>
+      </c>
+      <c r="I229">
+        <v>8</v>
+      </c>
+      <c r="J229">
+        <v>0</v>
+      </c>
+      <c r="K229" s="2">
+        <v>1.042210648148148E-3</v>
+      </c>
+      <c r="L229" s="3">
+        <f t="shared" si="3"/>
+        <v>90.046999999999983</v>
+      </c>
+      <c r="M229">
+        <v>186.83600000000001</v>
+      </c>
+      <c r="N229">
+        <v>2</v>
+      </c>
+      <c r="O229" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="230" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A230" t="s">
+        <v>59</v>
+      </c>
+      <c r="B230" t="s">
+        <v>47</v>
+      </c>
+      <c r="C230" t="s">
+        <v>12</v>
+      </c>
+      <c r="D230" t="s">
+        <v>42</v>
+      </c>
+      <c r="E230">
+        <v>16</v>
+      </c>
+      <c r="F230" t="s">
+        <v>25</v>
+      </c>
+      <c r="G230">
+        <v>36</v>
+      </c>
+      <c r="H230">
+        <v>9</v>
+      </c>
+      <c r="I230">
+        <v>9</v>
+      </c>
+      <c r="J230">
+        <v>0</v>
+      </c>
+      <c r="K230" s="2">
+        <v>1.0457523148148149E-3</v>
+      </c>
+      <c r="L230" s="3">
+        <f t="shared" si="3"/>
+        <v>90.353000000000009</v>
+      </c>
+      <c r="M230">
+        <v>186.78200000000001</v>
+      </c>
+      <c r="N230">
+        <v>2</v>
+      </c>
+      <c r="O230" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="231" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A231" t="s">
+        <v>59</v>
+      </c>
+      <c r="B231" t="s">
+        <v>47</v>
+      </c>
+      <c r="C231" t="s">
+        <v>12</v>
+      </c>
+      <c r="D231" t="s">
+        <v>19</v>
+      </c>
+      <c r="E231">
+        <v>147</v>
+      </c>
+      <c r="F231" t="s">
+        <v>20</v>
+      </c>
+      <c r="G231">
+        <v>210</v>
+      </c>
+      <c r="H231">
+        <v>4</v>
+      </c>
+      <c r="I231">
+        <v>10</v>
+      </c>
+      <c r="J231">
+        <v>0</v>
+      </c>
+      <c r="K231" s="2">
+        <v>1.051724537037037E-3</v>
+      </c>
+      <c r="L231" s="3">
+        <f t="shared" si="3"/>
+        <v>90.869</v>
+      </c>
+      <c r="M231">
+        <v>186.62899999999999</v>
+      </c>
+      <c r="N231">
+        <v>2</v>
+      </c>
+      <c r="O231" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="232" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A232" t="s">
+        <v>59</v>
+      </c>
+      <c r="B232" t="s">
+        <v>47</v>
+      </c>
+      <c r="C232" t="s">
+        <v>12</v>
+      </c>
+      <c r="D232" t="s">
+        <v>38</v>
+      </c>
+      <c r="E232">
+        <v>6</v>
+      </c>
+      <c r="F232" t="s">
+        <v>37</v>
+      </c>
+      <c r="G232">
+        <v>29</v>
+      </c>
+      <c r="H232">
+        <v>8</v>
+      </c>
+      <c r="I232">
+        <v>11</v>
+      </c>
+      <c r="J232">
+        <v>0</v>
+      </c>
+      <c r="K232" s="2">
+        <v>1.0523263888888889E-3</v>
+      </c>
+      <c r="L232" s="3">
+        <f t="shared" si="3"/>
+        <v>90.921000000000006</v>
+      </c>
+      <c r="M232">
+        <v>186.58500000000001</v>
+      </c>
+      <c r="N232">
+        <v>2</v>
+      </c>
+      <c r="O232" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="233" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A233" t="s">
+        <v>59</v>
+      </c>
+      <c r="B233" t="s">
+        <v>47</v>
+      </c>
+      <c r="C233" t="s">
+        <v>12</v>
+      </c>
+      <c r="D233" t="s">
+        <v>43</v>
+      </c>
+      <c r="E233">
+        <v>13</v>
+      </c>
+      <c r="F233" t="s">
+        <v>23</v>
+      </c>
+      <c r="G233">
+        <v>59</v>
+      </c>
+      <c r="H233">
+        <v>11</v>
+      </c>
+      <c r="I233">
+        <v>12</v>
+      </c>
+      <c r="J233">
+        <v>0</v>
+      </c>
+      <c r="K233" s="2">
+        <v>1.0491319444444443E-3</v>
+      </c>
+      <c r="L233" s="3">
+        <f t="shared" si="3"/>
+        <v>90.644999999999996</v>
+      </c>
+      <c r="M233">
+        <v>186.44300000000001</v>
+      </c>
+      <c r="N233">
+        <v>2</v>
+      </c>
+      <c r="O233" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="234" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A234" t="s">
+        <v>59</v>
+      </c>
+      <c r="B234" t="s">
+        <v>47</v>
+      </c>
+      <c r="C234" t="s">
+        <v>12</v>
+      </c>
+      <c r="D234" t="s">
+        <v>36</v>
+      </c>
+      <c r="E234">
+        <v>23</v>
+      </c>
+      <c r="F234" t="s">
+        <v>37</v>
+      </c>
+      <c r="G234">
+        <v>29</v>
+      </c>
+      <c r="H234">
+        <v>15</v>
+      </c>
+      <c r="I234">
+        <v>13</v>
+      </c>
+      <c r="J234">
+        <v>0</v>
+      </c>
+      <c r="K234" s="2">
+        <v>1.0511342592592593E-3</v>
+      </c>
+      <c r="L234" s="3">
+        <f t="shared" si="3"/>
+        <v>90.817999999999998</v>
+      </c>
+      <c r="M234">
+        <v>186.42</v>
+      </c>
+      <c r="N234">
+        <v>2</v>
+      </c>
+      <c r="O234" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="235" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A235" t="s">
+        <v>59</v>
+      </c>
+      <c r="B235" t="s">
+        <v>47</v>
+      </c>
+      <c r="C235" t="s">
+        <v>12</v>
+      </c>
+      <c r="D235" t="s">
+        <v>28</v>
+      </c>
+      <c r="E235">
+        <v>119</v>
+      </c>
+      <c r="F235" t="s">
+        <v>29</v>
+      </c>
+      <c r="G235">
+        <v>222</v>
+      </c>
+      <c r="H235">
+        <v>6</v>
+      </c>
+      <c r="I235">
+        <v>14</v>
+      </c>
+      <c r="J235">
+        <v>0</v>
+      </c>
+      <c r="K235" s="2">
+        <v>1.0511458333333334E-3</v>
+      </c>
+      <c r="L235" s="3">
+        <f t="shared" si="3"/>
+        <v>90.819000000000003</v>
+      </c>
+      <c r="M235">
+        <v>186.19399999999999</v>
+      </c>
+      <c r="N235">
+        <v>2</v>
+      </c>
+      <c r="O235" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="236" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A236" t="s">
+        <v>59</v>
+      </c>
+      <c r="B236" t="s">
+        <v>47</v>
+      </c>
+      <c r="C236" t="s">
+        <v>12</v>
+      </c>
+      <c r="D236" t="s">
+        <v>34</v>
+      </c>
+      <c r="E236">
+        <v>10</v>
+      </c>
+      <c r="F236" t="s">
+        <v>18</v>
+      </c>
+      <c r="G236">
+        <v>172</v>
+      </c>
+      <c r="H236">
+        <v>12</v>
+      </c>
+      <c r="I236">
+        <v>15</v>
+      </c>
+      <c r="J236">
+        <v>0</v>
+      </c>
+      <c r="K236" s="2">
+        <v>1.0517708333333334E-3</v>
+      </c>
+      <c r="L236" s="3">
+        <f t="shared" si="3"/>
+        <v>90.873000000000005</v>
+      </c>
+      <c r="M236">
+        <v>184.23699999999999</v>
+      </c>
+      <c r="N236">
+        <v>1</v>
+      </c>
+      <c r="O236" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="237" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A237" t="s">
+        <v>59</v>
+      </c>
+      <c r="B237" t="s">
+        <v>47</v>
+      </c>
+      <c r="C237" t="s">
+        <v>12</v>
+      </c>
+      <c r="D237" t="s">
+        <v>21</v>
+      </c>
+      <c r="E237">
+        <v>63</v>
+      </c>
+      <c r="F237" t="s">
+        <v>20</v>
+      </c>
+      <c r="G237">
+        <v>210</v>
+      </c>
+      <c r="H237">
+        <v>7</v>
+      </c>
+      <c r="I237">
+        <v>16</v>
+      </c>
+      <c r="J237">
+        <v>0</v>
+      </c>
+      <c r="K237" s="2">
+        <v>1.2219444444444443E-3</v>
+      </c>
+      <c r="L237" s="3">
+        <f t="shared" si="3"/>
+        <v>105.57599999999999</v>
+      </c>
+      <c r="M237">
+        <v>162.47800000000001</v>
+      </c>
+      <c r="N237">
+        <v>3</v>
+      </c>
+      <c r="O237" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="238" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A238" t="s">
+        <v>59</v>
+      </c>
+      <c r="B238" t="s">
+        <v>47</v>
+      </c>
+      <c r="C238" t="s">
+        <v>12</v>
+      </c>
+      <c r="D238" t="s">
+        <v>45</v>
+      </c>
+      <c r="E238">
+        <v>21</v>
+      </c>
+      <c r="F238" t="s">
+        <v>35</v>
+      </c>
+      <c r="G238">
+        <v>36</v>
+      </c>
+      <c r="H238">
+        <v>13</v>
+      </c>
+      <c r="I238">
+        <v>17</v>
+      </c>
+      <c r="J238">
+        <v>0</v>
+      </c>
+      <c r="K238" s="2">
+        <v>1.1771412037037037E-3</v>
+      </c>
+      <c r="L238" s="3">
+        <f t="shared" si="3"/>
+        <v>101.705</v>
+      </c>
+      <c r="M238">
+        <v>166.42699999999999</v>
+      </c>
+      <c r="N238">
+        <v>1</v>
+      </c>
+      <c r="O238" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="239" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A239" t="s">
+        <v>59</v>
+      </c>
+      <c r="B239" t="s">
+        <v>47</v>
+      </c>
+      <c r="C239" t="s">
+        <v>12</v>
+      </c>
+      <c r="D239" t="s">
+        <v>41</v>
+      </c>
+      <c r="E239">
+        <v>4</v>
+      </c>
+      <c r="F239" t="s">
+        <v>27</v>
+      </c>
+      <c r="G239">
+        <v>41</v>
+      </c>
+      <c r="H239">
+        <v>17</v>
+      </c>
+      <c r="I239">
+        <v>18</v>
+      </c>
+      <c r="J239">
+        <v>0</v>
+      </c>
+      <c r="K239" s="2">
+        <v>1.5754745370370371E-3</v>
+      </c>
+      <c r="L239" s="3">
+        <f t="shared" si="3"/>
+        <v>136.12100000000001</v>
+      </c>
+      <c r="M239">
+        <v>154.33799999999999</v>
+      </c>
+      <c r="N239">
+        <v>0</v>
+      </c>
+      <c r="O239" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="240" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A240" t="s">
+        <v>59</v>
+      </c>
+      <c r="B240" t="s">
+        <v>47</v>
+      </c>
+      <c r="C240" t="s">
+        <v>12</v>
+      </c>
+      <c r="D240" t="s">
+        <v>39</v>
+      </c>
+      <c r="E240">
+        <v>12</v>
+      </c>
+      <c r="F240" t="s">
+        <v>35</v>
+      </c>
+      <c r="G240">
+        <v>36</v>
+      </c>
+      <c r="H240">
+        <v>16</v>
+      </c>
+      <c r="I240">
+        <v>19</v>
+      </c>
+      <c r="J240">
+        <v>0</v>
+      </c>
+      <c r="K240" s="2"/>
+      <c r="L240" s="3"/>
+      <c r="O240" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="241" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A241" t="s">
+        <v>59</v>
+      </c>
+      <c r="B241" t="s">
+        <v>47</v>
+      </c>
+      <c r="C241" t="s">
+        <v>12</v>
+      </c>
+      <c r="D241" t="s">
+        <v>81</v>
+      </c>
+      <c r="E241">
+        <v>0</v>
+      </c>
+      <c r="F241" t="s">
+        <v>33</v>
+      </c>
+      <c r="G241">
+        <v>19</v>
+      </c>
+      <c r="H241">
+        <v>20</v>
+      </c>
+      <c r="I241">
+        <v>20</v>
+      </c>
+      <c r="J241">
+        <v>0</v>
+      </c>
+      <c r="K241" s="2"/>
+      <c r="L241" s="3"/>
+      <c r="O241" t="s">
         <v>40</v>
       </c>
     </row>

--- a/F1.xlsx
+++ b/F1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\vs\f1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8F797F9-1BA6-4AB8-955A-4CC753A3BC49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D157BC5-BD1C-40B1-864C-C6DC69934B2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00798B61-A4AB-4634-A493-7936C2BE7462}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1804" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1924" uniqueCount="82">
   <si>
     <t>Race_Name</t>
   </si>
@@ -649,11 +649,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36F0DB36-4229-4BFD-868F-09E812C5EFF8}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:S241"/>
+  <dimension ref="A1:S261"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A216" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q224" sqref="Q224"/>
+      <pane ySplit="1" topLeftCell="A237" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="P260" sqref="P260"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9944,7 +9944,7 @@
         <v>8.7284722222222223E-4</v>
       </c>
       <c r="L195" s="3">
-        <f t="shared" ref="L195:L241" si="3">(K195 - INT(K195/1))*86400</f>
+        <f t="shared" ref="L195:L239" si="3">(K195 - INT(K195/1))*86400</f>
         <v>75.414000000000001</v>
       </c>
       <c r="M195">
@@ -12108,6 +12108,966 @@
       <c r="L241" s="3"/>
       <c r="O241" t="s">
         <v>40</v>
+      </c>
+    </row>
+    <row r="242" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A242" t="s">
+        <v>61</v>
+      </c>
+      <c r="B242" t="s">
+        <v>47</v>
+      </c>
+      <c r="C242" t="s">
+        <v>12</v>
+      </c>
+      <c r="D242" t="s">
+        <v>30</v>
+      </c>
+      <c r="E242">
+        <v>266</v>
+      </c>
+      <c r="F242" t="s">
+        <v>14</v>
+      </c>
+      <c r="G242">
+        <v>516</v>
+      </c>
+      <c r="H242">
+        <v>2</v>
+      </c>
+      <c r="I242">
+        <v>1</v>
+      </c>
+      <c r="J242">
+        <v>1</v>
+      </c>
+      <c r="K242" s="2">
+        <v>1.2234490740740741E-3</v>
+      </c>
+      <c r="L242" s="3">
+        <f t="shared" ref="L240:L261" si="4">(K242 - INT(K242/1))*86400</f>
+        <v>105.706</v>
+      </c>
+      <c r="M242">
+        <v>216.489</v>
+      </c>
+      <c r="N242">
+        <v>1</v>
+      </c>
+      <c r="O242" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="243" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A243" t="s">
+        <v>61</v>
+      </c>
+      <c r="B243" t="s">
+        <v>47</v>
+      </c>
+      <c r="C243" t="s">
+        <v>12</v>
+      </c>
+      <c r="D243" t="s">
+        <v>13</v>
+      </c>
+      <c r="E243">
+        <v>250</v>
+      </c>
+      <c r="F243" t="s">
+        <v>14</v>
+      </c>
+      <c r="G243">
+        <v>516</v>
+      </c>
+      <c r="H243">
+        <v>1</v>
+      </c>
+      <c r="I243">
+        <v>2</v>
+      </c>
+      <c r="J243">
+        <v>0</v>
+      </c>
+      <c r="K243" s="2">
+        <v>1.2182523148148148E-3</v>
+      </c>
+      <c r="L243" s="3">
+        <f t="shared" si="4"/>
+        <v>105.25700000000001</v>
+      </c>
+      <c r="M243">
+        <v>216.34399999999999</v>
+      </c>
+      <c r="N243">
+        <v>1</v>
+      </c>
+      <c r="O243" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="244" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A244" t="s">
+        <v>61</v>
+      </c>
+      <c r="B244" t="s">
+        <v>47</v>
+      </c>
+      <c r="C244" t="s">
+        <v>12</v>
+      </c>
+      <c r="D244" t="s">
+        <v>28</v>
+      </c>
+      <c r="E244">
+        <v>139</v>
+      </c>
+      <c r="F244" t="s">
+        <v>29</v>
+      </c>
+      <c r="G244">
+        <v>248</v>
+      </c>
+      <c r="H244">
+        <v>3</v>
+      </c>
+      <c r="I244">
+        <v>3</v>
+      </c>
+      <c r="J244">
+        <v>0</v>
+      </c>
+      <c r="K244" s="2">
+        <v>1.2288657407407409E-3</v>
+      </c>
+      <c r="L244" s="3">
+        <f t="shared" si="4"/>
+        <v>106.17400000000001</v>
+      </c>
+      <c r="M244">
+        <v>215.63900000000001</v>
+      </c>
+      <c r="N244">
+        <v>1</v>
+      </c>
+      <c r="O244" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="245" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A245" t="s">
+        <v>61</v>
+      </c>
+      <c r="B245" t="s">
+        <v>47</v>
+      </c>
+      <c r="C245" t="s">
+        <v>12</v>
+      </c>
+      <c r="D245" t="s">
+        <v>17</v>
+      </c>
+      <c r="E245">
+        <v>185</v>
+      </c>
+      <c r="F245" t="s">
+        <v>18</v>
+      </c>
+      <c r="G245">
+        <v>192</v>
+      </c>
+      <c r="H245">
+        <v>4</v>
+      </c>
+      <c r="I245">
+        <v>4</v>
+      </c>
+      <c r="J245">
+        <v>0</v>
+      </c>
+      <c r="K245" s="2">
+        <v>1.227962962962963E-3</v>
+      </c>
+      <c r="L245" s="3">
+        <f t="shared" si="4"/>
+        <v>106.096</v>
+      </c>
+      <c r="M245">
+        <v>215.57400000000001</v>
+      </c>
+      <c r="N245">
+        <v>1</v>
+      </c>
+      <c r="O245" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="246" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A246" t="s">
+        <v>61</v>
+      </c>
+      <c r="B246" t="s">
+        <v>47</v>
+      </c>
+      <c r="C246" t="s">
+        <v>12</v>
+      </c>
+      <c r="D246" t="s">
+        <v>19</v>
+      </c>
+      <c r="E246">
+        <v>157</v>
+      </c>
+      <c r="F246" t="s">
+        <v>20</v>
+      </c>
+      <c r="G246">
+        <v>220</v>
+      </c>
+      <c r="H246">
+        <v>6</v>
+      </c>
+      <c r="I246">
+        <v>5</v>
+      </c>
+      <c r="J246">
+        <v>0</v>
+      </c>
+      <c r="K246" s="2">
+        <v>1.2334027777777777E-3</v>
+      </c>
+      <c r="L246" s="3">
+        <f t="shared" si="4"/>
+        <v>106.56599999999999</v>
+      </c>
+      <c r="M246">
+        <v>215.02500000000001</v>
+      </c>
+      <c r="N246">
+        <v>1</v>
+      </c>
+      <c r="O246" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="247" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A247" t="s">
+        <v>61</v>
+      </c>
+      <c r="B247" t="s">
+        <v>47</v>
+      </c>
+      <c r="C247" t="s">
+        <v>12</v>
+      </c>
+      <c r="D247" t="s">
+        <v>22</v>
+      </c>
+      <c r="E247">
+        <v>54</v>
+      </c>
+      <c r="F247" t="s">
+        <v>23</v>
+      </c>
+      <c r="G247">
+        <v>70</v>
+      </c>
+      <c r="H247">
+        <v>5</v>
+      </c>
+      <c r="I247">
+        <v>6</v>
+      </c>
+      <c r="J247">
+        <v>0</v>
+      </c>
+      <c r="K247" s="2">
+        <v>1.2362615740740741E-3</v>
+      </c>
+      <c r="L247" s="3">
+        <f t="shared" si="4"/>
+        <v>106.813</v>
+      </c>
+      <c r="M247">
+        <v>214.81399999999999</v>
+      </c>
+      <c r="N247">
+        <v>1</v>
+      </c>
+      <c r="O247" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="248" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A248" t="s">
+        <v>61</v>
+      </c>
+      <c r="B248" t="s">
+        <v>47</v>
+      </c>
+      <c r="C248" t="s">
+        <v>12</v>
+      </c>
+      <c r="D248" t="s">
+        <v>31</v>
+      </c>
+      <c r="E248">
+        <v>109</v>
+      </c>
+      <c r="F248" t="s">
+        <v>29</v>
+      </c>
+      <c r="G248">
+        <v>248</v>
+      </c>
+      <c r="H248">
+        <v>16</v>
+      </c>
+      <c r="I248">
+        <v>7</v>
+      </c>
+      <c r="J248">
+        <v>0</v>
+      </c>
+      <c r="K248" s="2">
+        <v>1.2330324074074073E-3</v>
+      </c>
+      <c r="L248" s="3">
+        <f t="shared" si="4"/>
+        <v>106.53399999999999</v>
+      </c>
+      <c r="M248">
+        <v>214.78299999999999</v>
+      </c>
+      <c r="N248">
+        <v>1</v>
+      </c>
+      <c r="O248" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="249" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A249" t="s">
+        <v>61</v>
+      </c>
+      <c r="B249" t="s">
+        <v>47</v>
+      </c>
+      <c r="C249" t="s">
+        <v>12</v>
+      </c>
+      <c r="D249" t="s">
+        <v>39</v>
+      </c>
+      <c r="E249">
+        <v>16</v>
+      </c>
+      <c r="F249" t="s">
+        <v>35</v>
+      </c>
+      <c r="G249">
+        <v>41</v>
+      </c>
+      <c r="H249">
+        <v>9</v>
+      </c>
+      <c r="I249">
+        <v>8</v>
+      </c>
+      <c r="J249">
+        <v>0</v>
+      </c>
+      <c r="K249" s="2">
+        <v>1.2343634259259259E-3</v>
+      </c>
+      <c r="L249" s="3">
+        <f t="shared" si="4"/>
+        <v>106.649</v>
+      </c>
+      <c r="M249">
+        <v>214.31200000000001</v>
+      </c>
+      <c r="N249">
+        <v>1</v>
+      </c>
+      <c r="O249" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="250" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A250" t="s">
+        <v>61</v>
+      </c>
+      <c r="B250" t="s">
+        <v>47</v>
+      </c>
+      <c r="C250" t="s">
+        <v>12</v>
+      </c>
+      <c r="D250" t="s">
+        <v>41</v>
+      </c>
+      <c r="E250">
+        <v>6</v>
+      </c>
+      <c r="F250" t="s">
+        <v>27</v>
+      </c>
+      <c r="G250">
+        <v>43</v>
+      </c>
+      <c r="H250">
+        <v>10</v>
+      </c>
+      <c r="I250">
+        <v>9</v>
+      </c>
+      <c r="J250">
+        <v>0</v>
+      </c>
+      <c r="K250" s="2">
+        <v>1.2380324074074075E-3</v>
+      </c>
+      <c r="L250" s="3">
+        <f t="shared" si="4"/>
+        <v>106.96600000000001</v>
+      </c>
+      <c r="M250">
+        <v>214.13</v>
+      </c>
+      <c r="N250">
+        <v>1</v>
+      </c>
+      <c r="O250" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="251" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A251" t="s">
+        <v>61</v>
+      </c>
+      <c r="B251" t="s">
+        <v>47</v>
+      </c>
+      <c r="C251" t="s">
+        <v>12</v>
+      </c>
+      <c r="D251" t="s">
+        <v>32</v>
+      </c>
+      <c r="E251">
+        <v>20</v>
+      </c>
+      <c r="F251" t="s">
+        <v>33</v>
+      </c>
+      <c r="G251">
+        <v>20</v>
+      </c>
+      <c r="H251">
+        <v>13</v>
+      </c>
+      <c r="I251">
+        <v>10</v>
+      </c>
+      <c r="J251">
+        <v>0</v>
+      </c>
+      <c r="K251" s="2">
+        <v>1.2404745370370369E-3</v>
+      </c>
+      <c r="L251" s="3">
+        <f t="shared" si="4"/>
+        <v>107.17699999999999</v>
+      </c>
+      <c r="M251">
+        <v>213.459</v>
+      </c>
+      <c r="N251">
+        <v>1</v>
+      </c>
+      <c r="O251" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="252" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A252" t="s">
+        <v>61</v>
+      </c>
+      <c r="B252" t="s">
+        <v>47</v>
+      </c>
+      <c r="C252" t="s">
+        <v>12</v>
+      </c>
+      <c r="D252" t="s">
+        <v>38</v>
+      </c>
+      <c r="E252">
+        <v>8</v>
+      </c>
+      <c r="F252" t="s">
+        <v>37</v>
+      </c>
+      <c r="G252">
+        <v>35</v>
+      </c>
+      <c r="H252">
+        <v>12</v>
+      </c>
+      <c r="I252">
+        <v>11</v>
+      </c>
+      <c r="J252">
+        <v>0</v>
+      </c>
+      <c r="K252" s="2">
+        <v>1.2350578703703703E-3</v>
+      </c>
+      <c r="L252" s="3">
+        <f t="shared" si="4"/>
+        <v>106.70899999999999</v>
+      </c>
+      <c r="M252">
+        <v>213.441</v>
+      </c>
+      <c r="N252">
+        <v>1</v>
+      </c>
+      <c r="O252" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="253" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A253" t="s">
+        <v>61</v>
+      </c>
+      <c r="B253" t="s">
+        <v>47</v>
+      </c>
+      <c r="C253" t="s">
+        <v>12</v>
+      </c>
+      <c r="D253" t="s">
+        <v>26</v>
+      </c>
+      <c r="E253">
+        <v>37</v>
+      </c>
+      <c r="F253" t="s">
+        <v>27</v>
+      </c>
+      <c r="G253">
+        <v>43</v>
+      </c>
+      <c r="H253">
+        <v>14</v>
+      </c>
+      <c r="I253">
+        <v>12</v>
+      </c>
+      <c r="J253">
+        <v>0</v>
+      </c>
+      <c r="K253" s="2">
+        <v>1.2160648148148148E-3</v>
+      </c>
+      <c r="L253" s="3">
+        <f t="shared" si="4"/>
+        <v>105.068</v>
+      </c>
+      <c r="M253">
+        <v>213.42099999999999</v>
+      </c>
+      <c r="N253">
+        <v>2</v>
+      </c>
+      <c r="O253" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="254" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A254" t="s">
+        <v>61</v>
+      </c>
+      <c r="B254" t="s">
+        <v>47</v>
+      </c>
+      <c r="C254" t="s">
+        <v>12</v>
+      </c>
+      <c r="D254" t="s">
+        <v>34</v>
+      </c>
+      <c r="E254">
+        <v>10</v>
+      </c>
+      <c r="F254" t="s">
+        <v>18</v>
+      </c>
+      <c r="G254">
+        <v>192</v>
+      </c>
+      <c r="H254">
+        <v>7</v>
+      </c>
+      <c r="I254">
+        <v>13</v>
+      </c>
+      <c r="J254">
+        <v>0</v>
+      </c>
+      <c r="K254" s="2">
+        <v>1.2412152777777777E-3</v>
+      </c>
+      <c r="L254" s="3">
+        <f t="shared" si="4"/>
+        <v>107.241</v>
+      </c>
+      <c r="M254">
+        <v>213.34800000000001</v>
+      </c>
+      <c r="N254">
+        <v>1</v>
+      </c>
+      <c r="O254" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="255" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A255" t="s">
+        <v>61</v>
+      </c>
+      <c r="B255" t="s">
+        <v>47</v>
+      </c>
+      <c r="C255" t="s">
+        <v>12</v>
+      </c>
+      <c r="D255" t="s">
+        <v>24</v>
+      </c>
+      <c r="E255">
+        <v>20</v>
+      </c>
+      <c r="F255" t="s">
+        <v>25</v>
+      </c>
+      <c r="G255">
+        <v>36</v>
+      </c>
+      <c r="H255">
+        <v>20</v>
+      </c>
+      <c r="I255">
+        <v>14</v>
+      </c>
+      <c r="J255">
+        <v>0</v>
+      </c>
+      <c r="K255" s="2">
+        <v>1.2408796296296298E-3</v>
+      </c>
+      <c r="L255" s="3">
+        <f t="shared" si="4"/>
+        <v>107.21200000000002</v>
+      </c>
+      <c r="M255">
+        <v>213.167</v>
+      </c>
+      <c r="N255">
+        <v>1</v>
+      </c>
+      <c r="O255" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="256" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A256" t="s">
+        <v>61</v>
+      </c>
+      <c r="B256" t="s">
+        <v>47</v>
+      </c>
+      <c r="C256" t="s">
+        <v>12</v>
+      </c>
+      <c r="D256" t="s">
+        <v>36</v>
+      </c>
+      <c r="E256">
+        <v>27</v>
+      </c>
+      <c r="F256" t="s">
+        <v>37</v>
+      </c>
+      <c r="G256">
+        <v>35</v>
+      </c>
+      <c r="H256">
+        <v>11</v>
+      </c>
+      <c r="I256">
+        <v>15</v>
+      </c>
+      <c r="J256">
+        <v>0</v>
+      </c>
+      <c r="K256" s="2">
+        <v>1.2354629629629629E-3</v>
+      </c>
+      <c r="L256" s="3">
+        <f t="shared" si="4"/>
+        <v>106.744</v>
+      </c>
+      <c r="M256">
+        <v>212.91200000000001</v>
+      </c>
+      <c r="N256">
+        <v>1</v>
+      </c>
+      <c r="O256" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="257" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A257" t="s">
+        <v>61</v>
+      </c>
+      <c r="B257" t="s">
+        <v>47</v>
+      </c>
+      <c r="C257" t="s">
+        <v>12</v>
+      </c>
+      <c r="D257" t="s">
+        <v>21</v>
+      </c>
+      <c r="E257">
+        <v>63</v>
+      </c>
+      <c r="F257" t="s">
+        <v>20</v>
+      </c>
+      <c r="G257">
+        <v>220</v>
+      </c>
+      <c r="H257">
+        <v>18</v>
+      </c>
+      <c r="I257">
+        <v>16</v>
+      </c>
+      <c r="J257">
+        <v>0</v>
+      </c>
+      <c r="K257" s="2">
+        <v>1.2136689814814814E-3</v>
+      </c>
+      <c r="L257" s="3">
+        <f t="shared" si="4"/>
+        <v>104.86099999999999</v>
+      </c>
+      <c r="M257">
+        <v>212.88499999999999</v>
+      </c>
+      <c r="N257">
+        <v>2</v>
+      </c>
+      <c r="O257" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="258" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A258" t="s">
+        <v>61</v>
+      </c>
+      <c r="B258" t="s">
+        <v>47</v>
+      </c>
+      <c r="C258" t="s">
+        <v>12</v>
+      </c>
+      <c r="D258" t="s">
+        <v>42</v>
+      </c>
+      <c r="E258">
+        <v>16</v>
+      </c>
+      <c r="F258" t="s">
+        <v>25</v>
+      </c>
+      <c r="G258">
+        <v>36</v>
+      </c>
+      <c r="H258">
+        <v>19</v>
+      </c>
+      <c r="I258">
+        <v>17</v>
+      </c>
+      <c r="J258">
+        <v>0</v>
+      </c>
+      <c r="K258" s="2">
+        <v>1.2251041666666664E-3</v>
+      </c>
+      <c r="L258" s="3">
+        <f t="shared" si="4"/>
+        <v>105.84899999999998</v>
+      </c>
+      <c r="M258">
+        <v>212.83500000000001</v>
+      </c>
+      <c r="N258">
+        <v>2</v>
+      </c>
+      <c r="O258" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="259" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A259" t="s">
+        <v>61</v>
+      </c>
+      <c r="B259" t="s">
+        <v>47</v>
+      </c>
+      <c r="C259" t="s">
+        <v>12</v>
+      </c>
+      <c r="D259" t="s">
+        <v>43</v>
+      </c>
+      <c r="E259">
+        <v>16</v>
+      </c>
+      <c r="F259" t="s">
+        <v>23</v>
+      </c>
+      <c r="G259">
+        <v>70</v>
+      </c>
+      <c r="H259">
+        <v>15</v>
+      </c>
+      <c r="I259">
+        <v>18</v>
+      </c>
+      <c r="J259">
+        <v>0</v>
+      </c>
+      <c r="K259" s="2">
+        <v>1.2276967592592593E-3</v>
+      </c>
+      <c r="L259" s="3">
+        <f t="shared" si="4"/>
+        <v>106.07300000000001</v>
+      </c>
+      <c r="M259">
+        <v>212.66800000000001</v>
+      </c>
+      <c r="N259">
+        <v>2</v>
+      </c>
+      <c r="O259" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="260" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A260" t="s">
+        <v>61</v>
+      </c>
+      <c r="B260" t="s">
+        <v>47</v>
+      </c>
+      <c r="C260" t="s">
+        <v>12</v>
+      </c>
+      <c r="D260" t="s">
+        <v>81</v>
+      </c>
+      <c r="E260">
+        <v>0</v>
+      </c>
+      <c r="F260" t="s">
+        <v>33</v>
+      </c>
+      <c r="G260">
+        <v>20</v>
+      </c>
+      <c r="H260">
+        <v>17</v>
+      </c>
+      <c r="I260">
+        <v>19</v>
+      </c>
+      <c r="J260">
+        <v>0</v>
+      </c>
+      <c r="K260" s="2">
+        <v>1.2280555555555556E-3</v>
+      </c>
+      <c r="L260" s="3">
+        <f t="shared" si="4"/>
+        <v>106.104</v>
+      </c>
+      <c r="M260">
+        <v>212.53700000000001</v>
+      </c>
+      <c r="N260">
+        <v>2</v>
+      </c>
+      <c r="O260" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="261" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A261" t="s">
+        <v>61</v>
+      </c>
+      <c r="B261" t="s">
+        <v>47</v>
+      </c>
+      <c r="C261" t="s">
+        <v>12</v>
+      </c>
+      <c r="D261" t="s">
+        <v>45</v>
+      </c>
+      <c r="E261">
+        <v>22</v>
+      </c>
+      <c r="F261" t="s">
+        <v>35</v>
+      </c>
+      <c r="G261">
+        <v>41</v>
+      </c>
+      <c r="H261">
+        <v>8</v>
+      </c>
+      <c r="I261">
+        <v>20</v>
+      </c>
+      <c r="J261">
+        <v>0</v>
+      </c>
+      <c r="K261" s="2">
+        <v>1.2461458333333333E-3</v>
+      </c>
+      <c r="L261" s="3">
+        <f t="shared" si="4"/>
+        <v>107.66699999999999</v>
+      </c>
+      <c r="M261">
+        <v>211.03299999999999</v>
+      </c>
+      <c r="N261">
+        <v>2</v>
+      </c>
+      <c r="O261" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/F1.xlsx
+++ b/F1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\vs\f1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D157BC5-BD1C-40B1-864C-C6DC69934B2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBFA7A82-EDC9-4FE6-A524-0CAD4AD574E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00798B61-A4AB-4634-A493-7936C2BE7462}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1924" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2044" uniqueCount="82">
   <si>
     <t>Race_Name</t>
   </si>
@@ -649,11 +649,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36F0DB36-4229-4BFD-868F-09E812C5EFF8}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:S261"/>
+  <dimension ref="A1:S281"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A237" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P260" sqref="P260"/>
+      <pane ySplit="1" topLeftCell="A258" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N281" sqref="N281"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12145,7 +12145,7 @@
         <v>1.2234490740740741E-3</v>
       </c>
       <c r="L242" s="3">
-        <f t="shared" ref="L240:L261" si="4">(K242 - INT(K242/1))*86400</f>
+        <f t="shared" ref="L242:L261" si="4">(K242 - INT(K242/1))*86400</f>
         <v>105.706</v>
       </c>
       <c r="M242">
@@ -13068,6 +13068,966 @@
       </c>
       <c r="O261" t="s">
         <v>16</v>
+      </c>
+    </row>
+    <row r="262" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A262" t="s">
+        <v>60</v>
+      </c>
+      <c r="B262" t="s">
+        <v>47</v>
+      </c>
+      <c r="C262" t="s">
+        <v>48</v>
+      </c>
+      <c r="D262" t="s">
+        <v>13</v>
+      </c>
+      <c r="E262">
+        <v>275</v>
+      </c>
+      <c r="F262" t="s">
+        <v>14</v>
+      </c>
+      <c r="G262">
+        <v>559</v>
+      </c>
+      <c r="H262">
+        <v>3</v>
+      </c>
+      <c r="I262">
+        <v>1</v>
+      </c>
+      <c r="J262">
+        <v>1</v>
+      </c>
+      <c r="K262" s="2">
+        <v>9.2497685185185196E-4</v>
+      </c>
+      <c r="L262" s="3">
+        <f t="shared" ref="L262:L281" si="5">(K262 - INT(K262/1))*86400</f>
+        <v>79.918000000000006</v>
+      </c>
+      <c r="M262">
+        <v>192.94200000000001</v>
+      </c>
+      <c r="N262">
+        <v>1</v>
+      </c>
+      <c r="O262" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="263" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A263" t="s">
+        <v>60</v>
+      </c>
+      <c r="B263" t="s">
+        <v>47</v>
+      </c>
+      <c r="C263" t="s">
+        <v>48</v>
+      </c>
+      <c r="D263" t="s">
+        <v>30</v>
+      </c>
+      <c r="E263">
+        <v>284</v>
+      </c>
+      <c r="F263" t="s">
+        <v>14</v>
+      </c>
+      <c r="G263">
+        <v>559</v>
+      </c>
+      <c r="H263">
+        <v>2</v>
+      </c>
+      <c r="I263">
+        <v>2</v>
+      </c>
+      <c r="J263">
+        <v>0</v>
+      </c>
+      <c r="K263" s="2">
+        <v>9.1912037037037049E-4</v>
+      </c>
+      <c r="L263" s="3">
+        <f t="shared" si="5"/>
+        <v>79.412000000000006</v>
+      </c>
+      <c r="M263">
+        <v>192.91800000000001</v>
+      </c>
+      <c r="N263">
+        <v>2</v>
+      </c>
+      <c r="O263" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="264" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A264" t="s">
+        <v>60</v>
+      </c>
+      <c r="B264" t="s">
+        <v>47</v>
+      </c>
+      <c r="C264" t="s">
+        <v>48</v>
+      </c>
+      <c r="D264" t="s">
+        <v>19</v>
+      </c>
+      <c r="E264">
+        <v>172</v>
+      </c>
+      <c r="F264" t="s">
+        <v>20</v>
+      </c>
+      <c r="G264">
+        <v>236</v>
+      </c>
+      <c r="H264">
+        <v>4</v>
+      </c>
+      <c r="I264">
+        <v>3</v>
+      </c>
+      <c r="J264">
+        <v>0</v>
+      </c>
+      <c r="K264" s="2">
+        <v>9.1908564814814804E-4</v>
+      </c>
+      <c r="L264" s="3">
+        <f t="shared" si="5"/>
+        <v>79.408999999999992</v>
+      </c>
+      <c r="M264">
+        <v>192.20599999999999</v>
+      </c>
+      <c r="N264">
+        <v>2</v>
+      </c>
+      <c r="O264" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="265" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A265" t="s">
+        <v>60</v>
+      </c>
+      <c r="B265" t="s">
+        <v>47</v>
+      </c>
+      <c r="C265" t="s">
+        <v>48</v>
+      </c>
+      <c r="D265" t="s">
+        <v>28</v>
+      </c>
+      <c r="E265">
+        <v>151</v>
+      </c>
+      <c r="F265" t="s">
+        <v>29</v>
+      </c>
+      <c r="G265">
+        <v>260</v>
+      </c>
+      <c r="H265">
+        <v>1</v>
+      </c>
+      <c r="I265">
+        <v>4</v>
+      </c>
+      <c r="J265">
+        <v>0</v>
+      </c>
+      <c r="K265" s="2">
+        <v>9.3101851851851852E-4</v>
+      </c>
+      <c r="L265" s="3">
+        <f t="shared" si="5"/>
+        <v>80.44</v>
+      </c>
+      <c r="M265">
+        <v>191.517</v>
+      </c>
+      <c r="N265">
+        <v>2</v>
+      </c>
+      <c r="O265" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="266" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A266" t="s">
+        <v>60</v>
+      </c>
+      <c r="B266" t="s">
+        <v>47</v>
+      </c>
+      <c r="C266" t="s">
+        <v>48</v>
+      </c>
+      <c r="D266" t="s">
+        <v>42</v>
+      </c>
+      <c r="E266">
+        <v>26</v>
+      </c>
+      <c r="F266" t="s">
+        <v>25</v>
+      </c>
+      <c r="G266">
+        <v>52</v>
+      </c>
+      <c r="H266">
+        <v>5</v>
+      </c>
+      <c r="I266">
+        <v>5</v>
+      </c>
+      <c r="J266">
+        <v>0</v>
+      </c>
+      <c r="K266" s="2">
+        <v>9.2723379629629633E-4</v>
+      </c>
+      <c r="L266" s="3">
+        <f t="shared" si="5"/>
+        <v>80.113</v>
+      </c>
+      <c r="M266">
+        <v>190.971</v>
+      </c>
+      <c r="N266">
+        <v>1</v>
+      </c>
+      <c r="O266" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="267" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A267" t="s">
+        <v>60</v>
+      </c>
+      <c r="B267" t="s">
+        <v>47</v>
+      </c>
+      <c r="C267" t="s">
+        <v>48</v>
+      </c>
+      <c r="D267" t="s">
+        <v>41</v>
+      </c>
+      <c r="E267">
+        <v>14</v>
+      </c>
+      <c r="F267" t="s">
+        <v>27</v>
+      </c>
+      <c r="G267">
+        <v>51</v>
+      </c>
+      <c r="H267">
+        <v>7</v>
+      </c>
+      <c r="I267">
+        <v>6</v>
+      </c>
+      <c r="J267">
+        <v>0</v>
+      </c>
+      <c r="K267" s="2">
+        <v>9.3408564814814808E-4</v>
+      </c>
+      <c r="L267" s="3">
+        <f t="shared" si="5"/>
+        <v>80.704999999999998</v>
+      </c>
+      <c r="M267">
+        <v>190.73599999999999</v>
+      </c>
+      <c r="N267">
+        <v>1</v>
+      </c>
+      <c r="O267" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="268" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A268" t="s">
+        <v>60</v>
+      </c>
+      <c r="B268" t="s">
+        <v>47</v>
+      </c>
+      <c r="C268" t="s">
+        <v>48</v>
+      </c>
+      <c r="D268" t="s">
+        <v>24</v>
+      </c>
+      <c r="E268">
+        <v>26</v>
+      </c>
+      <c r="F268" t="s">
+        <v>25</v>
+      </c>
+      <c r="G268">
+        <v>52</v>
+      </c>
+      <c r="H268">
+        <v>6</v>
+      </c>
+      <c r="I268">
+        <v>7</v>
+      </c>
+      <c r="J268">
+        <v>0</v>
+      </c>
+      <c r="K268" s="2">
+        <v>9.3412037037037031E-4</v>
+      </c>
+      <c r="L268" s="3">
+        <f t="shared" si="5"/>
+        <v>80.707999999999998</v>
+      </c>
+      <c r="M268">
+        <v>190.67</v>
+      </c>
+      <c r="N268">
+        <v>1</v>
+      </c>
+      <c r="O268" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="269" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A269" t="s">
+        <v>60</v>
+      </c>
+      <c r="B269" t="s">
+        <v>47</v>
+      </c>
+      <c r="C269" t="s">
+        <v>48</v>
+      </c>
+      <c r="D269" t="s">
+        <v>39</v>
+      </c>
+      <c r="E269">
+        <v>20</v>
+      </c>
+      <c r="F269" t="s">
+        <v>35</v>
+      </c>
+      <c r="G269">
+        <v>45</v>
+      </c>
+      <c r="H269">
+        <v>9</v>
+      </c>
+      <c r="I269">
+        <v>8</v>
+      </c>
+      <c r="J269">
+        <v>0</v>
+      </c>
+      <c r="K269" s="2">
+        <v>9.3121527777777766E-4</v>
+      </c>
+      <c r="L269" s="3">
+        <f t="shared" si="5"/>
+        <v>80.456999999999994</v>
+      </c>
+      <c r="M269">
+        <v>190.62799999999999</v>
+      </c>
+      <c r="N269">
+        <v>1</v>
+      </c>
+      <c r="O269" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="270" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A270" t="s">
+        <v>60</v>
+      </c>
+      <c r="B270" t="s">
+        <v>47</v>
+      </c>
+      <c r="C270" t="s">
+        <v>48</v>
+      </c>
+      <c r="D270" t="s">
+        <v>17</v>
+      </c>
+      <c r="E270">
+        <v>187</v>
+      </c>
+      <c r="F270" t="s">
+        <v>18</v>
+      </c>
+      <c r="G270">
+        <v>194</v>
+      </c>
+      <c r="H270">
+        <v>8</v>
+      </c>
+      <c r="I270">
+        <v>9</v>
+      </c>
+      <c r="J270">
+        <v>0</v>
+      </c>
+      <c r="K270" s="2">
+        <v>9.2101851851851839E-4</v>
+      </c>
+      <c r="L270" s="3">
+        <f t="shared" si="5"/>
+        <v>79.575999999999993</v>
+      </c>
+      <c r="M270">
+        <v>190.523</v>
+      </c>
+      <c r="N270">
+        <v>2</v>
+      </c>
+      <c r="O270" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="271" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A271" t="s">
+        <v>60</v>
+      </c>
+      <c r="B271" t="s">
+        <v>47</v>
+      </c>
+      <c r="C271" t="s">
+        <v>48</v>
+      </c>
+      <c r="D271" t="s">
+        <v>21</v>
+      </c>
+      <c r="E271">
+        <v>64</v>
+      </c>
+      <c r="F271" t="s">
+        <v>20</v>
+      </c>
+      <c r="G271">
+        <v>236</v>
+      </c>
+      <c r="H271">
+        <v>15</v>
+      </c>
+      <c r="I271">
+        <v>10</v>
+      </c>
+      <c r="J271">
+        <v>0</v>
+      </c>
+      <c r="K271" s="2">
+        <v>9.3454861111111115E-4</v>
+      </c>
+      <c r="L271" s="3">
+        <f t="shared" si="5"/>
+        <v>80.745000000000005</v>
+      </c>
+      <c r="M271">
+        <v>189.93100000000001</v>
+      </c>
+      <c r="N271">
+        <v>1</v>
+      </c>
+      <c r="O271" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="272" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A272" t="s">
+        <v>60</v>
+      </c>
+      <c r="B272" t="s">
+        <v>47</v>
+      </c>
+      <c r="C272" t="s">
+        <v>48</v>
+      </c>
+      <c r="D272" t="s">
+        <v>45</v>
+      </c>
+      <c r="E272">
+        <v>22</v>
+      </c>
+      <c r="F272" t="s">
+        <v>35</v>
+      </c>
+      <c r="G272">
+        <v>45</v>
+      </c>
+      <c r="H272">
+        <v>10</v>
+      </c>
+      <c r="I272">
+        <v>11</v>
+      </c>
+      <c r="J272">
+        <v>0</v>
+      </c>
+      <c r="K272" s="2">
+        <v>9.3520833333333325E-4</v>
+      </c>
+      <c r="L272" s="3">
+        <f t="shared" si="5"/>
+        <v>80.801999999999992</v>
+      </c>
+      <c r="M272">
+        <v>189.90299999999999</v>
+      </c>
+      <c r="N272">
+        <v>1</v>
+      </c>
+      <c r="O272" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="273" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A273" t="s">
+        <v>60</v>
+      </c>
+      <c r="B273" t="s">
+        <v>47</v>
+      </c>
+      <c r="C273" t="s">
+        <v>48</v>
+      </c>
+      <c r="D273" t="s">
+        <v>31</v>
+      </c>
+      <c r="E273">
+        <v>109</v>
+      </c>
+      <c r="F273" t="s">
+        <v>29</v>
+      </c>
+      <c r="G273">
+        <v>260</v>
+      </c>
+      <c r="H273">
+        <v>12</v>
+      </c>
+      <c r="I273">
+        <v>12</v>
+      </c>
+      <c r="J273">
+        <v>0</v>
+      </c>
+      <c r="K273" s="2">
+        <v>9.2618055555555542E-4</v>
+      </c>
+      <c r="L273" s="3">
+        <f t="shared" si="5"/>
+        <v>80.021999999999991</v>
+      </c>
+      <c r="M273">
+        <v>189.858</v>
+      </c>
+      <c r="N273">
+        <v>1</v>
+      </c>
+      <c r="O273" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="274" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A274" t="s">
+        <v>60</v>
+      </c>
+      <c r="B274" t="s">
+        <v>47</v>
+      </c>
+      <c r="C274" t="s">
+        <v>48</v>
+      </c>
+      <c r="D274" t="s">
+        <v>26</v>
+      </c>
+      <c r="E274">
+        <v>37</v>
+      </c>
+      <c r="F274" t="s">
+        <v>27</v>
+      </c>
+      <c r="G274">
+        <v>51</v>
+      </c>
+      <c r="H274">
+        <v>19</v>
+      </c>
+      <c r="I274">
+        <v>13</v>
+      </c>
+      <c r="J274">
+        <v>0</v>
+      </c>
+      <c r="K274" s="2">
+        <v>9.2607638888888893E-4</v>
+      </c>
+      <c r="L274" s="3">
+        <f t="shared" si="5"/>
+        <v>80.013000000000005</v>
+      </c>
+      <c r="M274">
+        <v>189.15100000000001</v>
+      </c>
+      <c r="N274">
+        <v>2</v>
+      </c>
+      <c r="O274" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="275" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A275" t="s">
+        <v>60</v>
+      </c>
+      <c r="B275" t="s">
+        <v>47</v>
+      </c>
+      <c r="C275" t="s">
+        <v>48</v>
+      </c>
+      <c r="D275" t="s">
+        <v>43</v>
+      </c>
+      <c r="E275">
+        <v>16</v>
+      </c>
+      <c r="F275" t="s">
+        <v>23</v>
+      </c>
+      <c r="G275">
+        <v>70</v>
+      </c>
+      <c r="H275">
+        <v>13</v>
+      </c>
+      <c r="I275">
+        <v>14</v>
+      </c>
+      <c r="J275">
+        <v>0</v>
+      </c>
+      <c r="K275" s="2">
+        <v>9.2349537037037031E-4</v>
+      </c>
+      <c r="L275" s="3">
+        <f t="shared" si="5"/>
+        <v>79.789999999999992</v>
+      </c>
+      <c r="M275">
+        <v>189.084</v>
+      </c>
+      <c r="N275">
+        <v>2</v>
+      </c>
+      <c r="O275" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="276" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A276" t="s">
+        <v>60</v>
+      </c>
+      <c r="B276" t="s">
+        <v>47</v>
+      </c>
+      <c r="C276" t="s">
+        <v>48</v>
+      </c>
+      <c r="D276" t="s">
+        <v>22</v>
+      </c>
+      <c r="E276">
+        <v>54</v>
+      </c>
+      <c r="F276" t="s">
+        <v>23</v>
+      </c>
+      <c r="G276">
+        <v>70</v>
+      </c>
+      <c r="H276">
+        <v>20</v>
+      </c>
+      <c r="I276">
+        <v>15</v>
+      </c>
+      <c r="J276">
+        <v>0</v>
+      </c>
+      <c r="K276" s="2">
+        <v>9.3494212962962953E-4</v>
+      </c>
+      <c r="L276" s="3">
+        <f t="shared" si="5"/>
+        <v>80.778999999999996</v>
+      </c>
+      <c r="M276">
+        <v>188.92699999999999</v>
+      </c>
+      <c r="N276">
+        <v>2</v>
+      </c>
+      <c r="O276" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="277" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A277" t="s">
+        <v>60</v>
+      </c>
+      <c r="B277" t="s">
+        <v>47</v>
+      </c>
+      <c r="C277" t="s">
+        <v>48</v>
+      </c>
+      <c r="D277" t="s">
+        <v>36</v>
+      </c>
+      <c r="E277">
+        <v>27</v>
+      </c>
+      <c r="F277" t="s">
+        <v>37</v>
+      </c>
+      <c r="G277">
+        <v>35</v>
+      </c>
+      <c r="H277">
+        <v>18</v>
+      </c>
+      <c r="I277">
+        <v>16</v>
+      </c>
+      <c r="J277">
+        <v>0</v>
+      </c>
+      <c r="K277" s="2">
+        <v>9.4810185185185177E-4</v>
+      </c>
+      <c r="L277" s="3">
+        <f t="shared" si="5"/>
+        <v>81.915999999999997</v>
+      </c>
+      <c r="M277">
+        <v>188.69300000000001</v>
+      </c>
+      <c r="N277">
+        <v>1</v>
+      </c>
+      <c r="O277" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="278" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A278" t="s">
+        <v>60</v>
+      </c>
+      <c r="B278" t="s">
+        <v>47</v>
+      </c>
+      <c r="C278" t="s">
+        <v>48</v>
+      </c>
+      <c r="D278" t="s">
+        <v>34</v>
+      </c>
+      <c r="E278">
+        <v>10</v>
+      </c>
+      <c r="F278" t="s">
+        <v>18</v>
+      </c>
+      <c r="G278">
+        <v>194</v>
+      </c>
+      <c r="H278">
+        <v>16</v>
+      </c>
+      <c r="I278">
+        <v>17</v>
+      </c>
+      <c r="J278">
+        <v>0</v>
+      </c>
+      <c r="K278" s="2">
+        <v>9.3958333333333339E-4</v>
+      </c>
+      <c r="L278" s="3">
+        <f t="shared" si="5"/>
+        <v>81.180000000000007</v>
+      </c>
+      <c r="M278">
+        <v>188.637</v>
+      </c>
+      <c r="N278">
+        <v>2</v>
+      </c>
+      <c r="O278" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="279" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A279" t="s">
+        <v>60</v>
+      </c>
+      <c r="B279" t="s">
+        <v>47</v>
+      </c>
+      <c r="C279" t="s">
+        <v>48</v>
+      </c>
+      <c r="D279" t="s">
+        <v>81</v>
+      </c>
+      <c r="E279">
+        <v>0</v>
+      </c>
+      <c r="F279" t="s">
+        <v>33</v>
+      </c>
+      <c r="G279">
+        <v>20</v>
+      </c>
+      <c r="H279">
+        <v>14</v>
+      </c>
+      <c r="I279">
+        <v>18</v>
+      </c>
+      <c r="J279">
+        <v>0</v>
+      </c>
+      <c r="K279" s="2">
+        <v>9.3549768518518515E-4</v>
+      </c>
+      <c r="L279" s="3">
+        <f t="shared" si="5"/>
+        <v>80.826999999999998</v>
+      </c>
+      <c r="M279">
+        <v>188.62299999999999</v>
+      </c>
+      <c r="N279">
+        <v>2</v>
+      </c>
+      <c r="O279" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="280" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A280" t="s">
+        <v>60</v>
+      </c>
+      <c r="B280" t="s">
+        <v>47</v>
+      </c>
+      <c r="C280" t="s">
+        <v>48</v>
+      </c>
+      <c r="D280" t="s">
+        <v>32</v>
+      </c>
+      <c r="E280">
+        <v>20</v>
+      </c>
+      <c r="F280" t="s">
+        <v>33</v>
+      </c>
+      <c r="G280">
+        <v>20</v>
+      </c>
+      <c r="H280">
+        <v>17</v>
+      </c>
+      <c r="I280">
+        <v>19</v>
+      </c>
+      <c r="J280">
+        <v>0</v>
+      </c>
+      <c r="K280" s="2">
+        <v>9.4251157407407402E-4</v>
+      </c>
+      <c r="L280" s="3">
+        <f t="shared" si="5"/>
+        <v>81.432999999999993</v>
+      </c>
+      <c r="M280">
+        <v>188.33</v>
+      </c>
+      <c r="N280">
+        <v>1</v>
+      </c>
+      <c r="O280" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="281" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A281" t="s">
+        <v>60</v>
+      </c>
+      <c r="B281" t="s">
+        <v>47</v>
+      </c>
+      <c r="C281" t="s">
+        <v>48</v>
+      </c>
+      <c r="D281" t="s">
+        <v>38</v>
+      </c>
+      <c r="E281">
+        <v>8</v>
+      </c>
+      <c r="F281" t="s">
+        <v>37</v>
+      </c>
+      <c r="G281">
+        <v>35</v>
+      </c>
+      <c r="H281">
+        <v>11</v>
+      </c>
+      <c r="I281">
+        <v>20</v>
+      </c>
+      <c r="J281">
+        <v>0</v>
+      </c>
+      <c r="K281" s="2">
+        <v>9.489467592592593E-4</v>
+      </c>
+      <c r="L281" s="3">
+        <f t="shared" si="5"/>
+        <v>81.989000000000004</v>
+      </c>
+      <c r="M281">
+        <v>187.36099999999999</v>
+      </c>
+      <c r="N281">
+        <v>1</v>
+      </c>
+      <c r="O281" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/F1.xlsx
+++ b/F1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\vs\f1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBFA7A82-EDC9-4FE6-A524-0CAD4AD574E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4717514C-D7BF-449E-A12E-9B51DF2E0A5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00798B61-A4AB-4634-A493-7936C2BE7462}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2044" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2164" uniqueCount="82">
   <si>
     <t>Race_Name</t>
   </si>
@@ -649,11 +649,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36F0DB36-4229-4BFD-868F-09E812C5EFF8}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:S281"/>
+  <dimension ref="A1:S301"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A258" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N281" sqref="N281"/>
+      <pane ySplit="1" topLeftCell="A276" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N301" sqref="N301"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -14027,6 +14027,966 @@
         <v>1</v>
       </c>
       <c r="O281" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="282" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A282" t="s">
+        <v>62</v>
+      </c>
+      <c r="B282" t="s">
+        <v>47</v>
+      </c>
+      <c r="C282" t="s">
+        <v>48</v>
+      </c>
+      <c r="D282" t="s">
+        <v>30</v>
+      </c>
+      <c r="E282">
+        <v>309</v>
+      </c>
+      <c r="F282" t="s">
+        <v>14</v>
+      </c>
+      <c r="G282">
+        <v>584</v>
+      </c>
+      <c r="H282">
+        <v>1</v>
+      </c>
+      <c r="I282">
+        <v>1</v>
+      </c>
+      <c r="J282">
+        <v>1</v>
+      </c>
+      <c r="K282" s="2">
+        <v>8.3646990740740741E-4</v>
+      </c>
+      <c r="L282" s="3">
+        <f t="shared" ref="L282:L301" si="6">(K282 - INT(K282/1))*86400</f>
+        <v>72.271000000000001</v>
+      </c>
+      <c r="M282">
+        <v>186.75800000000001</v>
+      </c>
+      <c r="N282">
+        <v>2</v>
+      </c>
+      <c r="O282" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="283" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A283" t="s">
+        <v>62</v>
+      </c>
+      <c r="B283" t="s">
+        <v>47</v>
+      </c>
+      <c r="C283" t="s">
+        <v>48</v>
+      </c>
+      <c r="D283" t="s">
+        <v>17</v>
+      </c>
+      <c r="E283">
+        <v>205</v>
+      </c>
+      <c r="F283" t="s">
+        <v>18</v>
+      </c>
+      <c r="G283">
+        <v>214</v>
+      </c>
+      <c r="H283">
+        <v>3</v>
+      </c>
+      <c r="I283">
+        <v>2</v>
+      </c>
+      <c r="J283">
+        <v>0</v>
+      </c>
+      <c r="K283" s="2">
+        <v>8.4399305555555551E-4</v>
+      </c>
+      <c r="L283" s="3">
+        <f t="shared" si="6"/>
+        <v>72.920999999999992</v>
+      </c>
+      <c r="M283">
+        <v>186.71799999999999</v>
+      </c>
+      <c r="N283">
+        <v>2</v>
+      </c>
+      <c r="O283" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="284" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A284" t="s">
+        <v>62</v>
+      </c>
+      <c r="B284" t="s">
+        <v>47</v>
+      </c>
+      <c r="C284" t="s">
+        <v>48</v>
+      </c>
+      <c r="D284" t="s">
+        <v>45</v>
+      </c>
+      <c r="E284">
+        <v>37</v>
+      </c>
+      <c r="F284" t="s">
+        <v>35</v>
+      </c>
+      <c r="G284">
+        <v>60</v>
+      </c>
+      <c r="H284">
+        <v>4</v>
+      </c>
+      <c r="I284">
+        <v>3</v>
+      </c>
+      <c r="J284">
+        <v>0</v>
+      </c>
+      <c r="K284" s="2">
+        <v>8.4869212962962958E-4</v>
+      </c>
+      <c r="L284" s="3">
+        <f t="shared" si="6"/>
+        <v>73.326999999999998</v>
+      </c>
+      <c r="M284">
+        <v>186.65600000000001</v>
+      </c>
+      <c r="N284">
+        <v>2</v>
+      </c>
+      <c r="O284" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="285" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A285" t="s">
+        <v>62</v>
+      </c>
+      <c r="B285" t="s">
+        <v>47</v>
+      </c>
+      <c r="C285" t="s">
+        <v>48</v>
+      </c>
+      <c r="D285" t="s">
+        <v>19</v>
+      </c>
+      <c r="E285">
+        <v>184</v>
+      </c>
+      <c r="F285" t="s">
+        <v>20</v>
+      </c>
+      <c r="G285">
+        <v>248</v>
+      </c>
+      <c r="H285">
+        <v>5</v>
+      </c>
+      <c r="I285">
+        <v>4</v>
+      </c>
+      <c r="J285">
+        <v>0</v>
+      </c>
+      <c r="K285" s="2">
+        <v>8.5333333333333322E-4</v>
+      </c>
+      <c r="L285" s="3">
+        <f t="shared" si="6"/>
+        <v>73.727999999999994</v>
+      </c>
+      <c r="M285">
+        <v>186.57900000000001</v>
+      </c>
+      <c r="N285">
+        <v>2</v>
+      </c>
+      <c r="O285" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="286" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A286" t="s">
+        <v>62</v>
+      </c>
+      <c r="B286" t="s">
+        <v>47</v>
+      </c>
+      <c r="C286" t="s">
+        <v>48</v>
+      </c>
+      <c r="D286" t="s">
+        <v>22</v>
+      </c>
+      <c r="E286">
+        <v>64</v>
+      </c>
+      <c r="F286" t="s">
+        <v>23</v>
+      </c>
+      <c r="G286">
+        <v>80</v>
+      </c>
+      <c r="H286">
+        <v>15</v>
+      </c>
+      <c r="I286">
+        <v>5</v>
+      </c>
+      <c r="J286">
+        <v>0</v>
+      </c>
+      <c r="K286" s="2">
+        <v>8.5285879629629622E-4</v>
+      </c>
+      <c r="L286" s="3">
+        <f t="shared" si="6"/>
+        <v>73.686999999999998</v>
+      </c>
+      <c r="M286">
+        <v>186.55799999999999</v>
+      </c>
+      <c r="N286">
+        <v>2</v>
+      </c>
+      <c r="O286" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="287" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A287" t="s">
+        <v>62</v>
+      </c>
+      <c r="B287" t="s">
+        <v>47</v>
+      </c>
+      <c r="C287" t="s">
+        <v>48</v>
+      </c>
+      <c r="D287" t="s">
+        <v>38</v>
+      </c>
+      <c r="E287">
+        <v>16</v>
+      </c>
+      <c r="F287" t="s">
+        <v>37</v>
+      </c>
+      <c r="G287">
+        <v>44</v>
+      </c>
+      <c r="H287">
+        <v>19</v>
+      </c>
+      <c r="I287">
+        <v>6</v>
+      </c>
+      <c r="J287">
+        <v>0</v>
+      </c>
+      <c r="K287" s="2">
+        <v>8.559027777777778E-4</v>
+      </c>
+      <c r="L287" s="3">
+        <f t="shared" si="6"/>
+        <v>73.95</v>
+      </c>
+      <c r="M287">
+        <v>186.47200000000001</v>
+      </c>
+      <c r="N287">
+        <v>1</v>
+      </c>
+      <c r="O287" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="288" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A288" t="s">
+        <v>62</v>
+      </c>
+      <c r="B288" t="s">
+        <v>47</v>
+      </c>
+      <c r="C288" t="s">
+        <v>48</v>
+      </c>
+      <c r="D288" t="s">
+        <v>24</v>
+      </c>
+      <c r="E288">
+        <v>32</v>
+      </c>
+      <c r="F288" t="s">
+        <v>25</v>
+      </c>
+      <c r="G288">
+        <v>62</v>
+      </c>
+      <c r="H288">
+        <v>20</v>
+      </c>
+      <c r="I288">
+        <v>7</v>
+      </c>
+      <c r="J288">
+        <v>0</v>
+      </c>
+      <c r="K288" s="2">
+        <v>8.5442129629629637E-4</v>
+      </c>
+      <c r="L288" s="3">
+        <f t="shared" si="6"/>
+        <v>73.822000000000003</v>
+      </c>
+      <c r="M288">
+        <v>186.458</v>
+      </c>
+      <c r="N288">
+        <v>2</v>
+      </c>
+      <c r="O288" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="289" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A289" t="s">
+        <v>62</v>
+      </c>
+      <c r="B289" t="s">
+        <v>47</v>
+      </c>
+      <c r="C289" t="s">
+        <v>48</v>
+      </c>
+      <c r="D289" t="s">
+        <v>42</v>
+      </c>
+      <c r="E289">
+        <v>30</v>
+      </c>
+      <c r="F289" t="s">
+        <v>25</v>
+      </c>
+      <c r="G289">
+        <v>62</v>
+      </c>
+      <c r="H289">
+        <v>10</v>
+      </c>
+      <c r="I289">
+        <v>8</v>
+      </c>
+      <c r="J289">
+        <v>0</v>
+      </c>
+      <c r="K289" s="2">
+        <v>8.5322916666666663E-4</v>
+      </c>
+      <c r="L289" s="3">
+        <f t="shared" si="6"/>
+        <v>73.718999999999994</v>
+      </c>
+      <c r="M289">
+        <v>186.38800000000001</v>
+      </c>
+      <c r="N289">
+        <v>2</v>
+      </c>
+      <c r="O289" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="290" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A290" t="s">
+        <v>62</v>
+      </c>
+      <c r="B290" t="s">
+        <v>47</v>
+      </c>
+      <c r="C290" t="s">
+        <v>48</v>
+      </c>
+      <c r="D290" t="s">
+        <v>34</v>
+      </c>
+      <c r="E290">
+        <v>12</v>
+      </c>
+      <c r="F290" t="s">
+        <v>18</v>
+      </c>
+      <c r="G290">
+        <v>214</v>
+      </c>
+      <c r="H290">
+        <v>12</v>
+      </c>
+      <c r="I290">
+        <v>9</v>
+      </c>
+      <c r="J290">
+        <v>0</v>
+      </c>
+      <c r="K290" s="2">
+        <v>8.6057870370370368E-4</v>
+      </c>
+      <c r="L290" s="3">
+        <f t="shared" si="6"/>
+        <v>74.353999999999999</v>
+      </c>
+      <c r="M290">
+        <v>186.32900000000001</v>
+      </c>
+      <c r="N290">
+        <v>2</v>
+      </c>
+      <c r="O290" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="291" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A291" t="s">
+        <v>62</v>
+      </c>
+      <c r="B291" t="s">
+        <v>47</v>
+      </c>
+      <c r="C291" t="s">
+        <v>48</v>
+      </c>
+      <c r="D291" t="s">
+        <v>36</v>
+      </c>
+      <c r="E291">
+        <v>28</v>
+      </c>
+      <c r="F291" t="s">
+        <v>37</v>
+      </c>
+      <c r="G291">
+        <v>44</v>
+      </c>
+      <c r="H291">
+        <v>18</v>
+      </c>
+      <c r="I291">
+        <v>10</v>
+      </c>
+      <c r="J291">
+        <v>0</v>
+      </c>
+      <c r="K291" s="2">
+        <v>8.5631944444444449E-4</v>
+      </c>
+      <c r="L291" s="3">
+        <f t="shared" si="6"/>
+        <v>73.986000000000004</v>
+      </c>
+      <c r="M291">
+        <v>186.31399999999999</v>
+      </c>
+      <c r="N291">
+        <v>1</v>
+      </c>
+      <c r="O291" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="292" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A292" t="s">
+        <v>62</v>
+      </c>
+      <c r="B292" t="s">
+        <v>47</v>
+      </c>
+      <c r="C292" t="s">
+        <v>48</v>
+      </c>
+      <c r="D292" t="s">
+        <v>81</v>
+      </c>
+      <c r="E292">
+        <v>0</v>
+      </c>
+      <c r="F292" t="s">
+        <v>33</v>
+      </c>
+      <c r="G292">
+        <v>20</v>
+      </c>
+      <c r="H292">
+        <v>16</v>
+      </c>
+      <c r="I292">
+        <v>11</v>
+      </c>
+      <c r="J292">
+        <v>0</v>
+      </c>
+      <c r="K292" s="2">
+        <v>8.4547453703703716E-4</v>
+      </c>
+      <c r="L292" s="3">
+        <f t="shared" si="6"/>
+        <v>73.049000000000007</v>
+      </c>
+      <c r="M292">
+        <v>186.3</v>
+      </c>
+      <c r="N292">
+        <v>3</v>
+      </c>
+      <c r="O292" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="293" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A293" t="s">
+        <v>62</v>
+      </c>
+      <c r="B293" t="s">
+        <v>47</v>
+      </c>
+      <c r="C293" t="s">
+        <v>48</v>
+      </c>
+      <c r="D293" t="s">
+        <v>39</v>
+      </c>
+      <c r="E293">
+        <v>20</v>
+      </c>
+      <c r="F293" t="s">
+        <v>35</v>
+      </c>
+      <c r="G293">
+        <v>60</v>
+      </c>
+      <c r="H293">
+        <v>8</v>
+      </c>
+      <c r="I293">
+        <v>12</v>
+      </c>
+      <c r="J293">
+        <v>0</v>
+      </c>
+      <c r="K293" s="2">
+        <v>8.5508101851851858E-4</v>
+      </c>
+      <c r="L293" s="3">
+        <f t="shared" si="6"/>
+        <v>73.879000000000005</v>
+      </c>
+      <c r="M293">
+        <v>186.22</v>
+      </c>
+      <c r="N293">
+        <v>3</v>
+      </c>
+      <c r="O293" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="294" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A294" t="s">
+        <v>62</v>
+      </c>
+      <c r="B294" t="s">
+        <v>47</v>
+      </c>
+      <c r="C294" t="s">
+        <v>48</v>
+      </c>
+      <c r="D294" t="s">
+        <v>43</v>
+      </c>
+      <c r="E294">
+        <v>16</v>
+      </c>
+      <c r="F294" t="s">
+        <v>23</v>
+      </c>
+      <c r="G294">
+        <v>80</v>
+      </c>
+      <c r="H294">
+        <v>9</v>
+      </c>
+      <c r="I294">
+        <v>13</v>
+      </c>
+      <c r="J294">
+        <v>0</v>
+      </c>
+      <c r="K294" s="2">
+        <v>8.5425925925925914E-4</v>
+      </c>
+      <c r="L294" s="3">
+        <f t="shared" si="6"/>
+        <v>73.807999999999993</v>
+      </c>
+      <c r="M294">
+        <v>186.21</v>
+      </c>
+      <c r="N294">
+        <v>4</v>
+      </c>
+      <c r="O294" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="295" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A295" t="s">
+        <v>62</v>
+      </c>
+      <c r="B295" t="s">
+        <v>47</v>
+      </c>
+      <c r="C295" t="s">
+        <v>48</v>
+      </c>
+      <c r="D295" t="s">
+        <v>26</v>
+      </c>
+      <c r="E295">
+        <v>37</v>
+      </c>
+      <c r="F295" t="s">
+        <v>27</v>
+      </c>
+      <c r="G295">
+        <v>51</v>
+      </c>
+      <c r="H295">
+        <v>17</v>
+      </c>
+      <c r="I295">
+        <v>14</v>
+      </c>
+      <c r="J295">
+        <v>0</v>
+      </c>
+      <c r="K295" s="2">
+        <v>8.6703703703703715E-4</v>
+      </c>
+      <c r="L295" s="3">
+        <f t="shared" si="6"/>
+        <v>74.912000000000006</v>
+      </c>
+      <c r="M295">
+        <v>186.137</v>
+      </c>
+      <c r="N295">
+        <v>2</v>
+      </c>
+      <c r="O295" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="296" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A296" t="s">
+        <v>62</v>
+      </c>
+      <c r="B296" t="s">
+        <v>47</v>
+      </c>
+      <c r="C296" t="s">
+        <v>48</v>
+      </c>
+      <c r="D296" t="s">
+        <v>41</v>
+      </c>
+      <c r="E296">
+        <v>14</v>
+      </c>
+      <c r="F296" t="s">
+        <v>27</v>
+      </c>
+      <c r="G296">
+        <v>51</v>
+      </c>
+      <c r="H296">
+        <v>13</v>
+      </c>
+      <c r="I296">
+        <v>15</v>
+      </c>
+      <c r="J296">
+        <v>0</v>
+      </c>
+      <c r="K296" s="2">
+        <v>8.6003472222222221E-4</v>
+      </c>
+      <c r="L296" s="3">
+        <f t="shared" si="6"/>
+        <v>74.307000000000002</v>
+      </c>
+      <c r="M296">
+        <v>186.07900000000001</v>
+      </c>
+      <c r="N296">
+        <v>2</v>
+      </c>
+      <c r="O296" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="297" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A297" t="s">
+        <v>62</v>
+      </c>
+      <c r="B297" t="s">
+        <v>47</v>
+      </c>
+      <c r="C297" t="s">
+        <v>48</v>
+      </c>
+      <c r="D297" t="s">
+        <v>21</v>
+      </c>
+      <c r="E297">
+        <v>64</v>
+      </c>
+      <c r="F297" t="s">
+        <v>20</v>
+      </c>
+      <c r="G297">
+        <v>248</v>
+      </c>
+      <c r="H297">
+        <v>11</v>
+      </c>
+      <c r="I297">
+        <v>16</v>
+      </c>
+      <c r="J297">
+        <v>0</v>
+      </c>
+      <c r="K297" s="2">
+        <v>8.5046296296296302E-4</v>
+      </c>
+      <c r="L297" s="3">
+        <f t="shared" si="6"/>
+        <v>73.48</v>
+      </c>
+      <c r="M297">
+        <v>186.06399999999999</v>
+      </c>
+      <c r="N297">
+        <v>2</v>
+      </c>
+      <c r="O297" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="298" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A298" t="s">
+        <v>62</v>
+      </c>
+      <c r="B298" t="s">
+        <v>47</v>
+      </c>
+      <c r="C298" t="s">
+        <v>48</v>
+      </c>
+      <c r="D298" t="s">
+        <v>32</v>
+      </c>
+      <c r="E298">
+        <v>20</v>
+      </c>
+      <c r="F298" t="s">
+        <v>33</v>
+      </c>
+      <c r="G298">
+        <v>20</v>
+      </c>
+      <c r="H298">
+        <v>14</v>
+      </c>
+      <c r="I298">
+        <v>17</v>
+      </c>
+      <c r="J298">
+        <v>0</v>
+      </c>
+      <c r="K298" s="2">
+        <v>8.7092592592592603E-4</v>
+      </c>
+      <c r="L298" s="3">
+        <f t="shared" si="6"/>
+        <v>75.248000000000005</v>
+      </c>
+      <c r="M298">
+        <v>186.01400000000001</v>
+      </c>
+      <c r="N298">
+        <v>1</v>
+      </c>
+      <c r="O298" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="299" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A299" t="s">
+        <v>62</v>
+      </c>
+      <c r="B299" t="s">
+        <v>47</v>
+      </c>
+      <c r="C299" t="s">
+        <v>48</v>
+      </c>
+      <c r="D299" t="s">
+        <v>13</v>
+      </c>
+      <c r="E299">
+        <v>275</v>
+      </c>
+      <c r="F299" t="s">
+        <v>14</v>
+      </c>
+      <c r="G299">
+        <v>584</v>
+      </c>
+      <c r="H299">
+        <v>2</v>
+      </c>
+      <c r="I299">
+        <v>18</v>
+      </c>
+      <c r="J299">
+        <v>0</v>
+      </c>
+      <c r="K299" s="2">
+        <v>8.3771990740740747E-4</v>
+      </c>
+      <c r="L299" s="3">
+        <f t="shared" si="6"/>
+        <v>72.379000000000005</v>
+      </c>
+      <c r="M299">
+        <v>189.91399999999999</v>
+      </c>
+      <c r="N299">
+        <v>2</v>
+      </c>
+      <c r="O299" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="300" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A300" t="s">
+        <v>62</v>
+      </c>
+      <c r="B300" t="s">
+        <v>47</v>
+      </c>
+      <c r="C300" t="s">
+        <v>48</v>
+      </c>
+      <c r="D300" t="s">
+        <v>28</v>
+      </c>
+      <c r="E300">
+        <v>151</v>
+      </c>
+      <c r="F300" t="s">
+        <v>29</v>
+      </c>
+      <c r="G300">
+        <v>260</v>
+      </c>
+      <c r="H300">
+        <v>6</v>
+      </c>
+      <c r="I300">
+        <v>19</v>
+      </c>
+      <c r="J300">
+        <v>0</v>
+      </c>
+      <c r="K300" s="2">
+        <v>8.6292824074074071E-4</v>
+      </c>
+      <c r="L300" s="3">
+        <f t="shared" si="6"/>
+        <v>74.557000000000002</v>
+      </c>
+      <c r="M300">
+        <v>194.547</v>
+      </c>
+      <c r="N300">
+        <v>2</v>
+      </c>
+      <c r="O300" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="301" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A301" t="s">
+        <v>62</v>
+      </c>
+      <c r="B301" t="s">
+        <v>47</v>
+      </c>
+      <c r="C301" t="s">
+        <v>48</v>
+      </c>
+      <c r="D301" t="s">
+        <v>31</v>
+      </c>
+      <c r="E301">
+        <v>109</v>
+      </c>
+      <c r="F301" t="s">
+        <v>29</v>
+      </c>
+      <c r="G301">
+        <v>260</v>
+      </c>
+      <c r="H301">
+        <v>7</v>
+      </c>
+      <c r="I301">
+        <v>20</v>
+      </c>
+      <c r="J301">
+        <v>0</v>
+      </c>
+      <c r="K301" s="2">
+        <v>8.7597222222222221E-4</v>
+      </c>
+      <c r="L301" s="3">
+        <f t="shared" si="6"/>
+        <v>75.683999999999997</v>
+      </c>
+      <c r="M301">
+        <v>199.99799999999999</v>
+      </c>
+      <c r="N301">
+        <v>0</v>
+      </c>
+      <c r="O301" t="s">
         <v>40</v>
       </c>
     </row>

--- a/F1.xlsx
+++ b/F1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\vs\f1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4717514C-D7BF-449E-A12E-9B51DF2E0A5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3BA2FD7-5E54-4480-97E4-B3E623598988}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00798B61-A4AB-4634-A493-7936C2BE7462}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2164" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2284" uniqueCount="83">
   <si>
     <t>Race_Name</t>
   </si>
@@ -281,6 +281,9 @@
   </si>
   <si>
     <t>Franco Colapinto</t>
+  </si>
+  <si>
+    <t>Monza</t>
   </si>
 </sst>
 </file>
@@ -649,11 +652,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36F0DB36-4229-4BFD-868F-09E812C5EFF8}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:S301"/>
+  <dimension ref="A1:S321"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A276" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N301" sqref="N301"/>
+      <pane ySplit="1" topLeftCell="A302" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H321" sqref="H321"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -14987,6 +14990,958 @@
         <v>0</v>
       </c>
       <c r="O301" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="302" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A302" t="s">
+        <v>82</v>
+      </c>
+      <c r="B302" t="s">
+        <v>47</v>
+      </c>
+      <c r="C302" t="s">
+        <v>48</v>
+      </c>
+      <c r="D302" t="s">
+        <v>17</v>
+      </c>
+      <c r="E302">
+        <v>230</v>
+      </c>
+      <c r="F302" t="s">
+        <v>18</v>
+      </c>
+      <c r="G302">
+        <v>239</v>
+      </c>
+      <c r="H302">
+        <v>1</v>
+      </c>
+      <c r="I302">
+        <v>1</v>
+      </c>
+      <c r="J302">
+        <v>1</v>
+      </c>
+      <c r="K302" s="2">
+        <v>9.375347222222222E-4</v>
+      </c>
+      <c r="L302" s="3">
+        <f t="shared" ref="L302:L321" si="7">(K302 - INT(K302/1))*86400</f>
+        <v>81.003</v>
+      </c>
+      <c r="M302">
+        <v>250.70599999999999</v>
+      </c>
+      <c r="N302">
+        <v>1</v>
+      </c>
+      <c r="O302" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="303" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A303" t="s">
+        <v>82</v>
+      </c>
+      <c r="B303" t="s">
+        <v>47</v>
+      </c>
+      <c r="C303" t="s">
+        <v>48</v>
+      </c>
+      <c r="D303" t="s">
+        <v>13</v>
+      </c>
+      <c r="E303">
+        <v>293</v>
+      </c>
+      <c r="F303" t="s">
+        <v>14</v>
+      </c>
+      <c r="G303">
+        <v>617</v>
+      </c>
+      <c r="H303">
+        <v>2</v>
+      </c>
+      <c r="I303">
+        <v>2</v>
+      </c>
+      <c r="J303">
+        <v>0</v>
+      </c>
+      <c r="K303" s="2">
+        <v>9.3635416666666661E-4</v>
+      </c>
+      <c r="L303" s="3">
+        <f t="shared" si="7"/>
+        <v>80.900999999999996</v>
+      </c>
+      <c r="M303">
+        <v>249.61699999999999</v>
+      </c>
+      <c r="N303">
+        <v>1</v>
+      </c>
+      <c r="O303" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="304" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A304" t="s">
+        <v>82</v>
+      </c>
+      <c r="B304" t="s">
+        <v>47</v>
+      </c>
+      <c r="C304" t="s">
+        <v>48</v>
+      </c>
+      <c r="D304" t="s">
+        <v>30</v>
+      </c>
+      <c r="E304">
+        <v>324</v>
+      </c>
+      <c r="F304" t="s">
+        <v>14</v>
+      </c>
+      <c r="G304">
+        <v>617</v>
+      </c>
+      <c r="H304">
+        <v>3</v>
+      </c>
+      <c r="I304">
+        <v>3</v>
+      </c>
+      <c r="J304">
+        <v>0</v>
+      </c>
+      <c r="K304" s="2">
+        <v>9.4033564814814815E-4</v>
+      </c>
+      <c r="L304" s="3">
+        <f t="shared" si="7"/>
+        <v>81.245000000000005</v>
+      </c>
+      <c r="M304">
+        <v>249.49600000000001</v>
+      </c>
+      <c r="N304">
+        <v>1</v>
+      </c>
+      <c r="O304" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="305" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A305" t="s">
+        <v>82</v>
+      </c>
+      <c r="B305" t="s">
+        <v>47</v>
+      </c>
+      <c r="C305" t="s">
+        <v>48</v>
+      </c>
+      <c r="D305" t="s">
+        <v>28</v>
+      </c>
+      <c r="E305">
+        <v>163</v>
+      </c>
+      <c r="F305" t="s">
+        <v>29</v>
+      </c>
+      <c r="G305">
+        <v>280</v>
+      </c>
+      <c r="H305">
+        <v>4</v>
+      </c>
+      <c r="I305">
+        <v>4</v>
+      </c>
+      <c r="J305">
+        <v>0</v>
+      </c>
+      <c r="K305" s="2">
+        <v>9.409027777777777E-4</v>
+      </c>
+      <c r="L305" s="3">
+        <f t="shared" si="7"/>
+        <v>81.293999999999997</v>
+      </c>
+      <c r="M305">
+        <v>249.256</v>
+      </c>
+      <c r="N305">
+        <v>1</v>
+      </c>
+      <c r="O305" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="306" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A306" t="s">
+        <v>82</v>
+      </c>
+      <c r="B306" t="s">
+        <v>47</v>
+      </c>
+      <c r="C306" t="s">
+        <v>48</v>
+      </c>
+      <c r="D306" t="s">
+        <v>19</v>
+      </c>
+      <c r="E306">
+        <v>194</v>
+      </c>
+      <c r="F306" t="s">
+        <v>20</v>
+      </c>
+      <c r="G306">
+        <v>260</v>
+      </c>
+      <c r="H306">
+        <v>6</v>
+      </c>
+      <c r="I306">
+        <v>5</v>
+      </c>
+      <c r="J306">
+        <v>0</v>
+      </c>
+      <c r="K306" s="2">
+        <v>9.4675925925925928E-4</v>
+      </c>
+      <c r="L306" s="3">
+        <f t="shared" si="7"/>
+        <v>81.8</v>
+      </c>
+      <c r="M306">
+        <v>248.84800000000001</v>
+      </c>
+      <c r="N306">
+        <v>1</v>
+      </c>
+      <c r="O306" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="307" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A307" t="s">
+        <v>82</v>
+      </c>
+      <c r="B307" t="s">
+        <v>47</v>
+      </c>
+      <c r="C307" t="s">
+        <v>48</v>
+      </c>
+      <c r="D307" t="s">
+        <v>31</v>
+      </c>
+      <c r="E307">
+        <v>117</v>
+      </c>
+      <c r="F307" t="s">
+        <v>29</v>
+      </c>
+      <c r="G307">
+        <v>280</v>
+      </c>
+      <c r="H307">
+        <v>5</v>
+      </c>
+      <c r="I307">
+        <v>6</v>
+      </c>
+      <c r="J307">
+        <v>0</v>
+      </c>
+      <c r="K307" s="2">
+        <v>9.4381944444444439E-4</v>
+      </c>
+      <c r="L307" s="3">
+        <f t="shared" si="7"/>
+        <v>81.545999999999992</v>
+      </c>
+      <c r="M307">
+        <v>248.59200000000001</v>
+      </c>
+      <c r="N307">
+        <v>1</v>
+      </c>
+      <c r="O307" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="308" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A308" t="s">
+        <v>82</v>
+      </c>
+      <c r="B308" t="s">
+        <v>47</v>
+      </c>
+      <c r="C308" t="s">
+        <v>48</v>
+      </c>
+      <c r="D308" t="s">
+        <v>22</v>
+      </c>
+      <c r="E308">
+        <v>70</v>
+      </c>
+      <c r="F308" t="s">
+        <v>23</v>
+      </c>
+      <c r="G308">
+        <v>86</v>
+      </c>
+      <c r="H308">
+        <v>14</v>
+      </c>
+      <c r="I308">
+        <v>7</v>
+      </c>
+      <c r="J308">
+        <v>0</v>
+      </c>
+      <c r="K308" s="2">
+        <v>9.4175925925925916E-4</v>
+      </c>
+      <c r="L308" s="3">
+        <f t="shared" si="7"/>
+        <v>81.367999999999995</v>
+      </c>
+      <c r="M308">
+        <v>247.86199999999999</v>
+      </c>
+      <c r="N308">
+        <v>1</v>
+      </c>
+      <c r="O308" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="309" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A309" t="s">
+        <v>82</v>
+      </c>
+      <c r="B309" t="s">
+        <v>47</v>
+      </c>
+      <c r="C309" t="s">
+        <v>48</v>
+      </c>
+      <c r="D309" t="s">
+        <v>41</v>
+      </c>
+      <c r="E309">
+        <v>18</v>
+      </c>
+      <c r="F309" t="s">
+        <v>27</v>
+      </c>
+      <c r="G309">
+        <v>55</v>
+      </c>
+      <c r="H309">
+        <v>8</v>
+      </c>
+      <c r="I309">
+        <v>8</v>
+      </c>
+      <c r="J309">
+        <v>0</v>
+      </c>
+      <c r="K309" s="2">
+        <v>9.5068287037037029E-4</v>
+      </c>
+      <c r="L309" s="3">
+        <f t="shared" si="7"/>
+        <v>82.138999999999996</v>
+      </c>
+      <c r="M309">
+        <v>247.42</v>
+      </c>
+      <c r="N309">
+        <v>1</v>
+      </c>
+      <c r="O309" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="310" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A310" t="s">
+        <v>82</v>
+      </c>
+      <c r="B310" t="s">
+        <v>47</v>
+      </c>
+      <c r="C310" t="s">
+        <v>48</v>
+      </c>
+      <c r="D310" t="s">
+        <v>21</v>
+      </c>
+      <c r="E310">
+        <v>66</v>
+      </c>
+      <c r="F310" t="s">
+        <v>20</v>
+      </c>
+      <c r="G310">
+        <v>260</v>
+      </c>
+      <c r="H310">
+        <v>7</v>
+      </c>
+      <c r="I310">
+        <v>9</v>
+      </c>
+      <c r="J310">
+        <v>0</v>
+      </c>
+      <c r="K310" s="2">
+        <v>9.4870370370370377E-4</v>
+      </c>
+      <c r="L310" s="3">
+        <f t="shared" si="7"/>
+        <v>81.968000000000004</v>
+      </c>
+      <c r="M310">
+        <v>247.35</v>
+      </c>
+      <c r="N310">
+        <v>1</v>
+      </c>
+      <c r="O310" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="311" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A311" t="s">
+        <v>82</v>
+      </c>
+      <c r="B311" t="s">
+        <v>47</v>
+      </c>
+      <c r="C311" t="s">
+        <v>48</v>
+      </c>
+      <c r="D311" t="s">
+        <v>45</v>
+      </c>
+      <c r="E311">
+        <v>38</v>
+      </c>
+      <c r="F311" t="s">
+        <v>35</v>
+      </c>
+      <c r="G311">
+        <v>61</v>
+      </c>
+      <c r="H311">
+        <v>16</v>
+      </c>
+      <c r="I311">
+        <v>10</v>
+      </c>
+      <c r="J311">
+        <v>0</v>
+      </c>
+      <c r="K311" s="2">
+        <v>9.5061342592592582E-4</v>
+      </c>
+      <c r="L311" s="3">
+        <f t="shared" si="7"/>
+        <v>82.132999999999996</v>
+      </c>
+      <c r="M311">
+        <v>247.12100000000001</v>
+      </c>
+      <c r="N311">
+        <v>1</v>
+      </c>
+      <c r="O311" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="312" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A312" t="s">
+        <v>82</v>
+      </c>
+      <c r="B312" t="s">
+        <v>47</v>
+      </c>
+      <c r="C312" t="s">
+        <v>48</v>
+      </c>
+      <c r="D312" t="s">
+        <v>43</v>
+      </c>
+      <c r="E312">
+        <v>16</v>
+      </c>
+      <c r="F312" t="s">
+        <v>23</v>
+      </c>
+      <c r="G312">
+        <v>86</v>
+      </c>
+      <c r="H312">
+        <v>13</v>
+      </c>
+      <c r="I312">
+        <v>11</v>
+      </c>
+      <c r="J312">
+        <v>0</v>
+      </c>
+      <c r="K312" s="2">
+        <v>9.4606481481481473E-4</v>
+      </c>
+      <c r="L312" s="3">
+        <f t="shared" si="7"/>
+        <v>81.739999999999995</v>
+      </c>
+      <c r="M312">
+        <v>247.089</v>
+      </c>
+      <c r="N312">
+        <v>1</v>
+      </c>
+      <c r="O312" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="313" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A313" t="s">
+        <v>82</v>
+      </c>
+      <c r="B313" t="s">
+        <v>47</v>
+      </c>
+      <c r="C313" t="s">
+        <v>48</v>
+      </c>
+      <c r="D313" t="s">
+        <v>38</v>
+      </c>
+      <c r="E313">
+        <v>16</v>
+      </c>
+      <c r="F313" t="s">
+        <v>37</v>
+      </c>
+      <c r="G313">
+        <v>44</v>
+      </c>
+      <c r="H313">
+        <v>11</v>
+      </c>
+      <c r="I313">
+        <v>12</v>
+      </c>
+      <c r="J313">
+        <v>0</v>
+      </c>
+      <c r="K313" s="2">
+        <v>9.4699074074074065E-4</v>
+      </c>
+      <c r="L313" s="3">
+        <f t="shared" si="7"/>
+        <v>81.819999999999993</v>
+      </c>
+      <c r="M313">
+        <v>246.27199999999999</v>
+      </c>
+      <c r="N313">
+        <v>1</v>
+      </c>
+      <c r="O313" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="314" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A314" t="s">
+        <v>82</v>
+      </c>
+      <c r="B314" t="s">
+        <v>47</v>
+      </c>
+      <c r="C314" t="s">
+        <v>48</v>
+      </c>
+      <c r="D314" t="s">
+        <v>34</v>
+      </c>
+      <c r="E314">
+        <v>12</v>
+      </c>
+      <c r="F314" t="s">
+        <v>18</v>
+      </c>
+      <c r="G314">
+        <v>239</v>
+      </c>
+      <c r="H314">
+        <v>10</v>
+      </c>
+      <c r="I314">
+        <v>13</v>
+      </c>
+      <c r="J314">
+        <v>0</v>
+      </c>
+      <c r="K314" s="2">
+        <v>9.5731481481481481E-4</v>
+      </c>
+      <c r="L314" s="3">
+        <f t="shared" si="7"/>
+        <v>82.712000000000003</v>
+      </c>
+      <c r="M314">
+        <v>246.19499999999999</v>
+      </c>
+      <c r="N314">
+        <v>1</v>
+      </c>
+      <c r="O314" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="315" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A315" t="s">
+        <v>82</v>
+      </c>
+      <c r="B315" t="s">
+        <v>47</v>
+      </c>
+      <c r="C315" t="s">
+        <v>48</v>
+      </c>
+      <c r="D315" t="s">
+        <v>39</v>
+      </c>
+      <c r="E315">
+        <v>20</v>
+      </c>
+      <c r="F315" t="s">
+        <v>35</v>
+      </c>
+      <c r="G315">
+        <v>61</v>
+      </c>
+      <c r="H315">
+        <v>20</v>
+      </c>
+      <c r="I315">
+        <v>14</v>
+      </c>
+      <c r="J315">
+        <v>0</v>
+      </c>
+      <c r="K315" s="2">
+        <v>9.5806712962962968E-4</v>
+      </c>
+      <c r="L315" s="3">
+        <f t="shared" si="7"/>
+        <v>82.777000000000001</v>
+      </c>
+      <c r="M315">
+        <v>246.10400000000001</v>
+      </c>
+      <c r="N315">
+        <v>1</v>
+      </c>
+      <c r="O315" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="316" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A316" t="s">
+        <v>82</v>
+      </c>
+      <c r="B316" t="s">
+        <v>47</v>
+      </c>
+      <c r="C316" t="s">
+        <v>48</v>
+      </c>
+      <c r="D316" t="s">
+        <v>36</v>
+      </c>
+      <c r="E316">
+        <v>28</v>
+      </c>
+      <c r="F316" t="s">
+        <v>37</v>
+      </c>
+      <c r="G316">
+        <v>44</v>
+      </c>
+      <c r="H316">
+        <v>15</v>
+      </c>
+      <c r="I316">
+        <v>15</v>
+      </c>
+      <c r="J316">
+        <v>0</v>
+      </c>
+      <c r="K316" s="2">
+        <v>9.5939814814814813E-4</v>
+      </c>
+      <c r="L316" s="3">
+        <f t="shared" si="7"/>
+        <v>82.891999999999996</v>
+      </c>
+      <c r="M316">
+        <v>245.852</v>
+      </c>
+      <c r="N316">
+        <v>1</v>
+      </c>
+      <c r="O316" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="317" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A317" t="s">
+        <v>82</v>
+      </c>
+      <c r="B317" t="s">
+        <v>47</v>
+      </c>
+      <c r="C317" t="s">
+        <v>48</v>
+      </c>
+      <c r="D317" t="s">
+        <v>32</v>
+      </c>
+      <c r="E317">
+        <v>20</v>
+      </c>
+      <c r="F317" t="s">
+        <v>33</v>
+      </c>
+      <c r="G317">
+        <v>20</v>
+      </c>
+      <c r="H317">
+        <v>19</v>
+      </c>
+      <c r="I317">
+        <v>16</v>
+      </c>
+      <c r="J317">
+        <v>0</v>
+      </c>
+      <c r="K317" s="2">
+        <v>9.5121527777777782E-4</v>
+      </c>
+      <c r="L317" s="3">
+        <f t="shared" si="7"/>
+        <v>82.185000000000002</v>
+      </c>
+      <c r="M317">
+        <v>245.64500000000001</v>
+      </c>
+      <c r="N317">
+        <v>1</v>
+      </c>
+      <c r="O317" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="318" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A318" t="s">
+        <v>82</v>
+      </c>
+      <c r="B318" t="s">
+        <v>47</v>
+      </c>
+      <c r="C318" t="s">
+        <v>48</v>
+      </c>
+      <c r="D318" t="s">
+        <v>81</v>
+      </c>
+      <c r="E318">
+        <v>0</v>
+      </c>
+      <c r="F318" t="s">
+        <v>33</v>
+      </c>
+      <c r="G318">
+        <v>20</v>
+      </c>
+      <c r="H318">
+        <v>18</v>
+      </c>
+      <c r="I318">
+        <v>17</v>
+      </c>
+      <c r="J318">
+        <v>0</v>
+      </c>
+      <c r="K318" s="2">
+        <v>9.518402777777778E-4</v>
+      </c>
+      <c r="L318" s="3">
+        <f t="shared" si="7"/>
+        <v>82.239000000000004</v>
+      </c>
+      <c r="M318">
+        <v>245.55500000000001</v>
+      </c>
+      <c r="N318">
+        <v>1</v>
+      </c>
+      <c r="O318" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="319" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A319" t="s">
+        <v>82</v>
+      </c>
+      <c r="B319" t="s">
+        <v>47</v>
+      </c>
+      <c r="C319" t="s">
+        <v>48</v>
+      </c>
+      <c r="D319" t="s">
+        <v>24</v>
+      </c>
+      <c r="E319">
+        <v>32</v>
+      </c>
+      <c r="F319" t="s">
+        <v>25</v>
+      </c>
+      <c r="G319">
+        <v>62</v>
+      </c>
+      <c r="H319">
+        <v>17</v>
+      </c>
+      <c r="I319">
+        <v>18</v>
+      </c>
+      <c r="J319">
+        <v>0</v>
+      </c>
+      <c r="K319" s="2">
+        <v>9.5097222222222219E-4</v>
+      </c>
+      <c r="L319" s="3">
+        <f t="shared" si="7"/>
+        <v>82.164000000000001</v>
+      </c>
+      <c r="M319">
+        <v>245.452</v>
+      </c>
+      <c r="N319">
+        <v>1</v>
+      </c>
+      <c r="O319" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="320" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A320" t="s">
+        <v>82</v>
+      </c>
+      <c r="B320" t="s">
+        <v>47</v>
+      </c>
+      <c r="C320" t="s">
+        <v>48</v>
+      </c>
+      <c r="D320" t="s">
+        <v>42</v>
+      </c>
+      <c r="E320">
+        <v>30</v>
+      </c>
+      <c r="F320" t="s">
+        <v>25</v>
+      </c>
+      <c r="G320">
+        <v>62</v>
+      </c>
+      <c r="H320">
+        <v>9</v>
+      </c>
+      <c r="I320">
+        <v>19</v>
+      </c>
+      <c r="J320">
+        <v>0</v>
+      </c>
+      <c r="K320" s="2">
+        <v>9.6940972222222231E-4</v>
+      </c>
+      <c r="L320" s="3">
+        <f t="shared" si="7"/>
+        <v>83.757000000000005</v>
+      </c>
+      <c r="M320">
+        <v>239.92400000000001</v>
+      </c>
+      <c r="N320">
+        <v>1</v>
+      </c>
+      <c r="O320" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="321" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A321" t="s">
+        <v>82</v>
+      </c>
+      <c r="B321" t="s">
+        <v>47</v>
+      </c>
+      <c r="C321" t="s">
+        <v>48</v>
+      </c>
+      <c r="D321" t="s">
+        <v>26</v>
+      </c>
+      <c r="E321">
+        <v>37</v>
+      </c>
+      <c r="F321" t="s">
+        <v>27</v>
+      </c>
+      <c r="G321">
+        <v>55</v>
+      </c>
+      <c r="H321">
+        <v>12</v>
+      </c>
+      <c r="I321">
+        <v>20</v>
+      </c>
+      <c r="J321">
+        <v>0</v>
+      </c>
+      <c r="K321" s="2"/>
+      <c r="L321" s="3"/>
+      <c r="N321">
+        <v>0</v>
+      </c>
+      <c r="O321" t="s">
         <v>40</v>
       </c>
     </row>

--- a/F1.xlsx
+++ b/F1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\vs\f1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3BA2FD7-5E54-4480-97E4-B3E623598988}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEB35577-7C2F-4EAE-B143-C51772BFE210}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00798B61-A4AB-4634-A493-7936C2BE7462}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2284" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2404" uniqueCount="83">
   <si>
     <t>Race_Name</t>
   </si>
@@ -652,11 +652,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36F0DB36-4229-4BFD-868F-09E812C5EFF8}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:S321"/>
+  <dimension ref="A1:S341"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A302" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H321" sqref="H321"/>
+      <pane ySplit="1" topLeftCell="A320" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O323" sqref="O323"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -15028,7 +15028,7 @@
         <v>9.375347222222222E-4</v>
       </c>
       <c r="L302" s="3">
-        <f t="shared" ref="L302:L321" si="7">(K302 - INT(K302/1))*86400</f>
+        <f t="shared" ref="L302:L320" si="7">(K302 - INT(K302/1))*86400</f>
         <v>81.003</v>
       </c>
       <c r="M302">
@@ -15942,6 +15942,955 @@
         <v>0</v>
       </c>
       <c r="O321" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="322" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A322" t="s">
+        <v>64</v>
+      </c>
+      <c r="B322" t="s">
+        <v>11</v>
+      </c>
+      <c r="C322" t="s">
+        <v>48</v>
+      </c>
+      <c r="D322" t="s">
+        <v>17</v>
+      </c>
+      <c r="E322">
+        <v>255</v>
+      </c>
+      <c r="F322" t="s">
+        <v>18</v>
+      </c>
+      <c r="G322">
+        <v>272</v>
+      </c>
+      <c r="H322">
+        <v>1</v>
+      </c>
+      <c r="I322">
+        <v>1</v>
+      </c>
+      <c r="J322">
+        <v>1</v>
+      </c>
+      <c r="K322" s="2">
+        <v>1.1966203703703705E-3</v>
+      </c>
+      <c r="L322" s="3">
+        <f t="shared" ref="L321:L341" si="8">(K322 - INT(K322/1))*86400</f>
+        <v>103.38800000000001</v>
+      </c>
+      <c r="M322">
+        <v>196.52</v>
+      </c>
+      <c r="N322">
+        <v>1</v>
+      </c>
+      <c r="O322" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="323" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A323" t="s">
+        <v>64</v>
+      </c>
+      <c r="B323" t="s">
+        <v>11</v>
+      </c>
+      <c r="C323" t="s">
+        <v>48</v>
+      </c>
+      <c r="D323" t="s">
+        <v>19</v>
+      </c>
+      <c r="E323">
+        <v>212</v>
+      </c>
+      <c r="F323" t="s">
+        <v>20</v>
+      </c>
+      <c r="G323">
+        <v>290</v>
+      </c>
+      <c r="H323">
+        <v>5</v>
+      </c>
+      <c r="I323">
+        <v>2</v>
+      </c>
+      <c r="J323">
+        <v>0</v>
+      </c>
+      <c r="K323" s="2">
+        <v>1.2008564814814813E-3</v>
+      </c>
+      <c r="L323" s="3">
+        <f t="shared" si="8"/>
+        <v>103.75399999999999</v>
+      </c>
+      <c r="M323">
+        <v>196.01</v>
+      </c>
+      <c r="N323">
+        <v>1</v>
+      </c>
+      <c r="O323" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="324" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A324" t="s">
+        <v>64</v>
+      </c>
+      <c r="B324" t="s">
+        <v>11</v>
+      </c>
+      <c r="C324" t="s">
+        <v>48</v>
+      </c>
+      <c r="D324" t="s">
+        <v>43</v>
+      </c>
+      <c r="E324">
+        <v>31</v>
+      </c>
+      <c r="F324" t="s">
+        <v>23</v>
+      </c>
+      <c r="G324">
+        <v>101</v>
+      </c>
+      <c r="H324">
+        <v>2</v>
+      </c>
+      <c r="I324">
+        <v>3</v>
+      </c>
+      <c r="J324">
+        <v>0</v>
+      </c>
+      <c r="K324" s="2">
+        <v>1.2033796296296298E-3</v>
+      </c>
+      <c r="L324" s="3">
+        <f t="shared" si="8"/>
+        <v>103.97200000000001</v>
+      </c>
+      <c r="M324">
+        <v>195.85</v>
+      </c>
+      <c r="N324">
+        <v>1</v>
+      </c>
+      <c r="O324" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="325" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A325" t="s">
+        <v>64</v>
+      </c>
+      <c r="B325" t="s">
+        <v>11</v>
+      </c>
+      <c r="C325" t="s">
+        <v>48</v>
+      </c>
+      <c r="D325" t="s">
+        <v>21</v>
+      </c>
+      <c r="E325">
+        <v>78</v>
+      </c>
+      <c r="F325" t="s">
+        <v>20</v>
+      </c>
+      <c r="G325">
+        <v>290</v>
+      </c>
+      <c r="H325">
+        <v>4</v>
+      </c>
+      <c r="I325">
+        <v>4</v>
+      </c>
+      <c r="J325">
+        <v>0</v>
+      </c>
+      <c r="K325" s="2">
+        <v>1.2047569444444445E-3</v>
+      </c>
+      <c r="L325" s="3">
+        <f t="shared" si="8"/>
+        <v>104.09100000000001</v>
+      </c>
+      <c r="M325">
+        <v>195.761</v>
+      </c>
+      <c r="N325">
+        <v>1</v>
+      </c>
+      <c r="O325" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="326" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A326" t="s">
+        <v>64</v>
+      </c>
+      <c r="B326" t="s">
+        <v>11</v>
+      </c>
+      <c r="C326" t="s">
+        <v>48</v>
+      </c>
+      <c r="D326" t="s">
+        <v>39</v>
+      </c>
+      <c r="E326">
+        <v>30</v>
+      </c>
+      <c r="F326" t="s">
+        <v>35</v>
+      </c>
+      <c r="G326">
+        <v>72</v>
+      </c>
+      <c r="H326">
+        <v>3</v>
+      </c>
+      <c r="I326">
+        <v>5</v>
+      </c>
+      <c r="J326">
+        <v>0</v>
+      </c>
+      <c r="K326" s="2">
+        <v>1.2098495370370371E-3</v>
+      </c>
+      <c r="L326" s="3">
+        <f t="shared" si="8"/>
+        <v>104.53100000000001</v>
+      </c>
+      <c r="M326">
+        <v>195.36</v>
+      </c>
+      <c r="N326">
+        <v>1</v>
+      </c>
+      <c r="O326" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="327" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A327" t="s">
+        <v>64</v>
+      </c>
+      <c r="B327" t="s">
+        <v>11</v>
+      </c>
+      <c r="C327" t="s">
+        <v>48</v>
+      </c>
+      <c r="D327" t="s">
+        <v>34</v>
+      </c>
+      <c r="E327">
+        <v>20</v>
+      </c>
+      <c r="F327" t="s">
+        <v>18</v>
+      </c>
+      <c r="G327">
+        <v>272</v>
+      </c>
+      <c r="H327">
+        <v>6</v>
+      </c>
+      <c r="I327">
+        <v>6</v>
+      </c>
+      <c r="J327">
+        <v>0</v>
+      </c>
+      <c r="K327" s="2">
+        <v>1.2087268518518519E-3</v>
+      </c>
+      <c r="L327" s="3">
+        <f t="shared" si="8"/>
+        <v>104.434</v>
+      </c>
+      <c r="M327">
+        <v>195.34200000000001</v>
+      </c>
+      <c r="N327">
+        <v>1</v>
+      </c>
+      <c r="O327" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="328" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A328" t="s">
+        <v>64</v>
+      </c>
+      <c r="B328" t="s">
+        <v>11</v>
+      </c>
+      <c r="C328" t="s">
+        <v>48</v>
+      </c>
+      <c r="D328" t="s">
+        <v>13</v>
+      </c>
+      <c r="E328">
+        <v>299</v>
+      </c>
+      <c r="F328" t="s">
+        <v>14</v>
+      </c>
+      <c r="G328">
+        <v>623</v>
+      </c>
+      <c r="H328">
+        <v>7</v>
+      </c>
+      <c r="I328">
+        <v>7</v>
+      </c>
+      <c r="J328">
+        <v>0</v>
+      </c>
+      <c r="K328" s="2">
+        <v>1.2054976851851851E-3</v>
+      </c>
+      <c r="L328" s="3">
+        <f t="shared" si="8"/>
+        <v>104.15499999999999</v>
+      </c>
+      <c r="M328">
+        <v>195.328</v>
+      </c>
+      <c r="N328">
+        <v>1</v>
+      </c>
+      <c r="O328" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="329" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A329" t="s">
+        <v>64</v>
+      </c>
+      <c r="B329" t="s">
+        <v>11</v>
+      </c>
+      <c r="C329" t="s">
+        <v>48</v>
+      </c>
+      <c r="D329" t="s">
+        <v>31</v>
+      </c>
+      <c r="E329">
+        <v>121</v>
+      </c>
+      <c r="F329" t="s">
+        <v>29</v>
+      </c>
+      <c r="G329">
+        <v>286</v>
+      </c>
+      <c r="H329">
+        <v>12</v>
+      </c>
+      <c r="I329">
+        <v>8</v>
+      </c>
+      <c r="J329">
+        <v>0</v>
+      </c>
+      <c r="K329" s="2">
+        <v>1.2034375000000001E-3</v>
+      </c>
+      <c r="L329" s="3">
+        <f t="shared" si="8"/>
+        <v>103.977</v>
+      </c>
+      <c r="M329">
+        <v>195.256</v>
+      </c>
+      <c r="N329">
+        <v>1</v>
+      </c>
+      <c r="O329" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="330" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A330" t="s">
+        <v>64</v>
+      </c>
+      <c r="B330" t="s">
+        <v>11</v>
+      </c>
+      <c r="C330" t="s">
+        <v>48</v>
+      </c>
+      <c r="D330" t="s">
+        <v>28</v>
+      </c>
+      <c r="E330">
+        <v>165</v>
+      </c>
+      <c r="F330" t="s">
+        <v>29</v>
+      </c>
+      <c r="G330">
+        <v>286</v>
+      </c>
+      <c r="H330">
+        <v>10</v>
+      </c>
+      <c r="I330">
+        <v>9</v>
+      </c>
+      <c r="J330">
+        <v>0</v>
+      </c>
+      <c r="K330" s="2">
+        <v>1.206875E-3</v>
+      </c>
+      <c r="L330" s="3">
+        <f t="shared" si="8"/>
+        <v>104.274</v>
+      </c>
+      <c r="M330">
+        <v>195.24</v>
+      </c>
+      <c r="N330">
+        <v>1</v>
+      </c>
+      <c r="O330" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="331" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A331" t="s">
+        <v>64</v>
+      </c>
+      <c r="B331" t="s">
+        <v>11</v>
+      </c>
+      <c r="C331" t="s">
+        <v>48</v>
+      </c>
+      <c r="D331" t="s">
+        <v>45</v>
+      </c>
+      <c r="E331">
+        <v>39</v>
+      </c>
+      <c r="F331" t="s">
+        <v>35</v>
+      </c>
+      <c r="G331">
+        <v>72</v>
+      </c>
+      <c r="H331">
+        <v>8</v>
+      </c>
+      <c r="I331">
+        <v>10</v>
+      </c>
+      <c r="J331">
+        <v>0</v>
+      </c>
+      <c r="K331" s="2">
+        <v>1.2023611111111111E-3</v>
+      </c>
+      <c r="L331" s="3">
+        <f t="shared" si="8"/>
+        <v>103.884</v>
+      </c>
+      <c r="M331">
+        <v>195.16300000000001</v>
+      </c>
+      <c r="N331">
+        <v>1</v>
+      </c>
+      <c r="O331" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="332" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A332" t="s">
+        <v>64</v>
+      </c>
+      <c r="B332" t="s">
+        <v>11</v>
+      </c>
+      <c r="C332" t="s">
+        <v>48</v>
+      </c>
+      <c r="D332" t="s">
+        <v>41</v>
+      </c>
+      <c r="E332">
+        <v>18</v>
+      </c>
+      <c r="F332" t="s">
+        <v>27</v>
+      </c>
+      <c r="G332">
+        <v>55</v>
+      </c>
+      <c r="H332">
+        <v>13</v>
+      </c>
+      <c r="I332">
+        <v>11</v>
+      </c>
+      <c r="J332">
+        <v>0</v>
+      </c>
+      <c r="K332" s="2">
+        <v>1.2144675925925927E-3</v>
+      </c>
+      <c r="L332" s="3">
+        <f t="shared" si="8"/>
+        <v>104.93</v>
+      </c>
+      <c r="M332">
+        <v>194.179</v>
+      </c>
+      <c r="N332">
+        <v>1</v>
+      </c>
+      <c r="O332" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="333" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A333" t="s">
+        <v>64</v>
+      </c>
+      <c r="B333" t="s">
+        <v>11</v>
+      </c>
+      <c r="C333" t="s">
+        <v>48</v>
+      </c>
+      <c r="D333" t="s">
+        <v>38</v>
+      </c>
+      <c r="E333">
+        <v>16</v>
+      </c>
+      <c r="F333" t="s">
+        <v>37</v>
+      </c>
+      <c r="G333">
+        <v>44</v>
+      </c>
+      <c r="H333">
+        <v>15</v>
+      </c>
+      <c r="I333">
+        <v>12</v>
+      </c>
+      <c r="J333">
+        <v>0</v>
+      </c>
+      <c r="K333" s="2">
+        <v>1.2070370370370371E-3</v>
+      </c>
+      <c r="L333" s="3">
+        <f t="shared" si="8"/>
+        <v>104.288</v>
+      </c>
+      <c r="M333">
+        <v>194.15600000000001</v>
+      </c>
+      <c r="N333">
+        <v>1</v>
+      </c>
+      <c r="O333" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="334" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A334" t="s">
+        <v>64</v>
+      </c>
+      <c r="B334" t="s">
+        <v>11</v>
+      </c>
+      <c r="C334" t="s">
+        <v>48</v>
+      </c>
+      <c r="D334" t="s">
+        <v>22</v>
+      </c>
+      <c r="E334">
+        <v>70</v>
+      </c>
+      <c r="F334" t="s">
+        <v>23</v>
+      </c>
+      <c r="G334">
+        <v>101</v>
+      </c>
+      <c r="H334">
+        <v>19</v>
+      </c>
+      <c r="I334">
+        <v>13</v>
+      </c>
+      <c r="J334">
+        <v>0</v>
+      </c>
+      <c r="K334" s="2">
+        <v>1.2054629629629629E-3</v>
+      </c>
+      <c r="L334" s="3">
+        <f t="shared" si="8"/>
+        <v>104.15199999999999</v>
+      </c>
+      <c r="M334">
+        <v>193.19900000000001</v>
+      </c>
+      <c r="N334">
+        <v>2</v>
+      </c>
+      <c r="O334" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="335" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A335" t="s">
+        <v>64</v>
+      </c>
+      <c r="B335" t="s">
+        <v>11</v>
+      </c>
+      <c r="C335" t="s">
+        <v>48</v>
+      </c>
+      <c r="D335" t="s">
+        <v>36</v>
+      </c>
+      <c r="E335">
+        <v>28</v>
+      </c>
+      <c r="F335" t="s">
+        <v>37</v>
+      </c>
+      <c r="G335">
+        <v>44</v>
+      </c>
+      <c r="H335">
+        <v>20</v>
+      </c>
+      <c r="I335">
+        <v>14</v>
+      </c>
+      <c r="J335">
+        <v>0</v>
+      </c>
+      <c r="K335" s="2">
+        <v>1.2197685185185187E-3</v>
+      </c>
+      <c r="L335" s="3">
+        <f t="shared" si="8"/>
+        <v>105.38800000000002</v>
+      </c>
+      <c r="M335">
+        <v>193.83799999999999</v>
+      </c>
+      <c r="N335">
+        <v>2</v>
+      </c>
+      <c r="O335" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="336" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A336" t="s">
+        <v>64</v>
+      </c>
+      <c r="B336" t="s">
+        <v>11</v>
+      </c>
+      <c r="C336" t="s">
+        <v>48</v>
+      </c>
+      <c r="D336" t="s">
+        <v>42</v>
+      </c>
+      <c r="E336">
+        <v>30</v>
+      </c>
+      <c r="F336" t="s">
+        <v>25</v>
+      </c>
+      <c r="G336">
+        <v>62</v>
+      </c>
+      <c r="H336">
+        <v>11</v>
+      </c>
+      <c r="I336">
+        <v>15</v>
+      </c>
+      <c r="J336">
+        <v>0</v>
+      </c>
+      <c r="K336" s="2">
+        <v>1.2153009259259261E-3</v>
+      </c>
+      <c r="L336" s="3">
+        <f t="shared" si="8"/>
+        <v>105.00200000000001</v>
+      </c>
+      <c r="M336">
+        <v>193.8</v>
+      </c>
+      <c r="N336">
+        <v>1</v>
+      </c>
+      <c r="O336" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="337" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A337" t="s">
+        <v>64</v>
+      </c>
+      <c r="B337" t="s">
+        <v>11</v>
+      </c>
+      <c r="C337" t="s">
+        <v>48</v>
+      </c>
+      <c r="D337" t="s">
+        <v>26</v>
+      </c>
+      <c r="E337">
+        <v>37</v>
+      </c>
+      <c r="F337" t="s">
+        <v>27</v>
+      </c>
+      <c r="G337">
+        <v>55</v>
+      </c>
+      <c r="H337">
+        <v>17</v>
+      </c>
+      <c r="I337">
+        <v>16</v>
+      </c>
+      <c r="J337">
+        <v>0</v>
+      </c>
+      <c r="K337" s="2">
+        <v>1.2079861111111111E-3</v>
+      </c>
+      <c r="L337" s="3">
+        <f t="shared" si="8"/>
+        <v>104.36999999999999</v>
+      </c>
+      <c r="M337">
+        <v>193.74799999999999</v>
+      </c>
+      <c r="N337">
+        <v>1</v>
+      </c>
+      <c r="O337" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="338" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A338" t="s">
+        <v>64</v>
+      </c>
+      <c r="B338" t="s">
+        <v>11</v>
+      </c>
+      <c r="C338" t="s">
+        <v>48</v>
+      </c>
+      <c r="D338" t="s">
+        <v>24</v>
+      </c>
+      <c r="E338">
+        <v>32</v>
+      </c>
+      <c r="F338" t="s">
+        <v>25</v>
+      </c>
+      <c r="G338">
+        <v>62</v>
+      </c>
+      <c r="H338">
+        <v>14</v>
+      </c>
+      <c r="I338">
+        <v>17</v>
+      </c>
+      <c r="J338">
+        <v>0</v>
+      </c>
+      <c r="K338" s="2">
+        <v>1.216238425925926E-3</v>
+      </c>
+      <c r="L338" s="3">
+        <f t="shared" si="8"/>
+        <v>105.083</v>
+      </c>
+      <c r="M338">
+        <v>193.19900000000001</v>
+      </c>
+      <c r="N338">
+        <v>1</v>
+      </c>
+      <c r="O338" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="339" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A339" t="s">
+        <v>64</v>
+      </c>
+      <c r="B339" t="s">
+        <v>11</v>
+      </c>
+      <c r="C339" t="s">
+        <v>48</v>
+      </c>
+      <c r="D339" t="s">
+        <v>32</v>
+      </c>
+      <c r="E339">
+        <v>20</v>
+      </c>
+      <c r="F339" t="s">
+        <v>33</v>
+      </c>
+      <c r="G339">
+        <v>20</v>
+      </c>
+      <c r="H339">
+        <v>18</v>
+      </c>
+      <c r="I339">
+        <v>18</v>
+      </c>
+      <c r="J339">
+        <v>0</v>
+      </c>
+      <c r="K339" s="2">
+        <v>1.220972222222222E-3</v>
+      </c>
+      <c r="L339" s="3">
+        <f t="shared" si="8"/>
+        <v>105.49199999999999</v>
+      </c>
+      <c r="M339">
+        <v>192.53299999999999</v>
+      </c>
+      <c r="N339">
+        <v>1</v>
+      </c>
+      <c r="O339" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="340" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A340" t="s">
+        <v>64</v>
+      </c>
+      <c r="B340" t="s">
+        <v>11</v>
+      </c>
+      <c r="C340" t="s">
+        <v>48</v>
+      </c>
+      <c r="D340" t="s">
+        <v>81</v>
+      </c>
+      <c r="E340">
+        <v>0</v>
+      </c>
+      <c r="F340" t="s">
+        <v>33</v>
+      </c>
+      <c r="G340">
+        <v>20</v>
+      </c>
+      <c r="H340">
+        <v>16</v>
+      </c>
+      <c r="I340">
+        <v>19</v>
+      </c>
+      <c r="J340">
+        <v>0</v>
+      </c>
+      <c r="K340" s="2">
+        <v>1.2274884259259259E-3</v>
+      </c>
+      <c r="L340" s="3">
+        <f t="shared" si="8"/>
+        <v>106.05500000000001</v>
+      </c>
+      <c r="M340">
+        <v>192.44900000000001</v>
+      </c>
+      <c r="N340">
+        <v>1</v>
+      </c>
+      <c r="O340" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="341" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A341" t="s">
+        <v>64</v>
+      </c>
+      <c r="B341" t="s">
+        <v>11</v>
+      </c>
+      <c r="C341" t="s">
+        <v>48</v>
+      </c>
+      <c r="D341" t="s">
+        <v>30</v>
+      </c>
+      <c r="E341">
+        <v>324</v>
+      </c>
+      <c r="F341" t="s">
+        <v>14</v>
+      </c>
+      <c r="G341">
+        <v>623</v>
+      </c>
+      <c r="H341">
+        <v>9</v>
+      </c>
+      <c r="I341">
+        <v>20</v>
+      </c>
+      <c r="J341">
+        <v>0</v>
+      </c>
+      <c r="K341" s="2"/>
+      <c r="L341" s="3"/>
+      <c r="O341" t="s">
         <v>40</v>
       </c>
     </row>

--- a/F1.xlsx
+++ b/F1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\vs\f1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEB35577-7C2F-4EAE-B143-C51772BFE210}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D72DD202-3E96-4CEF-B3BE-8D66569927FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00798B61-A4AB-4634-A493-7936C2BE7462}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2404" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2524" uniqueCount="83">
   <si>
     <t>Race_Name</t>
   </si>
@@ -652,11 +652,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36F0DB36-4229-4BFD-868F-09E812C5EFF8}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:S341"/>
+  <dimension ref="A1:S361"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A320" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O323" sqref="O323"/>
+      <pane ySplit="1" topLeftCell="A342" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O343" sqref="O343"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -15980,7 +15980,7 @@
         <v>1.1966203703703705E-3</v>
       </c>
       <c r="L322" s="3">
-        <f t="shared" ref="L321:L341" si="8">(K322 - INT(K322/1))*86400</f>
+        <f t="shared" ref="L322:L340" si="8">(K322 - INT(K322/1))*86400</f>
         <v>103.38800000000001</v>
       </c>
       <c r="M322">
@@ -16892,6 +16892,966 @@
       <c r="L341" s="3"/>
       <c r="O341" t="s">
         <v>40</v>
+      </c>
+    </row>
+    <row r="342" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A342" t="s">
+        <v>65</v>
+      </c>
+      <c r="B342" t="s">
+        <v>11</v>
+      </c>
+      <c r="C342" t="s">
+        <v>48</v>
+      </c>
+      <c r="D342" t="s">
+        <v>19</v>
+      </c>
+      <c r="E342">
+        <v>237</v>
+      </c>
+      <c r="F342" t="s">
+        <v>20</v>
+      </c>
+      <c r="G342">
+        <v>290</v>
+      </c>
+      <c r="H342">
+        <v>1</v>
+      </c>
+      <c r="I342">
+        <v>1</v>
+      </c>
+      <c r="J342">
+        <v>1</v>
+      </c>
+      <c r="K342" s="2">
+        <v>1.107361111111111E-3</v>
+      </c>
+      <c r="L342" s="3">
+        <f t="shared" ref="L341:L361" si="9">(K342 - INT(K342/1))*86400</f>
+        <v>95.675999999999988</v>
+      </c>
+      <c r="M342">
+        <v>182.52099999999999</v>
+      </c>
+      <c r="N342">
+        <v>1</v>
+      </c>
+      <c r="O342" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="343" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A343" t="s">
+        <v>65</v>
+      </c>
+      <c r="B343" t="s">
+        <v>11</v>
+      </c>
+      <c r="C343" t="s">
+        <v>48</v>
+      </c>
+      <c r="D343" t="s">
+        <v>17</v>
+      </c>
+      <c r="E343">
+        <v>273</v>
+      </c>
+      <c r="F343" t="s">
+        <v>18</v>
+      </c>
+      <c r="G343">
+        <v>272</v>
+      </c>
+      <c r="H343">
+        <v>2</v>
+      </c>
+      <c r="I343">
+        <v>2</v>
+      </c>
+      <c r="J343">
+        <v>0</v>
+      </c>
+      <c r="K343" s="2">
+        <v>1.1070486111111112E-3</v>
+      </c>
+      <c r="L343" s="3">
+        <f t="shared" si="9"/>
+        <v>95.649000000000001</v>
+      </c>
+      <c r="M343">
+        <v>182.357</v>
+      </c>
+      <c r="N343">
+        <v>1</v>
+      </c>
+      <c r="O343" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="344" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A344" t="s">
+        <v>65</v>
+      </c>
+      <c r="B344" t="s">
+        <v>11</v>
+      </c>
+      <c r="C344" t="s">
+        <v>48</v>
+      </c>
+      <c r="D344" t="s">
+        <v>13</v>
+      </c>
+      <c r="E344">
+        <v>314</v>
+      </c>
+      <c r="F344" t="s">
+        <v>14</v>
+      </c>
+      <c r="G344">
+        <v>623</v>
+      </c>
+      <c r="H344">
+        <v>5</v>
+      </c>
+      <c r="I344">
+        <v>3</v>
+      </c>
+      <c r="J344">
+        <v>0</v>
+      </c>
+      <c r="K344" s="2">
+        <v>1.1059606481481482E-3</v>
+      </c>
+      <c r="L344" s="3">
+        <f t="shared" si="9"/>
+        <v>95.555000000000007</v>
+      </c>
+      <c r="M344">
+        <v>182.33799999999999</v>
+      </c>
+      <c r="N344">
+        <v>1</v>
+      </c>
+      <c r="O344" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="345" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A345" t="s">
+        <v>65</v>
+      </c>
+      <c r="B345" t="s">
+        <v>11</v>
+      </c>
+      <c r="C345" t="s">
+        <v>48</v>
+      </c>
+      <c r="D345" t="s">
+        <v>30</v>
+      </c>
+      <c r="E345">
+        <v>336</v>
+      </c>
+      <c r="F345" t="s">
+        <v>14</v>
+      </c>
+      <c r="G345">
+        <v>623</v>
+      </c>
+      <c r="H345">
+        <v>3</v>
+      </c>
+      <c r="I345">
+        <v>4</v>
+      </c>
+      <c r="J345">
+        <v>0</v>
+      </c>
+      <c r="K345" s="2">
+        <v>1.1042592592592593E-3</v>
+      </c>
+      <c r="L345" s="3">
+        <f t="shared" si="9"/>
+        <v>95.408000000000001</v>
+      </c>
+      <c r="M345">
+        <v>182.27500000000001</v>
+      </c>
+      <c r="N345">
+        <v>1</v>
+      </c>
+      <c r="O345" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="346" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A346" t="s">
+        <v>65</v>
+      </c>
+      <c r="B346" t="s">
+        <v>11</v>
+      </c>
+      <c r="C346" t="s">
+        <v>48</v>
+      </c>
+      <c r="D346" t="s">
+        <v>21</v>
+      </c>
+      <c r="E346">
+        <v>88</v>
+      </c>
+      <c r="F346" t="s">
+        <v>20</v>
+      </c>
+      <c r="G346">
+        <v>290</v>
+      </c>
+      <c r="H346">
+        <v>4</v>
+      </c>
+      <c r="I346">
+        <v>5</v>
+      </c>
+      <c r="J346">
+        <v>0</v>
+      </c>
+      <c r="K346" s="2">
+        <v>1.1030439814814815E-3</v>
+      </c>
+      <c r="L346" s="3">
+        <f t="shared" si="9"/>
+        <v>95.303000000000011</v>
+      </c>
+      <c r="M346">
+        <v>181.506</v>
+      </c>
+      <c r="N346">
+        <v>1</v>
+      </c>
+      <c r="O346" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="347" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A347" t="s">
+        <v>65</v>
+      </c>
+      <c r="B347" t="s">
+        <v>11</v>
+      </c>
+      <c r="C347" t="s">
+        <v>48</v>
+      </c>
+      <c r="D347" t="s">
+        <v>28</v>
+      </c>
+      <c r="E347">
+        <v>173</v>
+      </c>
+      <c r="F347" t="s">
+        <v>29</v>
+      </c>
+      <c r="G347">
+        <v>286</v>
+      </c>
+      <c r="H347">
+        <v>7</v>
+      </c>
+      <c r="I347">
+        <v>6</v>
+      </c>
+      <c r="J347">
+        <v>0</v>
+      </c>
+      <c r="K347" s="2">
+        <v>1.1109143518518519E-3</v>
+      </c>
+      <c r="L347" s="3">
+        <f t="shared" si="9"/>
+        <v>95.983000000000004</v>
+      </c>
+      <c r="M347">
+        <v>181.13800000000001</v>
+      </c>
+      <c r="N347">
+        <v>1</v>
+      </c>
+      <c r="O347" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="348" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A348" t="s">
+        <v>65</v>
+      </c>
+      <c r="B348" t="s">
+        <v>11</v>
+      </c>
+      <c r="C348" t="s">
+        <v>48</v>
+      </c>
+      <c r="D348" t="s">
+        <v>42</v>
+      </c>
+      <c r="E348">
+        <v>36</v>
+      </c>
+      <c r="F348" t="s">
+        <v>25</v>
+      </c>
+      <c r="G348">
+        <v>62</v>
+      </c>
+      <c r="H348">
+        <v>10</v>
+      </c>
+      <c r="I348">
+        <v>7</v>
+      </c>
+      <c r="J348">
+        <v>0</v>
+      </c>
+      <c r="K348" s="2">
+        <v>1.1095138888888888E-3</v>
+      </c>
+      <c r="L348" s="3">
+        <f t="shared" si="9"/>
+        <v>95.861999999999995</v>
+      </c>
+      <c r="M348">
+        <v>180.10900000000001</v>
+      </c>
+      <c r="N348">
+        <v>1</v>
+      </c>
+      <c r="O348" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="349" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A349" t="s">
+        <v>65</v>
+      </c>
+      <c r="B349" t="s">
+        <v>11</v>
+      </c>
+      <c r="C349" t="s">
+        <v>48</v>
+      </c>
+      <c r="D349" t="s">
+        <v>31</v>
+      </c>
+      <c r="E349">
+        <v>125</v>
+      </c>
+      <c r="F349" t="s">
+        <v>29</v>
+      </c>
+      <c r="G349">
+        <v>286</v>
+      </c>
+      <c r="H349">
+        <v>6</v>
+      </c>
+      <c r="I349">
+        <v>8</v>
+      </c>
+      <c r="J349">
+        <v>0</v>
+      </c>
+      <c r="K349" s="2">
+        <v>1.0857407407407406E-3</v>
+      </c>
+      <c r="L349" s="3">
+        <f t="shared" si="9"/>
+        <v>93.807999999999993</v>
+      </c>
+      <c r="M349">
+        <v>179.97399999999999</v>
+      </c>
+      <c r="N349">
+        <v>2</v>
+      </c>
+      <c r="O349" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="350" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A350" t="s">
+        <v>65</v>
+      </c>
+      <c r="B350" t="s">
+        <v>11</v>
+      </c>
+      <c r="C350" t="s">
+        <v>48</v>
+      </c>
+      <c r="D350" t="s">
+        <v>38</v>
+      </c>
+      <c r="E350">
+        <v>18</v>
+      </c>
+      <c r="F350" t="s">
+        <v>37</v>
+      </c>
+      <c r="G350">
+        <v>44</v>
+      </c>
+      <c r="H350">
+        <v>9</v>
+      </c>
+      <c r="I350">
+        <v>9</v>
+      </c>
+      <c r="J350">
+        <v>0</v>
+      </c>
+      <c r="K350" s="2">
+        <v>1.1134374999999998E-3</v>
+      </c>
+      <c r="L350" s="3">
+        <f t="shared" si="9"/>
+        <v>96.200999999999993</v>
+      </c>
+      <c r="M350">
+        <v>179.73</v>
+      </c>
+      <c r="N350">
+        <v>1</v>
+      </c>
+      <c r="O350" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="351" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A351" t="s">
+        <v>65</v>
+      </c>
+      <c r="B351" t="s">
+        <v>11</v>
+      </c>
+      <c r="C351" t="s">
+        <v>48</v>
+      </c>
+      <c r="D351" t="s">
+        <v>43</v>
+      </c>
+      <c r="E351">
+        <v>32</v>
+      </c>
+      <c r="F351" t="s">
+        <v>23</v>
+      </c>
+      <c r="G351">
+        <v>101</v>
+      </c>
+      <c r="H351">
+        <v>20</v>
+      </c>
+      <c r="I351">
+        <v>10</v>
+      </c>
+      <c r="J351">
+        <v>0</v>
+      </c>
+      <c r="K351" s="2">
+        <v>1.0991087962962962E-3</v>
+      </c>
+      <c r="L351" s="3">
+        <f t="shared" si="9"/>
+        <v>94.962999999999994</v>
+      </c>
+      <c r="M351">
+        <v>179.256</v>
+      </c>
+      <c r="N351">
+        <v>1</v>
+      </c>
+      <c r="O351" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="352" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A352" t="s">
+        <v>65</v>
+      </c>
+      <c r="B352" t="s">
+        <v>11</v>
+      </c>
+      <c r="C352" t="s">
+        <v>48</v>
+      </c>
+      <c r="D352" t="s">
+        <v>45</v>
+      </c>
+      <c r="E352">
+        <v>39</v>
+      </c>
+      <c r="F352" t="s">
+        <v>35</v>
+      </c>
+      <c r="G352">
+        <v>72</v>
+      </c>
+      <c r="H352">
+        <v>8</v>
+      </c>
+      <c r="I352">
+        <v>11</v>
+      </c>
+      <c r="J352">
+        <v>0</v>
+      </c>
+      <c r="K352" s="2">
+        <v>1.1219675925925926E-3</v>
+      </c>
+      <c r="L352" s="3">
+        <f t="shared" si="9"/>
+        <v>96.938000000000002</v>
+      </c>
+      <c r="M352">
+        <v>179.06100000000001</v>
+      </c>
+      <c r="N352">
+        <v>1</v>
+      </c>
+      <c r="O352" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="353" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A353" t="s">
+        <v>65</v>
+      </c>
+      <c r="B353" t="s">
+        <v>11</v>
+      </c>
+      <c r="C353" t="s">
+        <v>48</v>
+      </c>
+      <c r="D353" t="s">
+        <v>34</v>
+      </c>
+      <c r="E353">
+        <v>20</v>
+      </c>
+      <c r="F353" t="s">
+        <v>18</v>
+      </c>
+      <c r="G353">
+        <v>272</v>
+      </c>
+      <c r="H353">
+        <v>13</v>
+      </c>
+      <c r="I353">
+        <v>12</v>
+      </c>
+      <c r="J353">
+        <v>0</v>
+      </c>
+      <c r="K353" s="2">
+        <v>1.1207291666666668E-3</v>
+      </c>
+      <c r="L353" s="3">
+        <f t="shared" si="9"/>
+        <v>96.831000000000017</v>
+      </c>
+      <c r="M353">
+        <v>179.00299999999999</v>
+      </c>
+      <c r="N353">
+        <v>1</v>
+      </c>
+      <c r="O353" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="354" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A354" t="s">
+        <v>65</v>
+      </c>
+      <c r="B354" t="s">
+        <v>11</v>
+      </c>
+      <c r="C354" t="s">
+        <v>48</v>
+      </c>
+      <c r="D354" t="s">
+        <v>24</v>
+      </c>
+      <c r="E354">
+        <v>32</v>
+      </c>
+      <c r="F354" t="s">
+        <v>25</v>
+      </c>
+      <c r="G354">
+        <v>62</v>
+      </c>
+      <c r="H354">
+        <v>15</v>
+      </c>
+      <c r="I354">
+        <v>13</v>
+      </c>
+      <c r="J354">
+        <v>0</v>
+      </c>
+      <c r="K354" s="2">
+        <v>1.1093865740740741E-3</v>
+      </c>
+      <c r="L354" s="3">
+        <f t="shared" si="9"/>
+        <v>95.850999999999999</v>
+      </c>
+      <c r="M354">
+        <v>178.84899999999999</v>
+      </c>
+      <c r="N354">
+        <v>1</v>
+      </c>
+      <c r="O354" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="355" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A355" t="s">
+        <v>65</v>
+      </c>
+      <c r="B355" t="s">
+        <v>11</v>
+      </c>
+      <c r="C355" t="s">
+        <v>48</v>
+      </c>
+      <c r="D355" t="s">
+        <v>22</v>
+      </c>
+      <c r="E355">
+        <v>70</v>
+      </c>
+      <c r="F355" t="s">
+        <v>23</v>
+      </c>
+      <c r="G355">
+        <v>101</v>
+      </c>
+      <c r="H355">
+        <v>19</v>
+      </c>
+      <c r="I355">
+        <v>14</v>
+      </c>
+      <c r="J355">
+        <v>0</v>
+      </c>
+      <c r="K355" s="2">
+        <v>1.107037037037037E-3</v>
+      </c>
+      <c r="L355" s="3">
+        <f t="shared" si="9"/>
+        <v>95.647999999999996</v>
+      </c>
+      <c r="M355">
+        <v>178.82400000000001</v>
+      </c>
+      <c r="N355">
+        <v>1</v>
+      </c>
+      <c r="O355" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="356" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A356" t="s">
+        <v>65</v>
+      </c>
+      <c r="B356" t="s">
+        <v>11</v>
+      </c>
+      <c r="C356" t="s">
+        <v>48</v>
+      </c>
+      <c r="D356" t="s">
+        <v>39</v>
+      </c>
+      <c r="E356">
+        <v>30</v>
+      </c>
+      <c r="F356" t="s">
+        <v>35</v>
+      </c>
+      <c r="G356">
+        <v>72</v>
+      </c>
+      <c r="H356">
+        <v>12</v>
+      </c>
+      <c r="I356">
+        <v>15</v>
+      </c>
+      <c r="J356">
+        <v>0</v>
+      </c>
+      <c r="K356" s="2">
+        <v>1.1069560185185184E-3</v>
+      </c>
+      <c r="L356" s="3">
+        <f t="shared" si="9"/>
+        <v>95.640999999999991</v>
+      </c>
+      <c r="M356">
+        <v>178.77</v>
+      </c>
+      <c r="N356">
+        <v>1</v>
+      </c>
+      <c r="O356" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="357" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A357" t="s">
+        <v>65</v>
+      </c>
+      <c r="B357" t="s">
+        <v>11</v>
+      </c>
+      <c r="C357" t="s">
+        <v>48</v>
+      </c>
+      <c r="D357" t="s">
+        <v>81</v>
+      </c>
+      <c r="E357">
+        <v>0</v>
+      </c>
+      <c r="F357" t="s">
+        <v>33</v>
+      </c>
+      <c r="G357">
+        <v>20</v>
+      </c>
+      <c r="H357">
+        <v>16</v>
+      </c>
+      <c r="I357">
+        <v>16</v>
+      </c>
+      <c r="J357">
+        <v>0</v>
+      </c>
+      <c r="K357" s="2">
+        <v>1.1247916666666667E-3</v>
+      </c>
+      <c r="L357" s="3">
+        <f t="shared" si="9"/>
+        <v>97.182000000000002</v>
+      </c>
+      <c r="M357">
+        <v>178.30600000000001</v>
+      </c>
+      <c r="N357">
+        <v>1</v>
+      </c>
+      <c r="O357" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="358" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A358" t="s">
+        <v>65</v>
+      </c>
+      <c r="B358" t="s">
+        <v>11</v>
+      </c>
+      <c r="C358" t="s">
+        <v>48</v>
+      </c>
+      <c r="D358" t="s">
+        <v>41</v>
+      </c>
+      <c r="E358">
+        <v>18</v>
+      </c>
+      <c r="F358" t="s">
+        <v>27</v>
+      </c>
+      <c r="G358">
+        <v>55</v>
+      </c>
+      <c r="H358">
+        <v>14</v>
+      </c>
+      <c r="I358">
+        <v>17</v>
+      </c>
+      <c r="J358">
+        <v>0</v>
+      </c>
+      <c r="K358" s="2">
+        <v>1.1241435185185187E-3</v>
+      </c>
+      <c r="L358" s="3">
+        <f t="shared" si="9"/>
+        <v>97.126000000000019</v>
+      </c>
+      <c r="M358">
+        <v>178.19300000000001</v>
+      </c>
+      <c r="N358">
+        <v>1</v>
+      </c>
+      <c r="O358" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="359" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A359" t="s">
+        <v>65</v>
+      </c>
+      <c r="B359" t="s">
+        <v>11</v>
+      </c>
+      <c r="C359" t="s">
+        <v>48</v>
+      </c>
+      <c r="D359" t="s">
+        <v>36</v>
+      </c>
+      <c r="E359">
+        <v>28</v>
+      </c>
+      <c r="F359" t="s">
+        <v>37</v>
+      </c>
+      <c r="G359">
+        <v>44</v>
+      </c>
+      <c r="H359">
+        <v>17</v>
+      </c>
+      <c r="I359">
+        <v>18</v>
+      </c>
+      <c r="J359">
+        <v>0</v>
+      </c>
+      <c r="K359" s="2">
+        <v>1.1185879629629629E-3</v>
+      </c>
+      <c r="L359" s="3">
+        <f t="shared" si="9"/>
+        <v>96.646000000000001</v>
+      </c>
+      <c r="M359">
+        <v>178.18199999999999</v>
+      </c>
+      <c r="N359">
+        <v>1</v>
+      </c>
+      <c r="O359" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="360" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A360" t="s">
+        <v>65</v>
+      </c>
+      <c r="B360" t="s">
+        <v>11</v>
+      </c>
+      <c r="C360" t="s">
+        <v>48</v>
+      </c>
+      <c r="D360" t="s">
+        <v>32</v>
+      </c>
+      <c r="E360">
+        <v>20</v>
+      </c>
+      <c r="F360" t="s">
+        <v>33</v>
+      </c>
+      <c r="G360">
+        <v>20</v>
+      </c>
+      <c r="H360">
+        <v>18</v>
+      </c>
+      <c r="I360">
+        <v>19</v>
+      </c>
+      <c r="J360">
+        <v>0</v>
+      </c>
+      <c r="K360" s="2">
+        <v>1.0945949074074074E-3</v>
+      </c>
+      <c r="L360" s="3">
+        <f t="shared" si="9"/>
+        <v>94.572999999999993</v>
+      </c>
+      <c r="M360">
+        <v>178.172</v>
+      </c>
+      <c r="N360">
+        <v>2</v>
+      </c>
+      <c r="O360" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="361" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A361" t="s">
+        <v>65</v>
+      </c>
+      <c r="B361" t="s">
+        <v>11</v>
+      </c>
+      <c r="C361" t="s">
+        <v>48</v>
+      </c>
+      <c r="D361" t="s">
+        <v>26</v>
+      </c>
+      <c r="E361">
+        <v>37</v>
+      </c>
+      <c r="F361" t="s">
+        <v>27</v>
+      </c>
+      <c r="G361">
+        <v>55</v>
+      </c>
+      <c r="H361">
+        <v>11</v>
+      </c>
+      <c r="I361">
+        <v>20</v>
+      </c>
+      <c r="J361">
+        <v>0</v>
+      </c>
+      <c r="K361" s="2">
+        <v>1.1042129629629629E-3</v>
+      </c>
+      <c r="L361" s="3">
+        <f t="shared" si="9"/>
+        <v>95.403999999999996</v>
+      </c>
+      <c r="M361">
+        <v>178.126</v>
+      </c>
+      <c r="N361">
+        <v>2</v>
+      </c>
+      <c r="O361" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/F1.xlsx
+++ b/F1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\vs\f1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D72DD202-3E96-4CEF-B3BE-8D66569927FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58654249-54EB-42A6-BC07-BE2A430C6F6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00798B61-A4AB-4634-A493-7936C2BE7462}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2524" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2644" uniqueCount="84">
   <si>
     <t>Race_Name</t>
   </si>
@@ -284,6 +284,9 @@
   </si>
   <si>
     <t>Monza</t>
+  </si>
+  <si>
+    <t>US</t>
   </si>
 </sst>
 </file>
@@ -652,11 +655,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36F0DB36-4229-4BFD-868F-09E812C5EFF8}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:S361"/>
+  <dimension ref="A1:S381"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A342" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O343" sqref="O343"/>
+      <pane ySplit="1" topLeftCell="A362" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="P381" sqref="P381"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -16929,7 +16932,7 @@
         <v>1.107361111111111E-3</v>
       </c>
       <c r="L342" s="3">
-        <f t="shared" ref="L341:L361" si="9">(K342 - INT(K342/1))*86400</f>
+        <f t="shared" ref="L342:L361" si="9">(K342 - INT(K342/1))*86400</f>
         <v>95.675999999999988</v>
       </c>
       <c r="M342">
@@ -17852,6 +17855,966 @@
       </c>
       <c r="O361" t="s">
         <v>16</v>
+      </c>
+    </row>
+    <row r="362" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A362" t="s">
+        <v>83</v>
+      </c>
+      <c r="B362" t="s">
+        <v>47</v>
+      </c>
+      <c r="C362" t="s">
+        <v>48</v>
+      </c>
+      <c r="D362" t="s">
+        <v>17</v>
+      </c>
+      <c r="E362">
+        <v>306</v>
+      </c>
+      <c r="F362" t="s">
+        <v>18</v>
+      </c>
+      <c r="G362">
+        <v>300</v>
+      </c>
+      <c r="H362">
+        <v>1</v>
+      </c>
+      <c r="I362">
+        <v>1</v>
+      </c>
+      <c r="J362">
+        <v>1</v>
+      </c>
+      <c r="K362" s="2">
+        <v>1.1341550925925926E-3</v>
+      </c>
+      <c r="L362" s="3">
+        <f t="shared" ref="L362:L381" si="10">(K362 - INT(K362/1))*86400</f>
+        <v>97.991</v>
+      </c>
+      <c r="M362">
+        <v>202.536</v>
+      </c>
+      <c r="N362">
+        <v>1</v>
+      </c>
+      <c r="O362" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="363" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A363" t="s">
+        <v>83</v>
+      </c>
+      <c r="B363" t="s">
+        <v>47</v>
+      </c>
+      <c r="C363" t="s">
+        <v>48</v>
+      </c>
+      <c r="D363" t="s">
+        <v>13</v>
+      </c>
+      <c r="E363">
+        <v>332</v>
+      </c>
+      <c r="F363" t="s">
+        <v>14</v>
+      </c>
+      <c r="G363">
+        <v>650</v>
+      </c>
+      <c r="H363">
+        <v>2</v>
+      </c>
+      <c r="I363">
+        <v>2</v>
+      </c>
+      <c r="J363">
+        <v>0</v>
+      </c>
+      <c r="K363" s="2">
+        <v>1.1298611111111112E-3</v>
+      </c>
+      <c r="L363" s="3">
+        <f t="shared" si="10"/>
+        <v>97.62</v>
+      </c>
+      <c r="M363">
+        <v>203.30600000000001</v>
+      </c>
+      <c r="N363">
+        <v>1</v>
+      </c>
+      <c r="O363" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="364" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A364" t="s">
+        <v>83</v>
+      </c>
+      <c r="B364" t="s">
+        <v>47</v>
+      </c>
+      <c r="C364" t="s">
+        <v>48</v>
+      </c>
+      <c r="D364" t="s">
+        <v>28</v>
+      </c>
+      <c r="E364">
+        <v>192</v>
+      </c>
+      <c r="F364" t="s">
+        <v>29</v>
+      </c>
+      <c r="G364">
+        <v>307</v>
+      </c>
+      <c r="H364">
+        <v>3</v>
+      </c>
+      <c r="I364">
+        <v>3</v>
+      </c>
+      <c r="J364">
+        <v>0</v>
+      </c>
+      <c r="K364" s="2">
+        <v>1.1369328703703704E-3</v>
+      </c>
+      <c r="L364" s="3">
+        <f t="shared" si="10"/>
+        <v>98.231000000000009</v>
+      </c>
+      <c r="M364">
+        <v>202.042</v>
+      </c>
+      <c r="N364">
+        <v>1</v>
+      </c>
+      <c r="O364" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="365" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A365" t="s">
+        <v>83</v>
+      </c>
+      <c r="B365" t="s">
+        <v>47</v>
+      </c>
+      <c r="C365" t="s">
+        <v>48</v>
+      </c>
+      <c r="D365" t="s">
+        <v>31</v>
+      </c>
+      <c r="E365">
+        <v>142</v>
+      </c>
+      <c r="F365" t="s">
+        <v>29</v>
+      </c>
+      <c r="G365">
+        <v>307</v>
+      </c>
+      <c r="H365">
+        <v>5</v>
+      </c>
+      <c r="I365">
+        <v>4</v>
+      </c>
+      <c r="J365">
+        <v>0</v>
+      </c>
+      <c r="K365" s="2">
+        <v>1.1384374999999999E-3</v>
+      </c>
+      <c r="L365" s="3">
+        <f t="shared" si="10"/>
+        <v>98.36099999999999</v>
+      </c>
+      <c r="M365">
+        <v>201.77500000000001</v>
+      </c>
+      <c r="N365">
+        <v>1</v>
+      </c>
+      <c r="O365" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="366" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A366" t="s">
+        <v>83</v>
+      </c>
+      <c r="B366" t="s">
+        <v>47</v>
+      </c>
+      <c r="C366" t="s">
+        <v>48</v>
+      </c>
+      <c r="D366" t="s">
+        <v>30</v>
+      </c>
+      <c r="E366">
+        <v>346</v>
+      </c>
+      <c r="F366" t="s">
+        <v>14</v>
+      </c>
+      <c r="G366">
+        <v>650</v>
+      </c>
+      <c r="H366">
+        <v>6</v>
+      </c>
+      <c r="I366">
+        <v>5</v>
+      </c>
+      <c r="J366">
+        <v>0</v>
+      </c>
+      <c r="K366" s="2">
+        <v>1.1407870370370369E-3</v>
+      </c>
+      <c r="L366" s="3">
+        <f t="shared" si="10"/>
+        <v>98.563999999999993</v>
+      </c>
+      <c r="M366">
+        <v>201.35900000000001</v>
+      </c>
+      <c r="N366">
+        <v>1</v>
+      </c>
+      <c r="O366" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="367" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A367" t="s">
+        <v>83</v>
+      </c>
+      <c r="B367" t="s">
+        <v>47</v>
+      </c>
+      <c r="C367" t="s">
+        <v>48</v>
+      </c>
+      <c r="D367" t="s">
+        <v>19</v>
+      </c>
+      <c r="E367">
+        <v>252</v>
+      </c>
+      <c r="F367" t="s">
+        <v>20</v>
+      </c>
+      <c r="G367">
+        <v>333</v>
+      </c>
+      <c r="H367">
+        <v>4</v>
+      </c>
+      <c r="I367">
+        <v>6</v>
+      </c>
+      <c r="J367">
+        <v>0</v>
+      </c>
+      <c r="K367" s="2">
+        <v>1.1368518518518518E-3</v>
+      </c>
+      <c r="L367" s="3">
+        <f t="shared" si="10"/>
+        <v>98.22399999999999</v>
+      </c>
+      <c r="M367">
+        <v>202.05600000000001</v>
+      </c>
+      <c r="N367">
+        <v>1</v>
+      </c>
+      <c r="O367" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="368" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A368" t="s">
+        <v>83</v>
+      </c>
+      <c r="B368" t="s">
+        <v>47</v>
+      </c>
+      <c r="C368" t="s">
+        <v>48</v>
+      </c>
+      <c r="D368" t="s">
+        <v>34</v>
+      </c>
+      <c r="E368">
+        <v>28</v>
+      </c>
+      <c r="F368" t="s">
+        <v>18</v>
+      </c>
+      <c r="G368">
+        <v>300</v>
+      </c>
+      <c r="H368">
+        <v>13</v>
+      </c>
+      <c r="I368">
+        <v>7</v>
+      </c>
+      <c r="J368">
+        <v>0</v>
+      </c>
+      <c r="K368" s="2">
+        <v>1.1435532407407408E-3</v>
+      </c>
+      <c r="L368" s="3">
+        <f t="shared" si="10"/>
+        <v>98.802999999999997</v>
+      </c>
+      <c r="M368">
+        <v>200.87200000000001</v>
+      </c>
+      <c r="N368">
+        <v>1</v>
+      </c>
+      <c r="O368" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="369" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A369" t="s">
+        <v>83</v>
+      </c>
+      <c r="B369" t="s">
+        <v>47</v>
+      </c>
+      <c r="C369" t="s">
+        <v>48</v>
+      </c>
+      <c r="D369" t="s">
+        <v>26</v>
+      </c>
+      <c r="E369">
+        <v>41</v>
+      </c>
+      <c r="F369" t="s">
+        <v>27</v>
+      </c>
+      <c r="G369">
+        <v>55</v>
+      </c>
+      <c r="H369">
+        <v>11</v>
+      </c>
+      <c r="I369">
+        <v>8</v>
+      </c>
+      <c r="J369">
+        <v>0</v>
+      </c>
+      <c r="K369" s="2">
+        <v>1.1385648148148149E-3</v>
+      </c>
+      <c r="L369" s="3">
+        <f t="shared" si="10"/>
+        <v>98.372000000000014</v>
+      </c>
+      <c r="M369">
+        <v>201.75200000000001</v>
+      </c>
+      <c r="N369">
+        <v>1</v>
+      </c>
+      <c r="O369" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="370" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A370" t="s">
+        <v>83</v>
+      </c>
+      <c r="B370" t="s">
+        <v>47</v>
+      </c>
+      <c r="C370" t="s">
+        <v>48</v>
+      </c>
+      <c r="D370" t="s">
+        <v>38</v>
+      </c>
+      <c r="E370">
+        <v>20</v>
+      </c>
+      <c r="F370" t="s">
+        <v>37</v>
+      </c>
+      <c r="G370">
+        <v>46</v>
+      </c>
+      <c r="H370">
+        <v>8</v>
+      </c>
+      <c r="I370">
+        <v>9</v>
+      </c>
+      <c r="J370">
+        <v>0</v>
+      </c>
+      <c r="K370" s="2">
+        <v>1.1472106481481481E-3</v>
+      </c>
+      <c r="L370" s="3">
+        <f t="shared" si="10"/>
+        <v>99.119</v>
+      </c>
+      <c r="M370">
+        <v>200.232</v>
+      </c>
+      <c r="N370">
+        <v>1</v>
+      </c>
+      <c r="O370" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="371" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A371" t="s">
+        <v>83</v>
+      </c>
+      <c r="B371" t="s">
+        <v>47</v>
+      </c>
+      <c r="C371" t="s">
+        <v>48</v>
+      </c>
+      <c r="D371" t="s">
+        <v>42</v>
+      </c>
+      <c r="E371">
+        <v>37</v>
+      </c>
+      <c r="F371" t="s">
+        <v>25</v>
+      </c>
+      <c r="G371">
+        <v>68</v>
+      </c>
+      <c r="H371">
+        <v>10</v>
+      </c>
+      <c r="I371">
+        <v>10</v>
+      </c>
+      <c r="J371">
+        <v>0</v>
+      </c>
+      <c r="K371" s="2">
+        <v>1.1433912037037038E-3</v>
+      </c>
+      <c r="L371" s="3">
+        <f t="shared" si="10"/>
+        <v>98.789000000000001</v>
+      </c>
+      <c r="M371">
+        <v>200.9</v>
+      </c>
+      <c r="N371">
+        <v>1</v>
+      </c>
+      <c r="O371" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="372" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A372" t="s">
+        <v>83</v>
+      </c>
+      <c r="B372" t="s">
+        <v>47</v>
+      </c>
+      <c r="C372" t="s">
+        <v>48</v>
+      </c>
+      <c r="D372" t="s">
+        <v>39</v>
+      </c>
+      <c r="E372">
+        <v>30</v>
+      </c>
+      <c r="F372" t="s">
+        <v>35</v>
+      </c>
+      <c r="G372">
+        <v>72</v>
+      </c>
+      <c r="H372">
+        <v>12</v>
+      </c>
+      <c r="I372">
+        <v>11</v>
+      </c>
+      <c r="J372">
+        <v>0</v>
+      </c>
+      <c r="K372" s="2">
+        <v>1.1456365740740741E-3</v>
+      </c>
+      <c r="L372" s="3">
+        <f t="shared" si="10"/>
+        <v>98.983000000000004</v>
+      </c>
+      <c r="M372">
+        <v>200.50700000000001</v>
+      </c>
+      <c r="N372">
+        <v>1</v>
+      </c>
+      <c r="O372" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="373" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A373" t="s">
+        <v>83</v>
+      </c>
+      <c r="B373" t="s">
+        <v>47</v>
+      </c>
+      <c r="C373" t="s">
+        <v>48</v>
+      </c>
+      <c r="D373" t="s">
+        <v>24</v>
+      </c>
+      <c r="E373">
+        <v>32</v>
+      </c>
+      <c r="F373" t="s">
+        <v>25</v>
+      </c>
+      <c r="G373">
+        <v>68</v>
+      </c>
+      <c r="H373">
+        <v>18</v>
+      </c>
+      <c r="I373">
+        <v>12</v>
+      </c>
+      <c r="J373">
+        <v>0</v>
+      </c>
+      <c r="K373" s="2">
+        <v>1.1466550925925926E-3</v>
+      </c>
+      <c r="L373" s="3">
+        <f t="shared" si="10"/>
+        <v>99.070999999999998</v>
+      </c>
+      <c r="M373">
+        <v>200.32900000000001</v>
+      </c>
+      <c r="N373">
+        <v>1</v>
+      </c>
+      <c r="O373" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="374" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A374" t="s">
+        <v>83</v>
+      </c>
+      <c r="B374" t="s">
+        <v>47</v>
+      </c>
+      <c r="C374" t="s">
+        <v>48</v>
+      </c>
+      <c r="D374" t="s">
+        <v>21</v>
+      </c>
+      <c r="E374">
+        <v>89</v>
+      </c>
+      <c r="F374" t="s">
+        <v>20</v>
+      </c>
+      <c r="G374">
+        <v>333</v>
+      </c>
+      <c r="H374">
+        <v>7</v>
+      </c>
+      <c r="I374">
+        <v>13</v>
+      </c>
+      <c r="J374">
+        <v>0</v>
+      </c>
+      <c r="K374" s="2">
+        <v>1.1293634259259258E-3</v>
+      </c>
+      <c r="L374" s="3">
+        <f t="shared" si="10"/>
+        <v>97.576999999999984</v>
+      </c>
+      <c r="M374">
+        <v>203.39599999999999</v>
+      </c>
+      <c r="N374">
+        <v>1</v>
+      </c>
+      <c r="O374" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="375" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A375" t="s">
+        <v>83</v>
+      </c>
+      <c r="B375" t="s">
+        <v>47</v>
+      </c>
+      <c r="C375" t="s">
+        <v>48</v>
+      </c>
+      <c r="D375" t="s">
+        <v>22</v>
+      </c>
+      <c r="E375">
+        <v>73</v>
+      </c>
+      <c r="F375" t="s">
+        <v>23</v>
+      </c>
+      <c r="G375">
+        <v>111</v>
+      </c>
+      <c r="H375">
+        <v>19</v>
+      </c>
+      <c r="I375">
+        <v>14</v>
+      </c>
+      <c r="J375">
+        <v>0</v>
+      </c>
+      <c r="K375" s="2">
+        <v>1.1380555555555556E-3</v>
+      </c>
+      <c r="L375" s="3">
+        <f t="shared" si="10"/>
+        <v>98.328000000000003</v>
+      </c>
+      <c r="M375">
+        <v>201.84200000000001</v>
+      </c>
+      <c r="N375">
+        <v>2</v>
+      </c>
+      <c r="O375" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="376" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A376" t="s">
+        <v>83</v>
+      </c>
+      <c r="B376" t="s">
+        <v>47</v>
+      </c>
+      <c r="C376" t="s">
+        <v>48</v>
+      </c>
+      <c r="D376" t="s">
+        <v>36</v>
+      </c>
+      <c r="E376">
+        <v>28</v>
+      </c>
+      <c r="F376" t="s">
+        <v>37</v>
+      </c>
+      <c r="G376">
+        <v>46</v>
+      </c>
+      <c r="H376">
+        <v>17</v>
+      </c>
+      <c r="I376">
+        <v>15</v>
+      </c>
+      <c r="J376">
+        <v>0</v>
+      </c>
+      <c r="K376" s="2">
+        <v>1.1488773148148148E-3</v>
+      </c>
+      <c r="L376" s="3">
+        <f t="shared" si="10"/>
+        <v>99.263000000000005</v>
+      </c>
+      <c r="M376">
+        <v>199.941</v>
+      </c>
+      <c r="N376">
+        <v>1</v>
+      </c>
+      <c r="O376" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="377" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A377" t="s">
+        <v>83</v>
+      </c>
+      <c r="B377" t="s">
+        <v>47</v>
+      </c>
+      <c r="C377" t="s">
+        <v>48</v>
+      </c>
+      <c r="D377" t="s">
+        <v>45</v>
+      </c>
+      <c r="E377">
+        <v>39</v>
+      </c>
+      <c r="F377" t="s">
+        <v>35</v>
+      </c>
+      <c r="G377">
+        <v>72</v>
+      </c>
+      <c r="H377">
+        <v>20</v>
+      </c>
+      <c r="I377">
+        <v>16</v>
+      </c>
+      <c r="J377">
+        <v>0</v>
+      </c>
+      <c r="K377" s="2">
+        <v>1.1426388888888888E-3</v>
+      </c>
+      <c r="L377" s="3">
+        <f t="shared" si="10"/>
+        <v>98.72399999999999</v>
+      </c>
+      <c r="M377">
+        <v>201.03299999999999</v>
+      </c>
+      <c r="N377">
+        <v>1</v>
+      </c>
+      <c r="O377" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="378" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A378" t="s">
+        <v>83</v>
+      </c>
+      <c r="B378" t="s">
+        <v>47</v>
+      </c>
+      <c r="C378" t="s">
+        <v>48</v>
+      </c>
+      <c r="D378" t="s">
+        <v>81</v>
+      </c>
+      <c r="E378">
+        <v>0</v>
+      </c>
+      <c r="F378" t="s">
+        <v>33</v>
+      </c>
+      <c r="G378">
+        <v>20</v>
+      </c>
+      <c r="H378">
+        <v>15</v>
+      </c>
+      <c r="I378">
+        <v>17</v>
+      </c>
+      <c r="J378">
+        <v>0</v>
+      </c>
+      <c r="K378" s="2">
+        <v>1.1478356481481483E-3</v>
+      </c>
+      <c r="L378" s="3">
+        <f t="shared" si="10"/>
+        <v>99.173000000000016</v>
+      </c>
+      <c r="M378">
+        <v>200.12299999999999</v>
+      </c>
+      <c r="N378">
+        <v>1</v>
+      </c>
+      <c r="O378" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="379" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A379" t="s">
+        <v>83</v>
+      </c>
+      <c r="B379" t="s">
+        <v>47</v>
+      </c>
+      <c r="C379" t="s">
+        <v>48</v>
+      </c>
+      <c r="D379" t="s">
+        <v>41</v>
+      </c>
+      <c r="E379">
+        <v>18</v>
+      </c>
+      <c r="F379" t="s">
+        <v>27</v>
+      </c>
+      <c r="G379">
+        <v>55</v>
+      </c>
+      <c r="H379">
+        <v>16</v>
+      </c>
+      <c r="I379">
+        <v>18</v>
+      </c>
+      <c r="J379">
+        <v>0</v>
+      </c>
+      <c r="K379" s="2">
+        <v>1.1374421296296297E-3</v>
+      </c>
+      <c r="L379" s="3">
+        <f t="shared" si="10"/>
+        <v>98.275000000000006</v>
+      </c>
+      <c r="M379">
+        <v>201.95099999999999</v>
+      </c>
+      <c r="N379">
+        <v>2</v>
+      </c>
+      <c r="O379" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="380" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A380" t="s">
+        <v>83</v>
+      </c>
+      <c r="B380" t="s">
+        <v>47</v>
+      </c>
+      <c r="C380" t="s">
+        <v>48</v>
+      </c>
+      <c r="D380" t="s">
+        <v>32</v>
+      </c>
+      <c r="E380">
+        <v>20</v>
+      </c>
+      <c r="F380" t="s">
+        <v>33</v>
+      </c>
+      <c r="G380">
+        <v>20</v>
+      </c>
+      <c r="H380">
+        <v>14</v>
+      </c>
+      <c r="I380">
+        <v>19</v>
+      </c>
+      <c r="J380">
+        <v>0</v>
+      </c>
+      <c r="K380" s="2">
+        <v>1.1489583333333334E-3</v>
+      </c>
+      <c r="L380" s="3">
+        <f t="shared" si="10"/>
+        <v>99.27000000000001</v>
+      </c>
+      <c r="M380">
+        <v>199.92699999999999</v>
+      </c>
+      <c r="N380">
+        <v>1</v>
+      </c>
+      <c r="O380" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="381" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A381" t="s">
+        <v>83</v>
+      </c>
+      <c r="B381" t="s">
+        <v>47</v>
+      </c>
+      <c r="C381" t="s">
+        <v>48</v>
+      </c>
+      <c r="D381" t="s">
+        <v>43</v>
+      </c>
+      <c r="E381">
+        <v>38</v>
+      </c>
+      <c r="F381" t="s">
+        <v>23</v>
+      </c>
+      <c r="G381">
+        <v>111</v>
+      </c>
+      <c r="H381">
+        <v>9</v>
+      </c>
+      <c r="I381">
+        <v>20</v>
+      </c>
+      <c r="J381">
+        <v>0</v>
+      </c>
+      <c r="K381" s="2">
+        <v>1.1611921296296296E-3</v>
+      </c>
+      <c r="L381" s="3">
+        <f t="shared" si="10"/>
+        <v>100.327</v>
+      </c>
+      <c r="M381">
+        <v>197.821</v>
+      </c>
+      <c r="N381">
+        <v>0</v>
+      </c>
+      <c r="O381" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/F1.xlsx
+++ b/F1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\vs\f1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58654249-54EB-42A6-BC07-BE2A430C6F6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED555FF6-5ABC-4194-AE78-6750C750FD57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00798B61-A4AB-4634-A493-7936C2BE7462}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2644" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2764" uniqueCount="84">
   <si>
     <t>Race_Name</t>
   </si>
@@ -655,11 +655,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36F0DB36-4229-4BFD-868F-09E812C5EFF8}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:S381"/>
+  <dimension ref="A1:S401"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A362" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P381" sqref="P381"/>
+      <pane ySplit="1" topLeftCell="A381" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="P382" sqref="P382"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -18814,6 +18814,966 @@
         <v>0</v>
       </c>
       <c r="O381" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="382" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A382" t="s">
+        <v>67</v>
+      </c>
+      <c r="B382" t="s">
+        <v>47</v>
+      </c>
+      <c r="C382" t="s">
+        <v>48</v>
+      </c>
+      <c r="D382" t="s">
+        <v>13</v>
+      </c>
+      <c r="E382">
+        <v>357</v>
+      </c>
+      <c r="F382" t="s">
+        <v>14</v>
+      </c>
+      <c r="G382">
+        <v>713</v>
+      </c>
+      <c r="H382">
+        <v>1</v>
+      </c>
+      <c r="I382">
+        <v>1</v>
+      </c>
+      <c r="J382">
+        <v>1</v>
+      </c>
+      <c r="K382" s="2">
+        <v>9.3476851851851848E-4</v>
+      </c>
+      <c r="L382" s="3">
+        <f t="shared" ref="L382:L401" si="11">(K382 - INT(K382/1))*86400</f>
+        <v>80.763999999999996</v>
+      </c>
+      <c r="M382">
+        <v>191.84700000000001</v>
+      </c>
+      <c r="N382">
+        <v>1</v>
+      </c>
+      <c r="O382" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="383" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A383" t="s">
+        <v>67</v>
+      </c>
+      <c r="B383" t="s">
+        <v>47</v>
+      </c>
+      <c r="C383" t="s">
+        <v>48</v>
+      </c>
+      <c r="D383" t="s">
+        <v>28</v>
+      </c>
+      <c r="E383">
+        <v>210</v>
+      </c>
+      <c r="F383" t="s">
+        <v>29</v>
+      </c>
+      <c r="G383">
+        <v>356</v>
+      </c>
+      <c r="H383">
+        <v>2</v>
+      </c>
+      <c r="I383">
+        <v>2</v>
+      </c>
+      <c r="J383">
+        <v>0</v>
+      </c>
+      <c r="K383" s="2">
+        <v>9.4430555555555544E-4</v>
+      </c>
+      <c r="L383" s="3">
+        <f t="shared" si="11"/>
+        <v>81.587999999999994</v>
+      </c>
+      <c r="M383">
+        <v>189.91</v>
+      </c>
+      <c r="N383">
+        <v>1</v>
+      </c>
+      <c r="O383" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="384" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A384" t="s">
+        <v>67</v>
+      </c>
+      <c r="B384" t="s">
+        <v>47</v>
+      </c>
+      <c r="C384" t="s">
+        <v>48</v>
+      </c>
+      <c r="D384" t="s">
+        <v>17</v>
+      </c>
+      <c r="E384">
+        <v>321</v>
+      </c>
+      <c r="F384" t="s">
+        <v>18</v>
+      </c>
+      <c r="G384">
+        <v>346</v>
+      </c>
+      <c r="H384">
+        <v>5</v>
+      </c>
+      <c r="I384">
+        <v>3</v>
+      </c>
+      <c r="J384">
+        <v>0</v>
+      </c>
+      <c r="K384" s="2">
+        <v>9.3875000000000002E-4</v>
+      </c>
+      <c r="L384" s="3">
+        <f t="shared" si="11"/>
+        <v>81.108000000000004</v>
+      </c>
+      <c r="M384">
+        <v>191.03399999999999</v>
+      </c>
+      <c r="N384">
+        <v>1</v>
+      </c>
+      <c r="O384" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="385" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A385" t="s">
+        <v>67</v>
+      </c>
+      <c r="B385" t="s">
+        <v>47</v>
+      </c>
+      <c r="C385" t="s">
+        <v>48</v>
+      </c>
+      <c r="D385" t="s">
+        <v>38</v>
+      </c>
+      <c r="E385">
+        <v>32</v>
+      </c>
+      <c r="F385" t="s">
+        <v>37</v>
+      </c>
+      <c r="G385">
+        <v>62</v>
+      </c>
+      <c r="H385">
+        <v>10</v>
+      </c>
+      <c r="I385">
+        <v>4</v>
+      </c>
+      <c r="J385">
+        <v>0</v>
+      </c>
+      <c r="K385" s="2">
+        <v>9.3408564814814808E-4</v>
+      </c>
+      <c r="L385" s="3">
+        <f t="shared" si="11"/>
+        <v>80.704999999999998</v>
+      </c>
+      <c r="M385">
+        <v>191.988</v>
+      </c>
+      <c r="N385">
+        <v>2</v>
+      </c>
+      <c r="O385" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="386" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A386" t="s">
+        <v>67</v>
+      </c>
+      <c r="B386" t="s">
+        <v>47</v>
+      </c>
+      <c r="C386" t="s">
+        <v>48</v>
+      </c>
+      <c r="D386" t="s">
+        <v>30</v>
+      </c>
+      <c r="E386">
+        <v>356</v>
+      </c>
+      <c r="F386" t="s">
+        <v>14</v>
+      </c>
+      <c r="G386">
+        <v>713</v>
+      </c>
+      <c r="H386">
+        <v>8</v>
+      </c>
+      <c r="I386">
+        <v>5</v>
+      </c>
+      <c r="J386">
+        <v>0</v>
+      </c>
+      <c r="K386" s="2">
+        <v>9.3081018518518513E-4</v>
+      </c>
+      <c r="L386" s="3">
+        <f t="shared" si="11"/>
+        <v>80.421999999999997</v>
+      </c>
+      <c r="M386">
+        <v>192.66300000000001</v>
+      </c>
+      <c r="N386">
+        <v>2</v>
+      </c>
+      <c r="O386" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="387" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A387" t="s">
+        <v>67</v>
+      </c>
+      <c r="B387" t="s">
+        <v>47</v>
+      </c>
+      <c r="C387" t="s">
+        <v>48</v>
+      </c>
+      <c r="D387" t="s">
+        <v>21</v>
+      </c>
+      <c r="E387">
+        <v>97</v>
+      </c>
+      <c r="F387" t="s">
+        <v>20</v>
+      </c>
+      <c r="G387">
+        <v>355</v>
+      </c>
+      <c r="H387">
+        <v>6</v>
+      </c>
+      <c r="I387">
+        <v>6</v>
+      </c>
+      <c r="J387">
+        <v>0</v>
+      </c>
+      <c r="K387" s="2">
+        <v>9.35486111111111E-4</v>
+      </c>
+      <c r="L387" s="3">
+        <f t="shared" si="11"/>
+        <v>80.825999999999993</v>
+      </c>
+      <c r="M387">
+        <v>191.7</v>
+      </c>
+      <c r="N387">
+        <v>2</v>
+      </c>
+      <c r="O387" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="388" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A388" t="s">
+        <v>67</v>
+      </c>
+      <c r="B388" t="s">
+        <v>47</v>
+      </c>
+      <c r="C388" t="s">
+        <v>48</v>
+      </c>
+      <c r="D388" t="s">
+        <v>19</v>
+      </c>
+      <c r="E388">
+        <v>258</v>
+      </c>
+      <c r="F388" t="s">
+        <v>20</v>
+      </c>
+      <c r="G388">
+        <v>355</v>
+      </c>
+      <c r="H388">
+        <v>4</v>
+      </c>
+      <c r="I388">
+        <v>7</v>
+      </c>
+      <c r="J388">
+        <v>0</v>
+      </c>
+      <c r="K388" s="2">
+        <v>9.2652777777777774E-4</v>
+      </c>
+      <c r="L388" s="3">
+        <f t="shared" si="11"/>
+        <v>80.051999999999992</v>
+      </c>
+      <c r="M388">
+        <v>193.554</v>
+      </c>
+      <c r="N388">
+        <v>2</v>
+      </c>
+      <c r="O388" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="389" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A389" t="s">
+        <v>67</v>
+      </c>
+      <c r="B389" t="s">
+        <v>47</v>
+      </c>
+      <c r="C389" t="s">
+        <v>48</v>
+      </c>
+      <c r="D389" t="s">
+        <v>31</v>
+      </c>
+      <c r="E389">
+        <v>146</v>
+      </c>
+      <c r="F389" t="s">
+        <v>29</v>
+      </c>
+      <c r="G389">
+        <v>356</v>
+      </c>
+      <c r="H389">
+        <v>3</v>
+      </c>
+      <c r="I389">
+        <v>8</v>
+      </c>
+      <c r="J389">
+        <v>0</v>
+      </c>
+      <c r="K389" s="2">
+        <v>9.3288194444444441E-4</v>
+      </c>
+      <c r="L389" s="3">
+        <f t="shared" si="11"/>
+        <v>80.600999999999999</v>
+      </c>
+      <c r="M389">
+        <v>192.23500000000001</v>
+      </c>
+      <c r="N389">
+        <v>2</v>
+      </c>
+      <c r="O389" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="390" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A390" t="s">
+        <v>67</v>
+      </c>
+      <c r="B390" t="s">
+        <v>47</v>
+      </c>
+      <c r="C390" t="s">
+        <v>48</v>
+      </c>
+      <c r="D390" t="s">
+        <v>36</v>
+      </c>
+      <c r="E390">
+        <v>30</v>
+      </c>
+      <c r="F390" t="s">
+        <v>37</v>
+      </c>
+      <c r="G390">
+        <v>62</v>
+      </c>
+      <c r="H390">
+        <v>12</v>
+      </c>
+      <c r="I390">
+        <v>9</v>
+      </c>
+      <c r="J390">
+        <v>0</v>
+      </c>
+      <c r="K390" s="2">
+        <v>9.4755787037037042E-4</v>
+      </c>
+      <c r="L390" s="3">
+        <f t="shared" si="11"/>
+        <v>81.869</v>
+      </c>
+      <c r="M390">
+        <v>189.25800000000001</v>
+      </c>
+      <c r="N390">
+        <v>1</v>
+      </c>
+      <c r="O390" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="391" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A391" t="s">
+        <v>67</v>
+      </c>
+      <c r="B391" t="s">
+        <v>47</v>
+      </c>
+      <c r="C391" t="s">
+        <v>48</v>
+      </c>
+      <c r="D391" t="s">
+        <v>41</v>
+      </c>
+      <c r="E391">
+        <v>19</v>
+      </c>
+      <c r="F391" t="s">
+        <v>27</v>
+      </c>
+      <c r="G391">
+        <v>60</v>
+      </c>
+      <c r="H391">
+        <v>16</v>
+      </c>
+      <c r="I391">
+        <v>10</v>
+      </c>
+      <c r="J391">
+        <v>0</v>
+      </c>
+      <c r="K391" s="2">
+        <v>9.3890046296296289E-4</v>
+      </c>
+      <c r="L391" s="3">
+        <f t="shared" si="11"/>
+        <v>81.120999999999995</v>
+      </c>
+      <c r="M391">
+        <v>191.00299999999999</v>
+      </c>
+      <c r="N391">
+        <v>1</v>
+      </c>
+      <c r="O391" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="392" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A392" t="s">
+        <v>67</v>
+      </c>
+      <c r="B392" t="s">
+        <v>47</v>
+      </c>
+      <c r="C392" t="s">
+        <v>48</v>
+      </c>
+      <c r="D392" t="s">
+        <v>34</v>
+      </c>
+      <c r="E392">
+        <v>28</v>
+      </c>
+      <c r="F392" t="s">
+        <v>18</v>
+      </c>
+      <c r="G392">
+        <v>346</v>
+      </c>
+      <c r="H392">
+        <v>11</v>
+      </c>
+      <c r="I392">
+        <v>11</v>
+      </c>
+      <c r="J392">
+        <v>0</v>
+      </c>
+      <c r="K392" s="2">
+        <v>9.4312500000000006E-4</v>
+      </c>
+      <c r="L392" s="3">
+        <f t="shared" si="11"/>
+        <v>81.486000000000004</v>
+      </c>
+      <c r="M392">
+        <v>190.148</v>
+      </c>
+      <c r="N392">
+        <v>1</v>
+      </c>
+      <c r="O392" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="393" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A393" t="s">
+        <v>67</v>
+      </c>
+      <c r="B393" t="s">
+        <v>47</v>
+      </c>
+      <c r="C393" t="s">
+        <v>48</v>
+      </c>
+      <c r="D393" t="s">
+        <v>22</v>
+      </c>
+      <c r="E393">
+        <v>73</v>
+      </c>
+      <c r="F393" t="s">
+        <v>23</v>
+      </c>
+      <c r="G393">
+        <v>111</v>
+      </c>
+      <c r="H393">
+        <v>17</v>
+      </c>
+      <c r="I393">
+        <v>12</v>
+      </c>
+      <c r="J393">
+        <v>0</v>
+      </c>
+      <c r="K393" s="2">
+        <v>9.3148148148148148E-4</v>
+      </c>
+      <c r="L393" s="3">
+        <f t="shared" si="11"/>
+        <v>80.48</v>
+      </c>
+      <c r="M393">
+        <v>192.524</v>
+      </c>
+      <c r="N393">
+        <v>1</v>
+      </c>
+      <c r="O393" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="394" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A394" t="s">
+        <v>67</v>
+      </c>
+      <c r="B394" t="s">
+        <v>47</v>
+      </c>
+      <c r="C394" t="s">
+        <v>48</v>
+      </c>
+      <c r="D394" t="s">
+        <v>45</v>
+      </c>
+      <c r="E394">
+        <v>39</v>
+      </c>
+      <c r="F394" t="s">
+        <v>35</v>
+      </c>
+      <c r="G394">
+        <v>72</v>
+      </c>
+      <c r="H394">
+        <v>9</v>
+      </c>
+      <c r="I394">
+        <v>13</v>
+      </c>
+      <c r="J394">
+        <v>0</v>
+      </c>
+      <c r="K394" s="2">
+        <v>9.4576388888888889E-4</v>
+      </c>
+      <c r="L394" s="3">
+        <f t="shared" si="11"/>
+        <v>81.713999999999999</v>
+      </c>
+      <c r="M394">
+        <v>189.61699999999999</v>
+      </c>
+      <c r="N394">
+        <v>1</v>
+      </c>
+      <c r="O394" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="395" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A395" t="s">
+        <v>67</v>
+      </c>
+      <c r="B395" t="s">
+        <v>47</v>
+      </c>
+      <c r="C395" t="s">
+        <v>48</v>
+      </c>
+      <c r="D395" t="s">
+        <v>24</v>
+      </c>
+      <c r="E395">
+        <v>32</v>
+      </c>
+      <c r="F395" t="s">
+        <v>25</v>
+      </c>
+      <c r="G395">
+        <v>69</v>
+      </c>
+      <c r="H395">
+        <v>19</v>
+      </c>
+      <c r="I395">
+        <v>14</v>
+      </c>
+      <c r="J395">
+        <v>0</v>
+      </c>
+      <c r="K395" s="2">
+        <v>9.3278935185185186E-4</v>
+      </c>
+      <c r="L395" s="3">
+        <f t="shared" si="11"/>
+        <v>80.593000000000004</v>
+      </c>
+      <c r="M395">
+        <v>192.25399999999999</v>
+      </c>
+      <c r="N395">
+        <v>2</v>
+      </c>
+      <c r="O395" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="396" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A396" t="s">
+        <v>67</v>
+      </c>
+      <c r="B396" t="s">
+        <v>47</v>
+      </c>
+      <c r="C396" t="s">
+        <v>48</v>
+      </c>
+      <c r="D396" t="s">
+        <v>32</v>
+      </c>
+      <c r="E396">
+        <v>20</v>
+      </c>
+      <c r="F396" t="s">
+        <v>33</v>
+      </c>
+      <c r="G396">
+        <v>20</v>
+      </c>
+      <c r="H396">
+        <v>18</v>
+      </c>
+      <c r="I396">
+        <v>15</v>
+      </c>
+      <c r="J396">
+        <v>0</v>
+      </c>
+      <c r="K396" s="2">
+        <v>9.5221064814814821E-4</v>
+      </c>
+      <c r="L396" s="3">
+        <f t="shared" si="11"/>
+        <v>82.271000000000001</v>
+      </c>
+      <c r="M396">
+        <v>188.333</v>
+      </c>
+      <c r="N396">
+        <v>1</v>
+      </c>
+      <c r="O396" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="397" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A397" t="s">
+        <v>67</v>
+      </c>
+      <c r="B397" t="s">
+        <v>47</v>
+      </c>
+      <c r="C397" t="s">
+        <v>48</v>
+      </c>
+      <c r="D397" t="s">
+        <v>81</v>
+      </c>
+      <c r="E397">
+        <v>0</v>
+      </c>
+      <c r="F397" t="s">
+        <v>33</v>
+      </c>
+      <c r="G397">
+        <v>20</v>
+      </c>
+      <c r="H397">
+        <v>20</v>
+      </c>
+      <c r="I397">
+        <v>16</v>
+      </c>
+      <c r="J397">
+        <v>0</v>
+      </c>
+      <c r="K397" s="2">
+        <v>9.4145833333333332E-4</v>
+      </c>
+      <c r="L397" s="3">
+        <f t="shared" si="11"/>
+        <v>81.341999999999999</v>
+      </c>
+      <c r="M397">
+        <v>190.48400000000001</v>
+      </c>
+      <c r="N397">
+        <v>1</v>
+      </c>
+      <c r="O397" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="398" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A398" t="s">
+        <v>67</v>
+      </c>
+      <c r="B398" t="s">
+        <v>47</v>
+      </c>
+      <c r="C398" t="s">
+        <v>48</v>
+      </c>
+      <c r="D398" t="s">
+        <v>43</v>
+      </c>
+      <c r="E398">
+        <v>38</v>
+      </c>
+      <c r="F398" t="s">
+        <v>23</v>
+      </c>
+      <c r="G398">
+        <v>111</v>
+      </c>
+      <c r="H398">
+        <v>7</v>
+      </c>
+      <c r="I398">
+        <v>17</v>
+      </c>
+      <c r="J398">
+        <v>0</v>
+      </c>
+      <c r="K398" s="2">
+        <v>9.2706018518518517E-4</v>
+      </c>
+      <c r="L398" s="3">
+        <f t="shared" si="11"/>
+        <v>80.097999999999999</v>
+      </c>
+      <c r="M398">
+        <v>193.44300000000001</v>
+      </c>
+      <c r="N398">
+        <v>2</v>
+      </c>
+      <c r="O398" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="399" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A399" t="s">
+        <v>67</v>
+      </c>
+      <c r="B399" t="s">
+        <v>47</v>
+      </c>
+      <c r="C399" t="s">
+        <v>48</v>
+      </c>
+      <c r="D399" t="s">
+        <v>42</v>
+      </c>
+      <c r="E399">
+        <v>37</v>
+      </c>
+      <c r="F399" t="s">
+        <v>25</v>
+      </c>
+      <c r="G399">
+        <v>69</v>
+      </c>
+      <c r="H399">
+        <v>14</v>
+      </c>
+      <c r="I399">
+        <v>18</v>
+      </c>
+      <c r="J399">
+        <v>0</v>
+      </c>
+      <c r="K399" s="2">
+        <v>9.4569444444444443E-4</v>
+      </c>
+      <c r="L399" s="3">
+        <f t="shared" si="11"/>
+        <v>81.707999999999998</v>
+      </c>
+      <c r="M399">
+        <v>189.631</v>
+      </c>
+      <c r="N399">
+        <v>1</v>
+      </c>
+      <c r="O399" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="400" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A400" t="s">
+        <v>67</v>
+      </c>
+      <c r="B400" t="s">
+        <v>47</v>
+      </c>
+      <c r="C400" t="s">
+        <v>48</v>
+      </c>
+      <c r="D400" t="s">
+        <v>26</v>
+      </c>
+      <c r="E400">
+        <v>41</v>
+      </c>
+      <c r="F400" t="s">
+        <v>27</v>
+      </c>
+      <c r="G400">
+        <v>60</v>
+      </c>
+      <c r="H400">
+        <v>13</v>
+      </c>
+      <c r="I400">
+        <v>19</v>
+      </c>
+      <c r="J400">
+        <v>0</v>
+      </c>
+      <c r="K400" s="2">
+        <v>9.61701388888889E-4</v>
+      </c>
+      <c r="L400" s="3">
+        <f t="shared" si="11"/>
+        <v>83.091000000000008</v>
+      </c>
+      <c r="M400">
+        <v>186.47499999999999</v>
+      </c>
+      <c r="N400">
+        <v>0</v>
+      </c>
+      <c r="O400" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="401" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A401" t="s">
+        <v>67</v>
+      </c>
+      <c r="B401" t="s">
+        <v>47</v>
+      </c>
+      <c r="C401" t="s">
+        <v>48</v>
+      </c>
+      <c r="D401" t="s">
+        <v>39</v>
+      </c>
+      <c r="E401">
+        <v>30</v>
+      </c>
+      <c r="F401" t="s">
+        <v>35</v>
+      </c>
+      <c r="G401">
+        <v>72</v>
+      </c>
+      <c r="H401">
+        <v>15</v>
+      </c>
+      <c r="I401">
+        <v>20</v>
+      </c>
+      <c r="J401">
+        <v>0</v>
+      </c>
+      <c r="K401" s="2">
+        <v>9.8523148148148146E-4</v>
+      </c>
+      <c r="L401" s="3">
+        <f t="shared" si="11"/>
+        <v>85.123999999999995</v>
+      </c>
+      <c r="M401">
+        <v>182.02099999999999</v>
+      </c>
+      <c r="N401">
+        <v>1</v>
+      </c>
+      <c r="O401" t="s">
         <v>40</v>
       </c>
     </row>

--- a/F1.xlsx
+++ b/F1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\vs\f1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED555FF6-5ABC-4194-AE78-6750C750FD57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A869C4F-D2E2-44FD-8E97-20DE9F358A5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00798B61-A4AB-4634-A493-7936C2BE7462}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2764" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2884" uniqueCount="84">
   <si>
     <t>Race_Name</t>
   </si>
@@ -655,11 +655,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36F0DB36-4229-4BFD-868F-09E812C5EFF8}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:S401"/>
+  <dimension ref="A1:S421"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A381" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P382" sqref="P382"/>
+      <pane ySplit="1" topLeftCell="A402" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="P419" sqref="P419"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -19774,6 +19774,955 @@
         <v>1</v>
       </c>
       <c r="O401" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="402" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A402" t="s">
+        <v>68</v>
+      </c>
+      <c r="B402" t="s">
+        <v>47</v>
+      </c>
+      <c r="C402" t="s">
+        <v>48</v>
+      </c>
+      <c r="D402" t="s">
+        <v>13</v>
+      </c>
+      <c r="E402">
+        <v>390</v>
+      </c>
+      <c r="F402" t="s">
+        <v>14</v>
+      </c>
+      <c r="G402">
+        <v>756</v>
+      </c>
+      <c r="H402">
+        <v>1</v>
+      </c>
+      <c r="I402">
+        <v>1</v>
+      </c>
+      <c r="J402">
+        <v>1</v>
+      </c>
+      <c r="K402" s="2">
+        <v>8.4537037037037024E-4</v>
+      </c>
+      <c r="L402" s="3">
+        <f t="shared" ref="L402:L421" si="12">(K402 - INT(K402/1))*86400</f>
+        <v>73.039999999999992</v>
+      </c>
+      <c r="M402">
+        <v>212.38200000000001</v>
+      </c>
+      <c r="N402">
+        <v>2</v>
+      </c>
+      <c r="O402" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="403" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A403" t="s">
+        <v>68</v>
+      </c>
+      <c r="B403" t="s">
+        <v>47</v>
+      </c>
+      <c r="C403" t="s">
+        <v>48</v>
+      </c>
+      <c r="D403" t="s">
+        <v>21</v>
+      </c>
+      <c r="E403">
+        <v>122</v>
+      </c>
+      <c r="F403" t="s">
+        <v>20</v>
+      </c>
+      <c r="G403">
+        <v>398</v>
+      </c>
+      <c r="H403">
+        <v>2</v>
+      </c>
+      <c r="I403">
+        <v>2</v>
+      </c>
+      <c r="J403">
+        <v>0</v>
+      </c>
+      <c r="K403" s="2">
+        <v>8.4633101851851861E-4</v>
+      </c>
+      <c r="L403" s="3">
+        <f t="shared" si="12"/>
+        <v>73.123000000000005</v>
+      </c>
+      <c r="M403">
+        <v>212.14099999999999</v>
+      </c>
+      <c r="N403">
+        <v>2</v>
+      </c>
+      <c r="O403" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="404" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A404" t="s">
+        <v>68</v>
+      </c>
+      <c r="B404" t="s">
+        <v>47</v>
+      </c>
+      <c r="C404" t="s">
+        <v>48</v>
+      </c>
+      <c r="D404" t="s">
+        <v>17</v>
+      </c>
+      <c r="E404">
+        <v>341</v>
+      </c>
+      <c r="F404" t="s">
+        <v>18</v>
+      </c>
+      <c r="G404">
+        <v>366</v>
+      </c>
+      <c r="H404">
+        <v>16</v>
+      </c>
+      <c r="I404">
+        <v>3</v>
+      </c>
+      <c r="J404">
+        <v>0</v>
+      </c>
+      <c r="K404" s="2">
+        <v>8.3850694444444446E-4</v>
+      </c>
+      <c r="L404" s="3">
+        <f t="shared" si="12"/>
+        <v>72.447000000000003</v>
+      </c>
+      <c r="M404">
+        <v>214.12</v>
+      </c>
+      <c r="N404">
+        <v>3</v>
+      </c>
+      <c r="O404" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="405" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A405" t="s">
+        <v>68</v>
+      </c>
+      <c r="B405" t="s">
+        <v>47</v>
+      </c>
+      <c r="C405" t="s">
+        <v>48</v>
+      </c>
+      <c r="D405" t="s">
+        <v>19</v>
+      </c>
+      <c r="E405">
+        <v>276</v>
+      </c>
+      <c r="F405" t="s">
+        <v>20</v>
+      </c>
+      <c r="G405">
+        <v>398</v>
+      </c>
+      <c r="H405">
+        <v>6</v>
+      </c>
+      <c r="I405">
+        <v>4</v>
+      </c>
+      <c r="J405">
+        <v>0</v>
+      </c>
+      <c r="K405" s="2">
+        <v>8.4603009259259256E-4</v>
+      </c>
+      <c r="L405" s="3">
+        <f t="shared" si="12"/>
+        <v>73.096999999999994</v>
+      </c>
+      <c r="M405">
+        <v>212.21600000000001</v>
+      </c>
+      <c r="N405">
+        <v>2</v>
+      </c>
+      <c r="O405" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="406" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A406" t="s">
+        <v>68</v>
+      </c>
+      <c r="B406" t="s">
+        <v>47</v>
+      </c>
+      <c r="C406" t="s">
+        <v>48</v>
+      </c>
+      <c r="D406" t="s">
+        <v>30</v>
+      </c>
+      <c r="E406">
+        <v>366</v>
+      </c>
+      <c r="F406" t="s">
+        <v>14</v>
+      </c>
+      <c r="G406">
+        <v>756</v>
+      </c>
+      <c r="H406">
+        <v>4</v>
+      </c>
+      <c r="I406">
+        <v>5</v>
+      </c>
+      <c r="J406">
+        <v>0</v>
+      </c>
+      <c r="K406" s="2">
+        <v>8.4192129629629634E-4</v>
+      </c>
+      <c r="L406" s="3">
+        <f t="shared" si="12"/>
+        <v>72.742000000000004</v>
+      </c>
+      <c r="M406">
+        <v>213.25200000000001</v>
+      </c>
+      <c r="N406">
+        <v>2</v>
+      </c>
+      <c r="O406" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="407" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A407" t="s">
+        <v>68</v>
+      </c>
+      <c r="B407" t="s">
+        <v>47</v>
+      </c>
+      <c r="C407" t="s">
+        <v>48</v>
+      </c>
+      <c r="D407" t="s">
+        <v>38</v>
+      </c>
+      <c r="E407">
+        <v>40</v>
+      </c>
+      <c r="F407" t="s">
+        <v>37</v>
+      </c>
+      <c r="G407">
+        <v>70</v>
+      </c>
+      <c r="H407">
+        <v>8</v>
+      </c>
+      <c r="I407">
+        <v>6</v>
+      </c>
+      <c r="J407">
+        <v>0</v>
+      </c>
+      <c r="K407" s="2">
+        <v>8.5049768518518525E-4</v>
+      </c>
+      <c r="L407" s="3">
+        <f t="shared" si="12"/>
+        <v>73.483000000000004</v>
+      </c>
+      <c r="M407">
+        <v>211.101</v>
+      </c>
+      <c r="N407">
+        <v>2</v>
+      </c>
+      <c r="O407" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="408" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A408" t="s">
+        <v>68</v>
+      </c>
+      <c r="B408" t="s">
+        <v>47</v>
+      </c>
+      <c r="C408" t="s">
+        <v>48</v>
+      </c>
+      <c r="D408" t="s">
+        <v>39</v>
+      </c>
+      <c r="E408">
+        <v>36</v>
+      </c>
+      <c r="F408" t="s">
+        <v>35</v>
+      </c>
+      <c r="G408">
+        <v>82</v>
+      </c>
+      <c r="H408">
+        <v>7</v>
+      </c>
+      <c r="I408">
+        <v>7</v>
+      </c>
+      <c r="J408">
+        <v>0</v>
+      </c>
+      <c r="K408" s="2">
+        <v>8.5681712962962957E-4</v>
+      </c>
+      <c r="L408" s="3">
+        <f t="shared" si="12"/>
+        <v>74.028999999999996</v>
+      </c>
+      <c r="M408">
+        <v>209.54400000000001</v>
+      </c>
+      <c r="N408">
+        <v>1</v>
+      </c>
+      <c r="O408" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="409" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A409" t="s">
+        <v>68</v>
+      </c>
+      <c r="B409" t="s">
+        <v>47</v>
+      </c>
+      <c r="C409" t="s">
+        <v>48</v>
+      </c>
+      <c r="D409" t="s">
+        <v>45</v>
+      </c>
+      <c r="E409">
+        <v>43</v>
+      </c>
+      <c r="F409" t="s">
+        <v>35</v>
+      </c>
+      <c r="G409">
+        <v>82</v>
+      </c>
+      <c r="H409">
+        <v>5</v>
+      </c>
+      <c r="I409">
+        <v>8</v>
+      </c>
+      <c r="J409">
+        <v>0</v>
+      </c>
+      <c r="K409" s="2">
+        <v>8.5293981481481484E-4</v>
+      </c>
+      <c r="L409" s="3">
+        <f t="shared" si="12"/>
+        <v>73.694000000000003</v>
+      </c>
+      <c r="M409">
+        <v>210.49700000000001</v>
+      </c>
+      <c r="N409">
+        <v>2</v>
+      </c>
+      <c r="O409" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="410" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A410" t="s">
+        <v>68</v>
+      </c>
+      <c r="B410" t="s">
+        <v>47</v>
+      </c>
+      <c r="C410" t="s">
+        <v>48</v>
+      </c>
+      <c r="D410" t="s">
+        <v>26</v>
+      </c>
+      <c r="E410">
+        <v>43</v>
+      </c>
+      <c r="F410" t="s">
+        <v>27</v>
+      </c>
+      <c r="G410">
+        <v>62</v>
+      </c>
+      <c r="H410">
+        <v>10</v>
+      </c>
+      <c r="I410">
+        <v>9</v>
+      </c>
+      <c r="J410">
+        <v>0</v>
+      </c>
+      <c r="K410" s="2">
+        <v>8.5039351851851856E-4</v>
+      </c>
+      <c r="L410" s="3">
+        <f t="shared" si="12"/>
+        <v>73.474000000000004</v>
+      </c>
+      <c r="M410">
+        <v>211.12700000000001</v>
+      </c>
+      <c r="N410">
+        <v>0</v>
+      </c>
+      <c r="O410" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="411" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A411" t="s">
+        <v>68</v>
+      </c>
+      <c r="B411" t="s">
+        <v>47</v>
+      </c>
+      <c r="C411" t="s">
+        <v>48</v>
+      </c>
+      <c r="D411" t="s">
+        <v>32</v>
+      </c>
+      <c r="E411">
+        <v>22</v>
+      </c>
+      <c r="F411" t="s">
+        <v>33</v>
+      </c>
+      <c r="G411">
+        <v>22</v>
+      </c>
+      <c r="H411">
+        <v>9</v>
+      </c>
+      <c r="I411">
+        <v>10</v>
+      </c>
+      <c r="J411">
+        <v>0</v>
+      </c>
+      <c r="K411" s="2">
+        <v>8.5342592592592599E-4</v>
+      </c>
+      <c r="L411" s="3">
+        <f t="shared" si="12"/>
+        <v>73.736000000000004</v>
+      </c>
+      <c r="M411">
+        <v>210.37700000000001</v>
+      </c>
+      <c r="N411">
+        <v>2</v>
+      </c>
+      <c r="O411" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="412" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A412" t="s">
+        <v>68</v>
+      </c>
+      <c r="B412" t="s">
+        <v>47</v>
+      </c>
+      <c r="C412" t="s">
+        <v>48</v>
+      </c>
+      <c r="D412" t="s">
+        <v>22</v>
+      </c>
+      <c r="E412">
+        <v>73</v>
+      </c>
+      <c r="F412" t="s">
+        <v>23</v>
+      </c>
+      <c r="G412">
+        <v>111</v>
+      </c>
+      <c r="H412">
+        <v>12</v>
+      </c>
+      <c r="I412">
+        <v>11</v>
+      </c>
+      <c r="J412">
+        <v>0</v>
+      </c>
+      <c r="K412" s="2">
+        <v>8.3796296296296299E-4</v>
+      </c>
+      <c r="L412" s="3">
+        <f t="shared" si="12"/>
+        <v>72.400000000000006</v>
+      </c>
+      <c r="M412">
+        <v>214.25899999999999</v>
+      </c>
+      <c r="N412">
+        <v>2</v>
+      </c>
+      <c r="O412" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="413" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A413" t="s">
+        <v>68</v>
+      </c>
+      <c r="B413" t="s">
+        <v>47</v>
+      </c>
+      <c r="C413" t="s">
+        <v>48</v>
+      </c>
+      <c r="D413" t="s">
+        <v>36</v>
+      </c>
+      <c r="E413">
+        <v>30</v>
+      </c>
+      <c r="F413" t="s">
+        <v>37</v>
+      </c>
+      <c r="G413">
+        <v>70</v>
+      </c>
+      <c r="H413">
+        <v>17</v>
+      </c>
+      <c r="I413">
+        <v>12</v>
+      </c>
+      <c r="J413">
+        <v>0</v>
+      </c>
+      <c r="K413" s="2">
+        <v>8.5047453703703695E-4</v>
+      </c>
+      <c r="L413" s="3">
+        <f t="shared" si="12"/>
+        <v>73.480999999999995</v>
+      </c>
+      <c r="M413">
+        <v>211.107</v>
+      </c>
+      <c r="N413">
+        <v>2</v>
+      </c>
+      <c r="O413" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="414" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A414" t="s">
+        <v>68</v>
+      </c>
+      <c r="B414" t="s">
+        <v>47</v>
+      </c>
+      <c r="C414" t="s">
+        <v>48</v>
+      </c>
+      <c r="D414" t="s">
+        <v>43</v>
+      </c>
+      <c r="E414">
+        <v>38</v>
+      </c>
+      <c r="F414" t="s">
+        <v>23</v>
+      </c>
+      <c r="G414">
+        <v>111</v>
+      </c>
+      <c r="H414">
+        <v>15</v>
+      </c>
+      <c r="I414">
+        <v>13</v>
+      </c>
+      <c r="J414">
+        <v>0</v>
+      </c>
+      <c r="K414" s="2">
+        <v>8.5281249999999995E-4</v>
+      </c>
+      <c r="L414" s="3">
+        <f t="shared" si="12"/>
+        <v>73.682999999999993</v>
+      </c>
+      <c r="M414">
+        <v>210.52799999999999</v>
+      </c>
+      <c r="N414">
+        <v>2</v>
+      </c>
+      <c r="O414" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="415" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A415" t="s">
+        <v>68</v>
+      </c>
+      <c r="B415" t="s">
+        <v>47</v>
+      </c>
+      <c r="C415" t="s">
+        <v>48</v>
+      </c>
+      <c r="D415" t="s">
+        <v>42</v>
+      </c>
+      <c r="E415">
+        <v>40</v>
+      </c>
+      <c r="F415" t="s">
+        <v>25</v>
+      </c>
+      <c r="G415">
+        <v>72</v>
+      </c>
+      <c r="H415">
+        <v>11</v>
+      </c>
+      <c r="I415">
+        <v>14</v>
+      </c>
+      <c r="J415">
+        <v>0</v>
+      </c>
+      <c r="K415" s="2">
+        <v>8.4851851851851852E-4</v>
+      </c>
+      <c r="L415" s="3">
+        <f t="shared" si="12"/>
+        <v>73.311999999999998</v>
+      </c>
+      <c r="M415">
+        <v>211.59399999999999</v>
+      </c>
+      <c r="N415">
+        <v>2</v>
+      </c>
+      <c r="O415" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="416" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A416" t="s">
+        <v>68</v>
+      </c>
+      <c r="B416" t="s">
+        <v>47</v>
+      </c>
+      <c r="C416" t="s">
+        <v>48</v>
+      </c>
+      <c r="D416" t="s">
+        <v>81</v>
+      </c>
+      <c r="E416">
+        <v>0</v>
+      </c>
+      <c r="F416" t="s">
+        <v>33</v>
+      </c>
+      <c r="G416">
+        <v>22</v>
+      </c>
+      <c r="H416">
+        <v>18</v>
+      </c>
+      <c r="I416">
+        <v>15</v>
+      </c>
+      <c r="J416">
+        <v>0</v>
+      </c>
+      <c r="K416" s="2">
+        <v>8.427777777777778E-4</v>
+      </c>
+      <c r="L416" s="3">
+        <f t="shared" si="12"/>
+        <v>72.816000000000003</v>
+      </c>
+      <c r="M416">
+        <v>213.035</v>
+      </c>
+      <c r="N416">
+        <v>2</v>
+      </c>
+      <c r="O416" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="417" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A417" t="s">
+        <v>68</v>
+      </c>
+      <c r="B417" t="s">
+        <v>47</v>
+      </c>
+      <c r="C417" t="s">
+        <v>48</v>
+      </c>
+      <c r="D417" t="s">
+        <v>24</v>
+      </c>
+      <c r="E417">
+        <v>32</v>
+      </c>
+      <c r="F417" t="s">
+        <v>25</v>
+      </c>
+      <c r="G417">
+        <v>72</v>
+      </c>
+      <c r="H417">
+        <v>14</v>
+      </c>
+      <c r="I417">
+        <v>16</v>
+      </c>
+      <c r="J417">
+        <v>0</v>
+      </c>
+      <c r="K417" s="2">
+        <v>8.4599537037037033E-4</v>
+      </c>
+      <c r="L417" s="3">
+        <f t="shared" si="12"/>
+        <v>73.093999999999994</v>
+      </c>
+      <c r="M417">
+        <v>212.22499999999999</v>
+      </c>
+      <c r="N417">
+        <v>2</v>
+      </c>
+      <c r="O417" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="418" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A418" t="s">
+        <v>68</v>
+      </c>
+      <c r="B418" t="s">
+        <v>47</v>
+      </c>
+      <c r="C418" t="s">
+        <v>48</v>
+      </c>
+      <c r="D418" t="s">
+        <v>34</v>
+      </c>
+      <c r="E418">
+        <v>28</v>
+      </c>
+      <c r="F418" t="s">
+        <v>18</v>
+      </c>
+      <c r="G418">
+        <v>366</v>
+      </c>
+      <c r="H418">
+        <v>19</v>
+      </c>
+      <c r="I418">
+        <v>17</v>
+      </c>
+      <c r="J418">
+        <v>0</v>
+      </c>
+      <c r="K418" s="2">
+        <v>8.4229166666666664E-4</v>
+      </c>
+      <c r="L418" s="3">
+        <f t="shared" si="12"/>
+        <v>72.774000000000001</v>
+      </c>
+      <c r="M418">
+        <v>213.15799999999999</v>
+      </c>
+      <c r="N418">
+        <v>3</v>
+      </c>
+      <c r="O418" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="419" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A419" t="s">
+        <v>68</v>
+      </c>
+      <c r="B419" t="s">
+        <v>47</v>
+      </c>
+      <c r="C419" t="s">
+        <v>48</v>
+      </c>
+      <c r="D419" t="s">
+        <v>31</v>
+      </c>
+      <c r="E419">
+        <v>148</v>
+      </c>
+      <c r="F419" t="s">
+        <v>29</v>
+      </c>
+      <c r="G419">
+        <v>362</v>
+      </c>
+      <c r="H419">
+        <v>13</v>
+      </c>
+      <c r="I419">
+        <v>18</v>
+      </c>
+      <c r="J419">
+        <v>0</v>
+      </c>
+      <c r="K419" s="2">
+        <v>8.5467592592592583E-4</v>
+      </c>
+      <c r="L419" s="3">
+        <f t="shared" si="12"/>
+        <v>73.843999999999994</v>
+      </c>
+      <c r="M419">
+        <v>210.06899999999999</v>
+      </c>
+      <c r="N419">
+        <v>3</v>
+      </c>
+      <c r="O419" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="420" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A420" t="s">
+        <v>68</v>
+      </c>
+      <c r="B420" t="s">
+        <v>47</v>
+      </c>
+      <c r="C420" t="s">
+        <v>48</v>
+      </c>
+      <c r="D420" t="s">
+        <v>28</v>
+      </c>
+      <c r="E420">
+        <v>214</v>
+      </c>
+      <c r="F420" t="s">
+        <v>29</v>
+      </c>
+      <c r="G420">
+        <v>362</v>
+      </c>
+      <c r="H420">
+        <v>3</v>
+      </c>
+      <c r="I420">
+        <v>19</v>
+      </c>
+      <c r="J420">
+        <v>0</v>
+      </c>
+      <c r="K420" s="2">
+        <v>1.1986111111111112E-3</v>
+      </c>
+      <c r="L420" s="3">
+        <f t="shared" si="12"/>
+        <v>103.56000000000002</v>
+      </c>
+      <c r="M420">
+        <v>149.791</v>
+      </c>
+      <c r="N420">
+        <v>0</v>
+      </c>
+      <c r="O420" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="421" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A421" t="s">
+        <v>68</v>
+      </c>
+      <c r="B421" t="s">
+        <v>47</v>
+      </c>
+      <c r="C421" t="s">
+        <v>48</v>
+      </c>
+      <c r="D421" t="s">
+        <v>41</v>
+      </c>
+      <c r="E421">
+        <v>19</v>
+      </c>
+      <c r="F421" t="s">
+        <v>27</v>
+      </c>
+      <c r="G421">
+        <v>62</v>
+      </c>
+      <c r="H421">
+        <v>20</v>
+      </c>
+      <c r="I421">
+        <v>20</v>
+      </c>
+      <c r="J421">
+        <v>0</v>
+      </c>
+      <c r="K421" s="2"/>
+      <c r="L421" s="3"/>
+      <c r="O421" t="s">
         <v>40</v>
       </c>
     </row>

--- a/F1.xlsx
+++ b/F1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\vs\f1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A869C4F-D2E2-44FD-8E97-20DE9F358A5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91A86310-62F0-4733-96DC-1967BDE0BE7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00798B61-A4AB-4634-A493-7936C2BE7462}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2884" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3004" uniqueCount="84">
   <si>
     <t>Race_Name</t>
   </si>
@@ -655,11 +655,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36F0DB36-4229-4BFD-868F-09E812C5EFF8}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:S421"/>
+  <dimension ref="A1:S441"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A402" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P419" sqref="P419"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A420" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="P437" sqref="P437"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -19812,7 +19812,7 @@
         <v>8.4537037037037024E-4</v>
       </c>
       <c r="L402" s="3">
-        <f t="shared" ref="L402:L421" si="12">(K402 - INT(K402/1))*86400</f>
+        <f t="shared" ref="L402:L420" si="12">(K402 - INT(K402/1))*86400</f>
         <v>73.039999999999992</v>
       </c>
       <c r="M402">
@@ -20723,6 +20723,950 @@
       <c r="K421" s="2"/>
       <c r="L421" s="3"/>
       <c r="O421" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="422" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A422" t="s">
+        <v>69</v>
+      </c>
+      <c r="B422" t="s">
+        <v>11</v>
+      </c>
+      <c r="C422" t="s">
+        <v>48</v>
+      </c>
+      <c r="D422" t="s">
+        <v>17</v>
+      </c>
+      <c r="E422">
+        <v>366</v>
+      </c>
+      <c r="F422" t="s">
+        <v>18</v>
+      </c>
+      <c r="G422">
+        <v>391</v>
+      </c>
+      <c r="H422">
+        <v>2</v>
+      </c>
+      <c r="I422">
+        <v>1</v>
+      </c>
+      <c r="J422">
+        <v>1</v>
+      </c>
+      <c r="K422" s="2">
+        <v>1.0806134259259261E-3</v>
+      </c>
+      <c r="L422" s="3">
+        <f t="shared" ref="L421:L441" si="13">(K422 - INT(K422/1))*86400</f>
+        <v>93.365000000000009</v>
+      </c>
+      <c r="M422">
+        <v>239.1</v>
+      </c>
+      <c r="N422">
+        <v>1</v>
+      </c>
+      <c r="O422" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="423" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A423" t="s">
+        <v>69</v>
+      </c>
+      <c r="B423" t="s">
+        <v>11</v>
+      </c>
+      <c r="C423" t="s">
+        <v>48</v>
+      </c>
+      <c r="D423" t="s">
+        <v>19</v>
+      </c>
+      <c r="E423">
+        <v>294</v>
+      </c>
+      <c r="F423" t="s">
+        <v>20</v>
+      </c>
+      <c r="G423">
+        <v>431</v>
+      </c>
+      <c r="H423">
+        <v>4</v>
+      </c>
+      <c r="I423">
+        <v>2</v>
+      </c>
+      <c r="J423">
+        <v>0</v>
+      </c>
+      <c r="K423" s="2">
+        <v>1.0948148148148147E-3</v>
+      </c>
+      <c r="L423" s="3">
+        <f t="shared" si="13"/>
+        <v>94.591999999999999</v>
+      </c>
+      <c r="M423">
+        <v>235.99799999999999</v>
+      </c>
+      <c r="N423">
+        <v>1</v>
+      </c>
+      <c r="O423" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="424" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A424" t="s">
+        <v>69</v>
+      </c>
+      <c r="B424" t="s">
+        <v>11</v>
+      </c>
+      <c r="C424" t="s">
+        <v>48</v>
+      </c>
+      <c r="D424" t="s">
+        <v>21</v>
+      </c>
+      <c r="E424">
+        <v>137</v>
+      </c>
+      <c r="F424" t="s">
+        <v>20</v>
+      </c>
+      <c r="G424">
+        <v>431</v>
+      </c>
+      <c r="H424">
+        <v>17</v>
+      </c>
+      <c r="I424">
+        <v>3</v>
+      </c>
+      <c r="J424">
+        <v>0</v>
+      </c>
+      <c r="K424" s="2">
+        <v>1.0879398148148148E-3</v>
+      </c>
+      <c r="L424" s="3">
+        <f t="shared" si="13"/>
+        <v>93.998000000000005</v>
+      </c>
+      <c r="M424">
+        <v>237.49</v>
+      </c>
+      <c r="N424">
+        <v>1</v>
+      </c>
+      <c r="O424" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="425" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A425" t="s">
+        <v>69</v>
+      </c>
+      <c r="B425" t="s">
+        <v>11</v>
+      </c>
+      <c r="C425" t="s">
+        <v>48</v>
+      </c>
+      <c r="D425" t="s">
+        <v>28</v>
+      </c>
+      <c r="E425">
+        <v>226</v>
+      </c>
+      <c r="F425" t="s">
+        <v>29</v>
+      </c>
+      <c r="G425">
+        <v>378</v>
+      </c>
+      <c r="H425">
+        <v>9</v>
+      </c>
+      <c r="I425">
+        <v>4</v>
+      </c>
+      <c r="J425">
+        <v>0</v>
+      </c>
+      <c r="K425" s="2">
+        <v>1.0914814814814815E-3</v>
+      </c>
+      <c r="L425" s="3">
+        <f t="shared" si="13"/>
+        <v>94.304000000000002</v>
+      </c>
+      <c r="M425">
+        <v>236.71899999999999</v>
+      </c>
+      <c r="N425">
+        <v>1</v>
+      </c>
+      <c r="O425" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="426" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A426" t="s">
+        <v>69</v>
+      </c>
+      <c r="B426" t="s">
+        <v>11</v>
+      </c>
+      <c r="C426" t="s">
+        <v>48</v>
+      </c>
+      <c r="D426" t="s">
+        <v>43</v>
+      </c>
+      <c r="E426">
+        <v>48</v>
+      </c>
+      <c r="F426" t="s">
+        <v>23</v>
+      </c>
+      <c r="G426">
+        <v>121</v>
+      </c>
+      <c r="H426">
+        <v>3</v>
+      </c>
+      <c r="I426">
+        <v>5</v>
+      </c>
+      <c r="J426">
+        <v>0</v>
+      </c>
+      <c r="K426" s="2">
+        <v>1.0937037037037037E-3</v>
+      </c>
+      <c r="L426" s="3">
+        <f t="shared" si="13"/>
+        <v>94.495999999999995</v>
+      </c>
+      <c r="M426">
+        <v>236.238</v>
+      </c>
+      <c r="N426">
+        <v>1</v>
+      </c>
+      <c r="O426" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="427" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A427" t="s">
+        <v>69</v>
+      </c>
+      <c r="B427" t="s">
+        <v>11</v>
+      </c>
+      <c r="C427" t="s">
+        <v>48</v>
+      </c>
+      <c r="D427" t="s">
+        <v>45</v>
+      </c>
+      <c r="E427">
+        <v>51</v>
+      </c>
+      <c r="F427" t="s">
+        <v>35</v>
+      </c>
+      <c r="G427">
+        <v>90</v>
+      </c>
+      <c r="H427">
+        <v>8</v>
+      </c>
+      <c r="I427">
+        <v>6</v>
+      </c>
+      <c r="J427">
+        <v>0</v>
+      </c>
+      <c r="K427" s="2">
+        <v>1.095138888888889E-3</v>
+      </c>
+      <c r="L427" s="3">
+        <f t="shared" si="13"/>
+        <v>94.62</v>
+      </c>
+      <c r="M427">
+        <v>235.928</v>
+      </c>
+      <c r="N427">
+        <v>1</v>
+      </c>
+      <c r="O427" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="428" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A428" t="s">
+        <v>69</v>
+      </c>
+      <c r="B428" t="s">
+        <v>11</v>
+      </c>
+      <c r="C428" t="s">
+        <v>48</v>
+      </c>
+      <c r="D428" t="s">
+        <v>26</v>
+      </c>
+      <c r="E428">
+        <v>49</v>
+      </c>
+      <c r="F428" t="s">
+        <v>27</v>
+      </c>
+      <c r="G428">
+        <v>68</v>
+      </c>
+      <c r="H428">
+        <v>11</v>
+      </c>
+      <c r="I428">
+        <v>7</v>
+      </c>
+      <c r="J428">
+        <v>0</v>
+      </c>
+      <c r="K428" s="2">
+        <v>1.0948148148148147E-3</v>
+      </c>
+      <c r="L428" s="3">
+        <f t="shared" si="13"/>
+        <v>94.591999999999999</v>
+      </c>
+      <c r="M428">
+        <v>235.99799999999999</v>
+      </c>
+      <c r="N428">
+        <v>1</v>
+      </c>
+      <c r="O428" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="429" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A429" t="s">
+        <v>69</v>
+      </c>
+      <c r="B429" t="s">
+        <v>11</v>
+      </c>
+      <c r="C429" t="s">
+        <v>48</v>
+      </c>
+      <c r="D429" t="s">
+        <v>31</v>
+      </c>
+      <c r="E429">
+        <v>152</v>
+      </c>
+      <c r="F429" t="s">
+        <v>29</v>
+      </c>
+      <c r="G429">
+        <v>378</v>
+      </c>
+      <c r="H429">
+        <v>20</v>
+      </c>
+      <c r="I429">
+        <v>8</v>
+      </c>
+      <c r="J429">
+        <v>0</v>
+      </c>
+      <c r="K429" s="2">
+        <v>1.0943634259259259E-3</v>
+      </c>
+      <c r="L429" s="3">
+        <f t="shared" si="13"/>
+        <v>94.552999999999997</v>
+      </c>
+      <c r="M429">
+        <v>236.096</v>
+      </c>
+      <c r="N429">
+        <v>1</v>
+      </c>
+      <c r="O429" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="430" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A430" t="s">
+        <v>69</v>
+      </c>
+      <c r="B430" t="s">
+        <v>11</v>
+      </c>
+      <c r="C430" t="s">
+        <v>48</v>
+      </c>
+      <c r="D430" t="s">
+        <v>36</v>
+      </c>
+      <c r="E430">
+        <v>32</v>
+      </c>
+      <c r="F430" t="s">
+        <v>37</v>
+      </c>
+      <c r="G430">
+        <v>73</v>
+      </c>
+      <c r="H430">
+        <v>13</v>
+      </c>
+      <c r="I430">
+        <v>9</v>
+      </c>
+      <c r="J430">
+        <v>0</v>
+      </c>
+      <c r="K430" s="2">
+        <v>1.0944097222222223E-3</v>
+      </c>
+      <c r="L430" s="3">
+        <f t="shared" si="13"/>
+        <v>94.557000000000002</v>
+      </c>
+      <c r="M430">
+        <v>236.08600000000001</v>
+      </c>
+      <c r="N430">
+        <v>1</v>
+      </c>
+      <c r="O430" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="431" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A431" t="s">
+        <v>69</v>
+      </c>
+      <c r="B431" t="s">
+        <v>11</v>
+      </c>
+      <c r="C431" t="s">
+        <v>48</v>
+      </c>
+      <c r="D431" t="s">
+        <v>38</v>
+      </c>
+      <c r="E431">
+        <v>41</v>
+      </c>
+      <c r="F431" t="s">
+        <v>37</v>
+      </c>
+      <c r="G431">
+        <v>73</v>
+      </c>
+      <c r="H431">
+        <v>14</v>
+      </c>
+      <c r="I431">
+        <v>10</v>
+      </c>
+      <c r="J431">
+        <v>0</v>
+      </c>
+      <c r="K431" s="2">
+        <v>1.0939699074074074E-3</v>
+      </c>
+      <c r="L431" s="3">
+        <f t="shared" si="13"/>
+        <v>94.519000000000005</v>
+      </c>
+      <c r="M431">
+        <v>236.18100000000001</v>
+      </c>
+      <c r="N431">
+        <v>1</v>
+      </c>
+      <c r="O431" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="432" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A432" t="s">
+        <v>69</v>
+      </c>
+      <c r="B432" t="s">
+        <v>11</v>
+      </c>
+      <c r="C432" t="s">
+        <v>48</v>
+      </c>
+      <c r="D432" t="s">
+        <v>42</v>
+      </c>
+      <c r="E432">
+        <v>40</v>
+      </c>
+      <c r="F432" t="s">
+        <v>25</v>
+      </c>
+      <c r="G432">
+        <v>72</v>
+      </c>
+      <c r="H432">
+        <v>7</v>
+      </c>
+      <c r="I432">
+        <v>11</v>
+      </c>
+      <c r="J432">
+        <v>0</v>
+      </c>
+      <c r="K432" s="2">
+        <v>1.1068171296296295E-3</v>
+      </c>
+      <c r="L432" s="3">
+        <f t="shared" si="13"/>
+        <v>95.628999999999991</v>
+      </c>
+      <c r="M432">
+        <v>233.43899999999999</v>
+      </c>
+      <c r="N432">
+        <v>1</v>
+      </c>
+      <c r="O432" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="433" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A433" t="s">
+        <v>69</v>
+      </c>
+      <c r="B433" t="s">
+        <v>11</v>
+      </c>
+      <c r="C433" t="s">
+        <v>48</v>
+      </c>
+      <c r="D433" t="s">
+        <v>34</v>
+      </c>
+      <c r="E433">
+        <v>28</v>
+      </c>
+      <c r="F433" t="s">
+        <v>18</v>
+      </c>
+      <c r="G433">
+        <v>391</v>
+      </c>
+      <c r="H433">
+        <v>19</v>
+      </c>
+      <c r="I433">
+        <v>12</v>
+      </c>
+      <c r="J433">
+        <v>0</v>
+      </c>
+      <c r="K433" s="2">
+        <v>1.0991550925925925E-3</v>
+      </c>
+      <c r="L433" s="3">
+        <f t="shared" si="13"/>
+        <v>94.966999999999999</v>
+      </c>
+      <c r="M433">
+        <v>235.066</v>
+      </c>
+      <c r="N433">
+        <v>2</v>
+      </c>
+      <c r="O433" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="434" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A434" t="s">
+        <v>69</v>
+      </c>
+      <c r="B434" t="s">
+        <v>11</v>
+      </c>
+      <c r="C434" t="s">
+        <v>48</v>
+      </c>
+      <c r="D434" t="s">
+        <v>32</v>
+      </c>
+      <c r="E434">
+        <v>22</v>
+      </c>
+      <c r="F434" t="s">
+        <v>33</v>
+      </c>
+      <c r="G434">
+        <v>22</v>
+      </c>
+      <c r="H434">
+        <v>10</v>
+      </c>
+      <c r="I434">
+        <v>13</v>
+      </c>
+      <c r="J434">
+        <v>0</v>
+      </c>
+      <c r="K434" s="2">
+        <v>1.107337962962963E-3</v>
+      </c>
+      <c r="L434" s="3">
+        <f t="shared" si="13"/>
+        <v>95.674000000000007</v>
+      </c>
+      <c r="M434">
+        <v>233.32900000000001</v>
+      </c>
+      <c r="N434">
+        <v>1</v>
+      </c>
+      <c r="O434" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="435" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A435" t="s">
+        <v>69</v>
+      </c>
+      <c r="B435" t="s">
+        <v>11</v>
+      </c>
+      <c r="C435" t="s">
+        <v>48</v>
+      </c>
+      <c r="D435" t="s">
+        <v>39</v>
+      </c>
+      <c r="E435">
+        <v>36</v>
+      </c>
+      <c r="F435" t="s">
+        <v>35</v>
+      </c>
+      <c r="G435">
+        <v>90</v>
+      </c>
+      <c r="H435">
+        <v>6</v>
+      </c>
+      <c r="I435">
+        <v>14</v>
+      </c>
+      <c r="J435">
+        <v>0</v>
+      </c>
+      <c r="K435" s="2">
+        <v>1.097650462962963E-3</v>
+      </c>
+      <c r="L435" s="3">
+        <f t="shared" si="13"/>
+        <v>94.837000000000003</v>
+      </c>
+      <c r="M435">
+        <v>235.38900000000001</v>
+      </c>
+      <c r="N435">
+        <v>2</v>
+      </c>
+      <c r="O435" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="436" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A436" t="s">
+        <v>69</v>
+      </c>
+      <c r="B436" t="s">
+        <v>11</v>
+      </c>
+      <c r="C436" t="s">
+        <v>48</v>
+      </c>
+      <c r="D436" t="s">
+        <v>81</v>
+      </c>
+      <c r="E436">
+        <v>0</v>
+      </c>
+      <c r="F436" t="s">
+        <v>33</v>
+      </c>
+      <c r="G436">
+        <v>22</v>
+      </c>
+      <c r="H436">
+        <v>15</v>
+      </c>
+      <c r="I436">
+        <v>15</v>
+      </c>
+      <c r="J436">
+        <v>0</v>
+      </c>
+      <c r="K436" s="2">
+        <v>1.1085648148148148E-3</v>
+      </c>
+      <c r="L436" s="3">
+        <f t="shared" si="13"/>
+        <v>95.78</v>
+      </c>
+      <c r="M436">
+        <v>233.071</v>
+      </c>
+      <c r="N436">
+        <v>1</v>
+      </c>
+      <c r="O436" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="437" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A437" t="s">
+        <v>69</v>
+      </c>
+      <c r="B437" t="s">
+        <v>11</v>
+      </c>
+      <c r="C437" t="s">
+        <v>48</v>
+      </c>
+      <c r="D437" t="s">
+        <v>22</v>
+      </c>
+      <c r="E437">
+        <v>73</v>
+      </c>
+      <c r="F437" t="s">
+        <v>23</v>
+      </c>
+      <c r="G437">
+        <v>121</v>
+      </c>
+      <c r="H437">
+        <v>16</v>
+      </c>
+      <c r="I437">
+        <v>16</v>
+      </c>
+      <c r="J437">
+        <v>0</v>
+      </c>
+      <c r="K437" s="2">
+        <v>1.1016666666666666E-3</v>
+      </c>
+      <c r="L437" s="3">
+        <f t="shared" si="13"/>
+        <v>95.183999999999997</v>
+      </c>
+      <c r="M437">
+        <v>234.53100000000001</v>
+      </c>
+      <c r="N437">
+        <v>3</v>
+      </c>
+      <c r="O437" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="438" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A438" t="s">
+        <v>69</v>
+      </c>
+      <c r="B438" t="s">
+        <v>11</v>
+      </c>
+      <c r="C438" t="s">
+        <v>48</v>
+      </c>
+      <c r="D438" t="s">
+        <v>41</v>
+      </c>
+      <c r="E438">
+        <v>19</v>
+      </c>
+      <c r="F438" t="s">
+        <v>27</v>
+      </c>
+      <c r="G438">
+        <v>68</v>
+      </c>
+      <c r="H438">
+        <v>18</v>
+      </c>
+      <c r="I438">
+        <v>17</v>
+      </c>
+      <c r="J438">
+        <v>0</v>
+      </c>
+      <c r="K438" s="2"/>
+      <c r="L438" s="3"/>
+      <c r="N438">
+        <v>1</v>
+      </c>
+      <c r="O438" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="439" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A439" t="s">
+        <v>69</v>
+      </c>
+      <c r="B439" t="s">
+        <v>11</v>
+      </c>
+      <c r="C439" t="s">
+        <v>48</v>
+      </c>
+      <c r="D439" t="s">
+        <v>24</v>
+      </c>
+      <c r="E439">
+        <v>32</v>
+      </c>
+      <c r="F439" t="s">
+        <v>25</v>
+      </c>
+      <c r="G439">
+        <v>72</v>
+      </c>
+      <c r="H439">
+        <v>12</v>
+      </c>
+      <c r="I439">
+        <v>18</v>
+      </c>
+      <c r="J439">
+        <v>0</v>
+      </c>
+      <c r="K439" s="2"/>
+      <c r="L439" s="3"/>
+      <c r="N439">
+        <v>0</v>
+      </c>
+      <c r="O439" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="440" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A440" t="s">
+        <v>69</v>
+      </c>
+      <c r="B440" t="s">
+        <v>11</v>
+      </c>
+      <c r="C440" t="s">
+        <v>48</v>
+      </c>
+      <c r="D440" t="s">
+        <v>13</v>
+      </c>
+      <c r="E440">
+        <v>390</v>
+      </c>
+      <c r="F440" t="s">
+        <v>14</v>
+      </c>
+      <c r="G440">
+        <v>756</v>
+      </c>
+      <c r="H440">
+        <v>1</v>
+      </c>
+      <c r="I440">
+        <v>19</v>
+      </c>
+      <c r="J440">
+        <v>0</v>
+      </c>
+      <c r="K440" s="2">
+        <v>1.0875578703703705E-3</v>
+      </c>
+      <c r="L440" s="3">
+        <f t="shared" si="13"/>
+        <v>93.965000000000003</v>
+      </c>
+      <c r="M440">
+        <v>237.57300000000001</v>
+      </c>
+      <c r="N440">
+        <v>1</v>
+      </c>
+      <c r="O440" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="441" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A441" t="s">
+        <v>69</v>
+      </c>
+      <c r="B441" t="s">
+        <v>11</v>
+      </c>
+      <c r="C441" t="s">
+        <v>48</v>
+      </c>
+      <c r="D441" t="s">
+        <v>30</v>
+      </c>
+      <c r="E441">
+        <v>366</v>
+      </c>
+      <c r="F441" t="s">
+        <v>14</v>
+      </c>
+      <c r="G441">
+        <v>756</v>
+      </c>
+      <c r="H441">
+        <v>5</v>
+      </c>
+      <c r="I441">
+        <v>20</v>
+      </c>
+      <c r="J441">
+        <v>0</v>
+      </c>
+      <c r="K441" s="2">
+        <v>1.0889583333333333E-3</v>
+      </c>
+      <c r="L441" s="3">
+        <f t="shared" si="13"/>
+        <v>94.085999999999999</v>
+      </c>
+      <c r="M441">
+        <v>237.268</v>
+      </c>
+      <c r="N441">
+        <v>1</v>
+      </c>
+      <c r="O441" t="s">
         <v>40</v>
       </c>
     </row>

--- a/F1.xlsx
+++ b/F1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\vs\f1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91A86310-62F0-4733-96DC-1967BDE0BE7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEFD874B-6387-4DF7-BCA1-2401CE6CEF71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00798B61-A4AB-4634-A493-7936C2BE7462}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3004" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3124" uniqueCount="84">
   <si>
     <t>Race_Name</t>
   </si>
@@ -655,11 +655,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36F0DB36-4229-4BFD-868F-09E812C5EFF8}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:S441"/>
+  <dimension ref="A1:S461"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A420" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P437" sqref="P437"/>
+      <pane ySplit="1" topLeftCell="A441" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="P442" sqref="P442"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -20761,7 +20761,7 @@
         <v>1.0806134259259261E-3</v>
       </c>
       <c r="L422" s="3">
-        <f t="shared" ref="L421:L441" si="13">(K422 - INT(K422/1))*86400</f>
+        <f t="shared" ref="L422:L441" si="13">(K422 - INT(K422/1))*86400</f>
         <v>93.365000000000009</v>
       </c>
       <c r="M422">
@@ -21667,6 +21667,966 @@
         <v>1</v>
       </c>
       <c r="O441" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="442" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A442" t="s">
+        <v>70</v>
+      </c>
+      <c r="B442" t="s">
+        <v>47</v>
+      </c>
+      <c r="C442" t="s">
+        <v>48</v>
+      </c>
+      <c r="D442" t="s">
+        <v>17</v>
+      </c>
+      <c r="E442">
+        <v>396</v>
+      </c>
+      <c r="F442" t="s">
+        <v>18</v>
+      </c>
+      <c r="G442">
+        <v>426</v>
+      </c>
+      <c r="H442">
+        <v>3</v>
+      </c>
+      <c r="I442">
+        <v>1</v>
+      </c>
+      <c r="J442">
+        <v>1</v>
+      </c>
+      <c r="K442" s="2">
+        <v>9.6641203703703711E-4</v>
+      </c>
+      <c r="L442" s="3">
+        <f t="shared" ref="L442:L461" si="14">(K442 - INT(K442/1))*86400</f>
+        <v>83.498000000000005</v>
+      </c>
+      <c r="M442">
+        <v>233.63900000000001</v>
+      </c>
+      <c r="N442">
+        <v>2</v>
+      </c>
+      <c r="O442" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="443" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A443" t="s">
+        <v>70</v>
+      </c>
+      <c r="B443" t="s">
+        <v>47</v>
+      </c>
+      <c r="C443" t="s">
+        <v>48</v>
+      </c>
+      <c r="D443" t="s">
+        <v>30</v>
+      </c>
+      <c r="E443">
+        <v>392</v>
+      </c>
+      <c r="F443" t="s">
+        <v>14</v>
+      </c>
+      <c r="G443">
+        <v>800</v>
+      </c>
+      <c r="H443">
+        <v>1</v>
+      </c>
+      <c r="I443">
+        <v>2</v>
+      </c>
+      <c r="J443">
+        <v>0</v>
+      </c>
+      <c r="K443" s="2">
+        <v>9.6060185185185181E-4</v>
+      </c>
+      <c r="L443" s="3">
+        <f t="shared" si="14"/>
+        <v>82.995999999999995</v>
+      </c>
+      <c r="M443">
+        <v>235.05199999999999</v>
+      </c>
+      <c r="N443">
+        <v>2</v>
+      </c>
+      <c r="O443" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="444" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A444" t="s">
+        <v>70</v>
+      </c>
+      <c r="B444" t="s">
+        <v>47</v>
+      </c>
+      <c r="C444" t="s">
+        <v>48</v>
+      </c>
+      <c r="D444" t="s">
+        <v>43</v>
+      </c>
+      <c r="E444">
+        <v>64</v>
+      </c>
+      <c r="F444" t="s">
+        <v>23</v>
+      </c>
+      <c r="G444">
+        <v>137</v>
+      </c>
+      <c r="H444">
+        <v>7</v>
+      </c>
+      <c r="I444">
+        <v>3</v>
+      </c>
+      <c r="J444">
+        <v>0</v>
+      </c>
+      <c r="K444" s="2">
+        <v>9.705902777777779E-4</v>
+      </c>
+      <c r="L444" s="3">
+        <f t="shared" si="14"/>
+        <v>83.859000000000009</v>
+      </c>
+      <c r="M444">
+        <v>232.63300000000001</v>
+      </c>
+      <c r="N444">
+        <v>2</v>
+      </c>
+      <c r="O444" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="445" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A445" t="s">
+        <v>70</v>
+      </c>
+      <c r="B445" t="s">
+        <v>47</v>
+      </c>
+      <c r="C445" t="s">
+        <v>48</v>
+      </c>
+      <c r="D445" t="s">
+        <v>13</v>
+      </c>
+      <c r="E445">
+        <v>408</v>
+      </c>
+      <c r="F445" t="s">
+        <v>14</v>
+      </c>
+      <c r="G445">
+        <v>800</v>
+      </c>
+      <c r="H445">
+        <v>2</v>
+      </c>
+      <c r="I445">
+        <v>4</v>
+      </c>
+      <c r="J445">
+        <v>0</v>
+      </c>
+      <c r="K445" s="2">
+        <v>9.6292824074074076E-4</v>
+      </c>
+      <c r="L445" s="3">
+        <f t="shared" si="14"/>
+        <v>83.197000000000003</v>
+      </c>
+      <c r="M445">
+        <v>234.48400000000001</v>
+      </c>
+      <c r="N445">
+        <v>2</v>
+      </c>
+      <c r="O445" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="446" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A446" t="s">
+        <v>70</v>
+      </c>
+      <c r="B446" t="s">
+        <v>47</v>
+      </c>
+      <c r="C446" t="s">
+        <v>48</v>
+      </c>
+      <c r="D446" t="s">
+        <v>21</v>
+      </c>
+      <c r="E446">
+        <v>150</v>
+      </c>
+      <c r="F446" t="s">
+        <v>20</v>
+      </c>
+      <c r="G446">
+        <v>459</v>
+      </c>
+      <c r="H446">
+        <v>5</v>
+      </c>
+      <c r="I446">
+        <v>5</v>
+      </c>
+      <c r="J446">
+        <v>0</v>
+      </c>
+      <c r="K446" s="2">
+        <v>9.7170138888888892E-4</v>
+      </c>
+      <c r="L446" s="3">
+        <f t="shared" si="14"/>
+        <v>83.954999999999998</v>
+      </c>
+      <c r="M446">
+        <v>232.36699999999999</v>
+      </c>
+      <c r="N446">
+        <v>2</v>
+      </c>
+      <c r="O446" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="447" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A447" t="s">
+        <v>70</v>
+      </c>
+      <c r="B447" t="s">
+        <v>47</v>
+      </c>
+      <c r="C447" t="s">
+        <v>48</v>
+      </c>
+      <c r="D447" t="s">
+        <v>19</v>
+      </c>
+      <c r="E447">
+        <v>309</v>
+      </c>
+      <c r="F447" t="s">
+        <v>20</v>
+      </c>
+      <c r="G447">
+        <v>459</v>
+      </c>
+      <c r="H447">
+        <v>4</v>
+      </c>
+      <c r="I447">
+        <v>6</v>
+      </c>
+      <c r="J447">
+        <v>0</v>
+      </c>
+      <c r="K447" s="2">
+        <v>9.6293981481481491E-4</v>
+      </c>
+      <c r="L447" s="3">
+        <f t="shared" si="14"/>
+        <v>83.198000000000008</v>
+      </c>
+      <c r="M447">
+        <v>234.48099999999999</v>
+      </c>
+      <c r="N447">
+        <v>2</v>
+      </c>
+      <c r="O447" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="448" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A448" t="s">
+        <v>70</v>
+      </c>
+      <c r="B448" t="s">
+        <v>47</v>
+      </c>
+      <c r="C448" t="s">
+        <v>48</v>
+      </c>
+      <c r="D448" t="s">
+        <v>42</v>
+      </c>
+      <c r="E448">
+        <v>48</v>
+      </c>
+      <c r="F448" t="s">
+        <v>25</v>
+      </c>
+      <c r="G448">
+        <v>80</v>
+      </c>
+      <c r="H448">
+        <v>8</v>
+      </c>
+      <c r="I448">
+        <v>7</v>
+      </c>
+      <c r="J448">
+        <v>0</v>
+      </c>
+      <c r="K448" s="2">
+        <v>9.7152777777777775E-4</v>
+      </c>
+      <c r="L448" s="3">
+        <f t="shared" si="14"/>
+        <v>83.94</v>
+      </c>
+      <c r="M448">
+        <v>232.40799999999999</v>
+      </c>
+      <c r="N448">
+        <v>2</v>
+      </c>
+      <c r="O448" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="449" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A449" t="s">
+        <v>70</v>
+      </c>
+      <c r="B449" t="s">
+        <v>47</v>
+      </c>
+      <c r="C449" t="s">
+        <v>48</v>
+      </c>
+      <c r="D449" t="s">
+        <v>28</v>
+      </c>
+      <c r="E449">
+        <v>230</v>
+      </c>
+      <c r="F449" t="s">
+        <v>29</v>
+      </c>
+      <c r="G449">
+        <v>382</v>
+      </c>
+      <c r="H449">
+        <v>10</v>
+      </c>
+      <c r="I449">
+        <v>8</v>
+      </c>
+      <c r="J449">
+        <v>0</v>
+      </c>
+      <c r="K449" s="2">
+        <v>9.7722222222222221E-4</v>
+      </c>
+      <c r="L449" s="3">
+        <f t="shared" si="14"/>
+        <v>84.432000000000002</v>
+      </c>
+      <c r="M449">
+        <v>231.054</v>
+      </c>
+      <c r="N449">
+        <v>2</v>
+      </c>
+      <c r="O449" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="450" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A450" t="s">
+        <v>70</v>
+      </c>
+      <c r="B450" t="s">
+        <v>47</v>
+      </c>
+      <c r="C450" t="s">
+        <v>48</v>
+      </c>
+      <c r="D450" t="s">
+        <v>39</v>
+      </c>
+      <c r="E450">
+        <v>38</v>
+      </c>
+      <c r="F450" t="s">
+        <v>35</v>
+      </c>
+      <c r="G450">
+        <v>92</v>
+      </c>
+      <c r="H450">
+        <v>12</v>
+      </c>
+      <c r="I450">
+        <v>9</v>
+      </c>
+      <c r="J450">
+        <v>0</v>
+      </c>
+      <c r="K450" s="2">
+        <v>9.7188657407407412E-4</v>
+      </c>
+      <c r="L450" s="3">
+        <f t="shared" si="14"/>
+        <v>83.971000000000004</v>
+      </c>
+      <c r="M450">
+        <v>232.32300000000001</v>
+      </c>
+      <c r="N450">
+        <v>2</v>
+      </c>
+      <c r="O450" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="451" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A451" t="s">
+        <v>70</v>
+      </c>
+      <c r="B451" t="s">
+        <v>47</v>
+      </c>
+      <c r="C451" t="s">
+        <v>48</v>
+      </c>
+      <c r="D451" t="s">
+        <v>34</v>
+      </c>
+      <c r="E451">
+        <v>33</v>
+      </c>
+      <c r="F451" t="s">
+        <v>18</v>
+      </c>
+      <c r="G451">
+        <v>426</v>
+      </c>
+      <c r="H451">
+        <v>16</v>
+      </c>
+      <c r="I451">
+        <v>10</v>
+      </c>
+      <c r="J451">
+        <v>0</v>
+      </c>
+      <c r="K451" s="2">
+        <v>9.7383101851851851E-4</v>
+      </c>
+      <c r="L451" s="3">
+        <f t="shared" si="14"/>
+        <v>84.138999999999996</v>
+      </c>
+      <c r="M451">
+        <v>231.85900000000001</v>
+      </c>
+      <c r="N451">
+        <v>2</v>
+      </c>
+      <c r="O451" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="452" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A452" t="s">
+        <v>70</v>
+      </c>
+      <c r="B452" t="s">
+        <v>47</v>
+      </c>
+      <c r="C452" t="s">
+        <v>48</v>
+      </c>
+      <c r="D452" t="s">
+        <v>22</v>
+      </c>
+      <c r="E452">
+        <v>73</v>
+      </c>
+      <c r="F452" t="s">
+        <v>23</v>
+      </c>
+      <c r="G452">
+        <v>137</v>
+      </c>
+      <c r="H452">
+        <v>15</v>
+      </c>
+      <c r="I452">
+        <v>11</v>
+      </c>
+      <c r="J452">
+        <v>0</v>
+      </c>
+      <c r="K452" s="2">
+        <v>9.7524305555555548E-4</v>
+      </c>
+      <c r="L452" s="3">
+        <f t="shared" si="14"/>
+        <v>84.260999999999996</v>
+      </c>
+      <c r="M452">
+        <v>231.523</v>
+      </c>
+      <c r="N452">
+        <v>2</v>
+      </c>
+      <c r="O452" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="453" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A453" t="s">
+        <v>70</v>
+      </c>
+      <c r="B453" t="s">
+        <v>47</v>
+      </c>
+      <c r="C453" t="s">
+        <v>48</v>
+      </c>
+      <c r="D453" t="s">
+        <v>31</v>
+      </c>
+      <c r="E453">
+        <v>152</v>
+      </c>
+      <c r="F453" t="s">
+        <v>29</v>
+      </c>
+      <c r="G453">
+        <v>382</v>
+      </c>
+      <c r="H453">
+        <v>18</v>
+      </c>
+      <c r="I453">
+        <v>12</v>
+      </c>
+      <c r="J453">
+        <v>0</v>
+      </c>
+      <c r="K453" s="2">
+        <v>9.8203703703703712E-4</v>
+      </c>
+      <c r="L453" s="3">
+        <f t="shared" si="14"/>
+        <v>84.848000000000013</v>
+      </c>
+      <c r="M453">
+        <v>229.92099999999999</v>
+      </c>
+      <c r="N453">
+        <v>2</v>
+      </c>
+      <c r="O453" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="454" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A454" t="s">
+        <v>70</v>
+      </c>
+      <c r="B454" t="s">
+        <v>47</v>
+      </c>
+      <c r="C454" t="s">
+        <v>48</v>
+      </c>
+      <c r="D454" t="s">
+        <v>41</v>
+      </c>
+      <c r="E454">
+        <v>19</v>
+      </c>
+      <c r="F454" t="s">
+        <v>27</v>
+      </c>
+      <c r="G454">
+        <v>68</v>
+      </c>
+      <c r="H454">
+        <v>14</v>
+      </c>
+      <c r="I454">
+        <v>13</v>
+      </c>
+      <c r="J454">
+        <v>0</v>
+      </c>
+      <c r="K454" s="2">
+        <v>9.8649305555555556E-4</v>
+      </c>
+      <c r="L454" s="3">
+        <f t="shared" si="14"/>
+        <v>85.233000000000004</v>
+      </c>
+      <c r="M454">
+        <v>228.88300000000001</v>
+      </c>
+      <c r="N454">
+        <v>2</v>
+      </c>
+      <c r="O454" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="455" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A455" t="s">
+        <v>70</v>
+      </c>
+      <c r="B455" t="s">
+        <v>47</v>
+      </c>
+      <c r="C455" t="s">
+        <v>48</v>
+      </c>
+      <c r="D455" t="s">
+        <v>81</v>
+      </c>
+      <c r="E455">
+        <v>0</v>
+      </c>
+      <c r="F455" t="s">
+        <v>33</v>
+      </c>
+      <c r="G455">
+        <v>22</v>
+      </c>
+      <c r="H455">
+        <v>20</v>
+      </c>
+      <c r="I455">
+        <v>14</v>
+      </c>
+      <c r="J455">
+        <v>0</v>
+      </c>
+      <c r="K455" s="2">
+        <v>9.9125000000000016E-4</v>
+      </c>
+      <c r="L455" s="3">
+        <f t="shared" si="14"/>
+        <v>85.64400000000002</v>
+      </c>
+      <c r="M455">
+        <v>227.78399999999999</v>
+      </c>
+      <c r="N455">
+        <v>2</v>
+      </c>
+      <c r="O455" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="456" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A456" t="s">
+        <v>70</v>
+      </c>
+      <c r="B456" t="s">
+        <v>47</v>
+      </c>
+      <c r="C456" t="s">
+        <v>48</v>
+      </c>
+      <c r="D456" t="s">
+        <v>36</v>
+      </c>
+      <c r="E456">
+        <v>32</v>
+      </c>
+      <c r="F456" t="s">
+        <v>37</v>
+      </c>
+      <c r="G456">
+        <v>73</v>
+      </c>
+      <c r="H456">
+        <v>17</v>
+      </c>
+      <c r="I456">
+        <v>15</v>
+      </c>
+      <c r="J456">
+        <v>0</v>
+      </c>
+      <c r="K456" s="2">
+        <v>9.8444444444444447E-4</v>
+      </c>
+      <c r="L456" s="3">
+        <f t="shared" si="14"/>
+        <v>85.055999999999997</v>
+      </c>
+      <c r="M456">
+        <v>229.35900000000001</v>
+      </c>
+      <c r="N456">
+        <v>3</v>
+      </c>
+      <c r="O456" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="457" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A457" t="s">
+        <v>70</v>
+      </c>
+      <c r="B457" t="s">
+        <v>47</v>
+      </c>
+      <c r="C457" t="s">
+        <v>48</v>
+      </c>
+      <c r="D457" t="s">
+        <v>32</v>
+      </c>
+      <c r="E457">
+        <v>22</v>
+      </c>
+      <c r="F457" t="s">
+        <v>33</v>
+      </c>
+      <c r="G457">
+        <v>22</v>
+      </c>
+      <c r="H457">
+        <v>9</v>
+      </c>
+      <c r="I457">
+        <v>16</v>
+      </c>
+      <c r="J457">
+        <v>0</v>
+      </c>
+      <c r="K457" s="2">
+        <v>9.8814814814814815E-4</v>
+      </c>
+      <c r="L457" s="3">
+        <f t="shared" si="14"/>
+        <v>85.376000000000005</v>
+      </c>
+      <c r="M457">
+        <v>228.499</v>
+      </c>
+      <c r="N457">
+        <v>2</v>
+      </c>
+      <c r="O457" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="458" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A458" t="s">
+        <v>70</v>
+      </c>
+      <c r="B458" t="s">
+        <v>47</v>
+      </c>
+      <c r="C458" t="s">
+        <v>48</v>
+      </c>
+      <c r="D458" t="s">
+        <v>24</v>
+      </c>
+      <c r="E458">
+        <v>32</v>
+      </c>
+      <c r="F458" t="s">
+        <v>25</v>
+      </c>
+      <c r="G458">
+        <v>80</v>
+      </c>
+      <c r="H458">
+        <v>19</v>
+      </c>
+      <c r="I458">
+        <v>17</v>
+      </c>
+      <c r="J458">
+        <v>0</v>
+      </c>
+      <c r="K458" s="2">
+        <v>9.6625000000000009E-4</v>
+      </c>
+      <c r="L458" s="3">
+        <f t="shared" si="14"/>
+        <v>83.484000000000009</v>
+      </c>
+      <c r="M458">
+        <v>233.678</v>
+      </c>
+      <c r="N458">
+        <v>3</v>
+      </c>
+      <c r="O458" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="459" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A459" t="s">
+        <v>70</v>
+      </c>
+      <c r="B459" t="s">
+        <v>47</v>
+      </c>
+      <c r="C459" t="s">
+        <v>48</v>
+      </c>
+      <c r="D459" t="s">
+        <v>45</v>
+      </c>
+      <c r="E459">
+        <v>51</v>
+      </c>
+      <c r="F459" t="s">
+        <v>35</v>
+      </c>
+      <c r="G459">
+        <v>92</v>
+      </c>
+      <c r="H459">
+        <v>6</v>
+      </c>
+      <c r="I459">
+        <v>18</v>
+      </c>
+      <c r="J459">
+        <v>0</v>
+      </c>
+      <c r="K459" s="2">
+        <v>9.7589120370370375E-4</v>
+      </c>
+      <c r="L459" s="3">
+        <f t="shared" si="14"/>
+        <v>84.317000000000007</v>
+      </c>
+      <c r="M459">
+        <v>231.369</v>
+      </c>
+      <c r="N459">
+        <v>2</v>
+      </c>
+      <c r="O459" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="460" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A460" t="s">
+        <v>70</v>
+      </c>
+      <c r="B460" t="s">
+        <v>47</v>
+      </c>
+      <c r="C460" t="s">
+        <v>48</v>
+      </c>
+      <c r="D460" t="s">
+        <v>38</v>
+      </c>
+      <c r="E460">
+        <v>41</v>
+      </c>
+      <c r="F460" t="s">
+        <v>37</v>
+      </c>
+      <c r="G460">
+        <v>73</v>
+      </c>
+      <c r="H460">
+        <v>13</v>
+      </c>
+      <c r="I460">
+        <v>19</v>
+      </c>
+      <c r="J460">
+        <v>0</v>
+      </c>
+      <c r="K460" s="2">
+        <v>9.8298611111111113E-4</v>
+      </c>
+      <c r="L460" s="3">
+        <f t="shared" si="14"/>
+        <v>84.93</v>
+      </c>
+      <c r="M460">
+        <v>229.69900000000001</v>
+      </c>
+      <c r="N460">
+        <v>3</v>
+      </c>
+      <c r="O460" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="461" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A461" t="s">
+        <v>70</v>
+      </c>
+      <c r="B461" t="s">
+        <v>47</v>
+      </c>
+      <c r="C461" t="s">
+        <v>48</v>
+      </c>
+      <c r="D461" t="s">
+        <v>26</v>
+      </c>
+      <c r="E461">
+        <v>49</v>
+      </c>
+      <c r="F461" t="s">
+        <v>27</v>
+      </c>
+      <c r="G461">
+        <v>68</v>
+      </c>
+      <c r="H461">
+        <v>11</v>
+      </c>
+      <c r="I461">
+        <v>20</v>
+      </c>
+      <c r="J461">
+        <v>0</v>
+      </c>
+      <c r="K461" s="2">
+        <v>1.0201273148148149E-3</v>
+      </c>
+      <c r="L461" s="3">
+        <f t="shared" si="14"/>
+        <v>88.13900000000001</v>
+      </c>
+      <c r="M461">
+        <v>221.33600000000001</v>
+      </c>
+      <c r="N461">
+        <v>0</v>
+      </c>
+      <c r="O461" t="s">
         <v>40</v>
       </c>
     </row>

--- a/F1.xlsx
+++ b/F1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\vs\f1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEFD874B-6387-4DF7-BCA1-2401CE6CEF71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0A4A28F-A0A9-4154-832B-8DBBAB3AFA59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00798B61-A4AB-4634-A493-7936C2BE7462}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3124" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3244" uniqueCount="84">
   <si>
     <t>Race_Name</t>
   </si>
@@ -655,11 +655,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36F0DB36-4229-4BFD-868F-09E812C5EFF8}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:S461"/>
+  <dimension ref="A1:S481"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A441" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P442" sqref="P442"/>
+      <pane ySplit="1" topLeftCell="A461" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="P462" sqref="P462"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -22628,6 +22628,966 @@
       </c>
       <c r="O461" t="s">
         <v>40</v>
+      </c>
+    </row>
+    <row r="462" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A462" t="s">
+        <v>71</v>
+      </c>
+      <c r="B462" t="s">
+        <v>47</v>
+      </c>
+      <c r="C462" t="s">
+        <v>48</v>
+      </c>
+      <c r="D462" t="s">
+        <v>17</v>
+      </c>
+      <c r="E462">
+        <v>421</v>
+      </c>
+      <c r="F462" t="s">
+        <v>18</v>
+      </c>
+      <c r="G462">
+        <v>451</v>
+      </c>
+      <c r="H462">
+        <v>1</v>
+      </c>
+      <c r="I462">
+        <v>1</v>
+      </c>
+      <c r="J462">
+        <v>1</v>
+      </c>
+      <c r="K462" s="2">
+        <v>1.0141782407407408E-3</v>
+      </c>
+      <c r="L462" s="3">
+        <f t="shared" ref="L462:L481" si="15">(K462 - INT(K462/1))*86400</f>
+        <v>87.625000000000014</v>
+      </c>
+      <c r="M462">
+        <v>216.965</v>
+      </c>
+      <c r="N462">
+        <v>1</v>
+      </c>
+      <c r="O462" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="463" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A463" t="s">
+        <v>71</v>
+      </c>
+      <c r="B463" t="s">
+        <v>47</v>
+      </c>
+      <c r="C463" t="s">
+        <v>48</v>
+      </c>
+      <c r="D463" t="s">
+        <v>30</v>
+      </c>
+      <c r="E463">
+        <v>410</v>
+      </c>
+      <c r="F463" t="s">
+        <v>14</v>
+      </c>
+      <c r="G463">
+        <v>833</v>
+      </c>
+      <c r="H463">
+        <v>3</v>
+      </c>
+      <c r="I463">
+        <v>2</v>
+      </c>
+      <c r="J463">
+        <v>0</v>
+      </c>
+      <c r="K463" s="2">
+        <v>1.004224537037037E-3</v>
+      </c>
+      <c r="L463" s="3">
+        <f t="shared" si="15"/>
+        <v>86.765000000000001</v>
+      </c>
+      <c r="M463">
+        <v>219.11600000000001</v>
+      </c>
+      <c r="N463">
+        <v>1</v>
+      </c>
+      <c r="O463" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="464" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A464" t="s">
+        <v>71</v>
+      </c>
+      <c r="B464" t="s">
+        <v>47</v>
+      </c>
+      <c r="C464" t="s">
+        <v>48</v>
+      </c>
+      <c r="D464" t="s">
+        <v>13</v>
+      </c>
+      <c r="E464">
+        <v>423</v>
+      </c>
+      <c r="F464" t="s">
+        <v>14</v>
+      </c>
+      <c r="G464">
+        <v>833</v>
+      </c>
+      <c r="H464">
+        <v>2</v>
+      </c>
+      <c r="I464">
+        <v>3</v>
+      </c>
+      <c r="J464">
+        <v>0</v>
+      </c>
+      <c r="K464" s="2">
+        <v>1.004837962962963E-3</v>
+      </c>
+      <c r="L464" s="3">
+        <f t="shared" si="15"/>
+        <v>86.817999999999998</v>
+      </c>
+      <c r="M464">
+        <v>218.982</v>
+      </c>
+      <c r="N464">
+        <v>2</v>
+      </c>
+      <c r="O464" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="465" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A465" t="s">
+        <v>71</v>
+      </c>
+      <c r="B465" t="s">
+        <v>47</v>
+      </c>
+      <c r="C465" t="s">
+        <v>48</v>
+      </c>
+      <c r="D465" t="s">
+        <v>28</v>
+      </c>
+      <c r="E465">
+        <v>242</v>
+      </c>
+      <c r="F465" t="s">
+        <v>29</v>
+      </c>
+      <c r="G465">
+        <v>398</v>
+      </c>
+      <c r="H465">
+        <v>5</v>
+      </c>
+      <c r="I465">
+        <v>4</v>
+      </c>
+      <c r="J465">
+        <v>0</v>
+      </c>
+      <c r="K465" s="2">
+        <v>1.003761574074074E-3</v>
+      </c>
+      <c r="L465" s="3">
+        <f t="shared" si="15"/>
+        <v>86.724999999999994</v>
+      </c>
+      <c r="M465">
+        <v>219.21700000000001</v>
+      </c>
+      <c r="N465">
+        <v>2</v>
+      </c>
+      <c r="O465" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="466" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A466" t="s">
+        <v>71</v>
+      </c>
+      <c r="B466" t="s">
+        <v>47</v>
+      </c>
+      <c r="C466" t="s">
+        <v>48</v>
+      </c>
+      <c r="D466" t="s">
+        <v>19</v>
+      </c>
+      <c r="E466">
+        <v>319</v>
+      </c>
+      <c r="F466" t="s">
+        <v>20</v>
+      </c>
+      <c r="G466">
+        <v>469</v>
+      </c>
+      <c r="H466">
+        <v>4</v>
+      </c>
+      <c r="I466">
+        <v>5</v>
+      </c>
+      <c r="J466">
+        <v>0</v>
+      </c>
+      <c r="K466" s="2">
+        <v>1.0254513888888889E-3</v>
+      </c>
+      <c r="L466" s="3">
+        <f t="shared" si="15"/>
+        <v>88.599000000000004</v>
+      </c>
+      <c r="M466">
+        <v>214.58</v>
+      </c>
+      <c r="N466">
+        <v>1</v>
+      </c>
+      <c r="O466" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="467" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A467" t="s">
+        <v>71</v>
+      </c>
+      <c r="B467" t="s">
+        <v>47</v>
+      </c>
+      <c r="C467" t="s">
+        <v>48</v>
+      </c>
+      <c r="D467" t="s">
+        <v>42</v>
+      </c>
+      <c r="E467">
+        <v>56</v>
+      </c>
+      <c r="F467" t="s">
+        <v>25</v>
+      </c>
+      <c r="G467">
+        <v>89</v>
+      </c>
+      <c r="H467">
+        <v>6</v>
+      </c>
+      <c r="I467">
+        <v>6</v>
+      </c>
+      <c r="J467">
+        <v>0</v>
+      </c>
+      <c r="K467" s="2">
+        <v>1.0217476851851852E-3</v>
+      </c>
+      <c r="L467" s="3">
+        <f t="shared" si="15"/>
+        <v>88.278999999999996</v>
+      </c>
+      <c r="M467">
+        <v>215.358</v>
+      </c>
+      <c r="N467">
+        <v>1</v>
+      </c>
+      <c r="O467" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="468" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A468" t="s">
+        <v>71</v>
+      </c>
+      <c r="B468" t="s">
+        <v>47</v>
+      </c>
+      <c r="C468" t="s">
+        <v>48</v>
+      </c>
+      <c r="D468" t="s">
+        <v>36</v>
+      </c>
+      <c r="E468">
+        <v>38</v>
+      </c>
+      <c r="F468" t="s">
+        <v>37</v>
+      </c>
+      <c r="G468">
+        <v>79</v>
+      </c>
+      <c r="H468">
+        <v>8</v>
+      </c>
+      <c r="I468">
+        <v>7</v>
+      </c>
+      <c r="J468">
+        <v>0</v>
+      </c>
+      <c r="K468" s="2">
+        <v>1.026099537037037E-3</v>
+      </c>
+      <c r="L468" s="3">
+        <f t="shared" si="15"/>
+        <v>88.654999999999987</v>
+      </c>
+      <c r="M468">
+        <v>214.44399999999999</v>
+      </c>
+      <c r="N468">
+        <v>1</v>
+      </c>
+      <c r="O468" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="469" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A469" t="s">
+        <v>71</v>
+      </c>
+      <c r="B469" t="s">
+        <v>47</v>
+      </c>
+      <c r="C469" t="s">
+        <v>48</v>
+      </c>
+      <c r="D469" t="s">
+        <v>31</v>
+      </c>
+      <c r="E469">
+        <v>156</v>
+      </c>
+      <c r="F469" t="s">
+        <v>29</v>
+      </c>
+      <c r="G469">
+        <v>398</v>
+      </c>
+      <c r="H469">
+        <v>16</v>
+      </c>
+      <c r="I469">
+        <v>8</v>
+      </c>
+      <c r="J469">
+        <v>0</v>
+      </c>
+      <c r="K469" s="2">
+        <v>1.0196064814814814E-3</v>
+      </c>
+      <c r="L469" s="3">
+        <f t="shared" si="15"/>
+        <v>88.093999999999994</v>
+      </c>
+      <c r="M469">
+        <v>215.81</v>
+      </c>
+      <c r="N469">
+        <v>2</v>
+      </c>
+      <c r="O469" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="470" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A470" t="s">
+        <v>71</v>
+      </c>
+      <c r="B470" t="s">
+        <v>47</v>
+      </c>
+      <c r="C470" t="s">
+        <v>48</v>
+      </c>
+      <c r="D470" t="s">
+        <v>26</v>
+      </c>
+      <c r="E470">
+        <v>51</v>
+      </c>
+      <c r="F470" t="s">
+        <v>27</v>
+      </c>
+      <c r="G470">
+        <v>70</v>
+      </c>
+      <c r="H470">
+        <v>18</v>
+      </c>
+      <c r="I470">
+        <v>9</v>
+      </c>
+      <c r="J470">
+        <v>0</v>
+      </c>
+      <c r="K470" s="2">
+        <v>1.007523148148148E-3</v>
+      </c>
+      <c r="L470" s="3">
+        <f t="shared" si="15"/>
+        <v>87.049999999999983</v>
+      </c>
+      <c r="M470">
+        <v>218.398</v>
+      </c>
+      <c r="N470">
+        <v>2</v>
+      </c>
+      <c r="O470" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="471" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A471" t="s">
+        <v>71</v>
+      </c>
+      <c r="B471" t="s">
+        <v>47</v>
+      </c>
+      <c r="C471" t="s">
+        <v>48</v>
+      </c>
+      <c r="D471" t="s">
+        <v>24</v>
+      </c>
+      <c r="E471">
+        <v>33</v>
+      </c>
+      <c r="F471" t="s">
+        <v>25</v>
+      </c>
+      <c r="G471">
+        <v>89</v>
+      </c>
+      <c r="H471">
+        <v>15</v>
+      </c>
+      <c r="I471">
+        <v>10</v>
+      </c>
+      <c r="J471">
+        <v>0</v>
+      </c>
+      <c r="K471" s="2">
+        <v>1.0141898148148148E-3</v>
+      </c>
+      <c r="L471" s="3">
+        <f t="shared" si="15"/>
+        <v>87.625999999999991</v>
+      </c>
+      <c r="M471">
+        <v>216.96299999999999</v>
+      </c>
+      <c r="N471">
+        <v>1</v>
+      </c>
+      <c r="O471" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="472" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A472" t="s">
+        <v>71</v>
+      </c>
+      <c r="B472" t="s">
+        <v>47</v>
+      </c>
+      <c r="C472" t="s">
+        <v>48</v>
+      </c>
+      <c r="D472" t="s">
+        <v>41</v>
+      </c>
+      <c r="E472">
+        <v>19</v>
+      </c>
+      <c r="F472" t="s">
+        <v>27</v>
+      </c>
+      <c r="G472">
+        <v>70</v>
+      </c>
+      <c r="H472">
+        <v>7</v>
+      </c>
+      <c r="I472">
+        <v>11</v>
+      </c>
+      <c r="J472">
+        <v>0</v>
+      </c>
+      <c r="K472" s="2">
+        <v>1.0314120370370371E-3</v>
+      </c>
+      <c r="L472" s="3">
+        <f t="shared" si="15"/>
+        <v>89.114000000000004</v>
+      </c>
+      <c r="M472">
+        <v>213.34</v>
+      </c>
+      <c r="N472">
+        <v>1</v>
+      </c>
+      <c r="O472" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="473" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A473" t="s">
+        <v>71</v>
+      </c>
+      <c r="B473" t="s">
+        <v>47</v>
+      </c>
+      <c r="C473" t="s">
+        <v>48</v>
+      </c>
+      <c r="D473" t="s">
+        <v>38</v>
+      </c>
+      <c r="E473">
+        <v>41</v>
+      </c>
+      <c r="F473" t="s">
+        <v>37</v>
+      </c>
+      <c r="G473">
+        <v>79</v>
+      </c>
+      <c r="H473">
+        <v>11</v>
+      </c>
+      <c r="I473">
+        <v>12</v>
+      </c>
+      <c r="J473">
+        <v>0</v>
+      </c>
+      <c r="K473" s="2">
+        <v>1.0298148148148148E-3</v>
+      </c>
+      <c r="L473" s="3">
+        <f t="shared" si="15"/>
+        <v>88.975999999999999</v>
+      </c>
+      <c r="M473">
+        <v>213.67099999999999</v>
+      </c>
+      <c r="N473">
+        <v>1</v>
+      </c>
+      <c r="O473" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="474" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A474" t="s">
+        <v>71</v>
+      </c>
+      <c r="B474" t="s">
+        <v>47</v>
+      </c>
+      <c r="C474" t="s">
+        <v>48</v>
+      </c>
+      <c r="D474" t="s">
+        <v>43</v>
+      </c>
+      <c r="E474">
+        <v>64</v>
+      </c>
+      <c r="F474" t="s">
+        <v>23</v>
+      </c>
+      <c r="G474">
+        <v>137</v>
+      </c>
+      <c r="H474">
+        <v>12</v>
+      </c>
+      <c r="I474">
+        <v>13</v>
+      </c>
+      <c r="J474">
+        <v>0</v>
+      </c>
+      <c r="K474" s="2">
+        <v>1.0306944444444443E-3</v>
+      </c>
+      <c r="L474" s="3">
+        <f t="shared" si="15"/>
+        <v>89.051999999999992</v>
+      </c>
+      <c r="M474">
+        <v>213.488</v>
+      </c>
+      <c r="N474">
+        <v>1</v>
+      </c>
+      <c r="O474" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="475" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A475" t="s">
+        <v>71</v>
+      </c>
+      <c r="B475" t="s">
+        <v>47</v>
+      </c>
+      <c r="C475" t="s">
+        <v>48</v>
+      </c>
+      <c r="D475" t="s">
+        <v>34</v>
+      </c>
+      <c r="E475">
+        <v>33</v>
+      </c>
+      <c r="F475" t="s">
+        <v>18</v>
+      </c>
+      <c r="G475">
+        <v>451</v>
+      </c>
+      <c r="H475">
+        <v>10</v>
+      </c>
+      <c r="I475">
+        <v>14</v>
+      </c>
+      <c r="J475">
+        <v>0</v>
+      </c>
+      <c r="K475" s="2">
+        <v>1.0249652777777779E-3</v>
+      </c>
+      <c r="L475" s="3">
+        <f t="shared" si="15"/>
+        <v>88.557000000000002</v>
+      </c>
+      <c r="M475">
+        <v>214.68199999999999</v>
+      </c>
+      <c r="N475">
+        <v>1</v>
+      </c>
+      <c r="O475" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="476" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A476" t="s">
+        <v>71</v>
+      </c>
+      <c r="B476" t="s">
+        <v>47</v>
+      </c>
+      <c r="C476" t="s">
+        <v>48</v>
+      </c>
+      <c r="D476" t="s">
+        <v>21</v>
+      </c>
+      <c r="E476">
+        <v>150</v>
+      </c>
+      <c r="F476" t="s">
+        <v>20</v>
+      </c>
+      <c r="G476">
+        <v>469</v>
+      </c>
+      <c r="H476">
+        <v>14</v>
+      </c>
+      <c r="I476">
+        <v>15</v>
+      </c>
+      <c r="J476">
+        <v>0</v>
+      </c>
+      <c r="K476" s="2">
+        <v>1.0188541666666666E-3</v>
+      </c>
+      <c r="L476" s="3">
+        <f t="shared" si="15"/>
+        <v>88.028999999999996</v>
+      </c>
+      <c r="M476">
+        <v>215.96899999999999</v>
+      </c>
+      <c r="N476">
+        <v>1</v>
+      </c>
+      <c r="O476" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="477" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A477" t="s">
+        <v>71</v>
+      </c>
+      <c r="B477" t="s">
+        <v>47</v>
+      </c>
+      <c r="C477" t="s">
+        <v>48</v>
+      </c>
+      <c r="D477" t="s">
+        <v>22</v>
+      </c>
+      <c r="E477">
+        <v>73</v>
+      </c>
+      <c r="F477" t="s">
+        <v>23</v>
+      </c>
+      <c r="G477">
+        <v>137</v>
+      </c>
+      <c r="H477">
+        <v>17</v>
+      </c>
+      <c r="I477">
+        <v>16</v>
+      </c>
+      <c r="J477">
+        <v>0</v>
+      </c>
+      <c r="K477" s="2">
+        <v>1.0227662037037037E-3</v>
+      </c>
+      <c r="L477" s="3">
+        <f t="shared" si="15"/>
+        <v>88.367000000000004</v>
+      </c>
+      <c r="M477">
+        <v>215.143</v>
+      </c>
+      <c r="N477">
+        <v>2</v>
+      </c>
+      <c r="O477" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="478" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A478" t="s">
+        <v>71</v>
+      </c>
+      <c r="B478" t="s">
+        <v>47</v>
+      </c>
+      <c r="C478" t="s">
+        <v>48</v>
+      </c>
+      <c r="D478" t="s">
+        <v>45</v>
+      </c>
+      <c r="E478">
+        <v>51</v>
+      </c>
+      <c r="F478" t="s">
+        <v>35</v>
+      </c>
+      <c r="G478">
+        <v>92</v>
+      </c>
+      <c r="H478">
+        <v>9</v>
+      </c>
+      <c r="I478">
+        <v>17</v>
+      </c>
+      <c r="J478">
+        <v>0</v>
+      </c>
+      <c r="K478" s="2">
+        <v>1.0344328703703705E-3</v>
+      </c>
+      <c r="L478" s="3">
+        <f t="shared" si="15"/>
+        <v>89.375000000000014</v>
+      </c>
+      <c r="M478">
+        <v>212.71700000000001</v>
+      </c>
+      <c r="N478">
+        <v>1</v>
+      </c>
+      <c r="O478" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="479" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A479" t="s">
+        <v>71</v>
+      </c>
+      <c r="B479" t="s">
+        <v>47</v>
+      </c>
+      <c r="C479" t="s">
+        <v>48</v>
+      </c>
+      <c r="D479" t="s">
+        <v>39</v>
+      </c>
+      <c r="E479">
+        <v>38</v>
+      </c>
+      <c r="F479" t="s">
+        <v>35</v>
+      </c>
+      <c r="G479">
+        <v>92</v>
+      </c>
+      <c r="H479">
+        <v>13</v>
+      </c>
+      <c r="I479">
+        <v>18</v>
+      </c>
+      <c r="J479">
+        <v>0</v>
+      </c>
+      <c r="K479" s="2">
+        <v>1.028773148148148E-3</v>
+      </c>
+      <c r="L479" s="3">
+        <f t="shared" si="15"/>
+        <v>88.885999999999996</v>
+      </c>
+      <c r="M479">
+        <v>213.887</v>
+      </c>
+      <c r="N479">
+        <v>1</v>
+      </c>
+      <c r="O479" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="480" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A480" t="s">
+        <v>71</v>
+      </c>
+      <c r="B480" t="s">
+        <v>47</v>
+      </c>
+      <c r="C480" t="s">
+        <v>48</v>
+      </c>
+      <c r="D480" t="s">
+        <v>32</v>
+      </c>
+      <c r="E480">
+        <v>22</v>
+      </c>
+      <c r="F480" t="s">
+        <v>33</v>
+      </c>
+      <c r="G480">
+        <v>22</v>
+      </c>
+      <c r="H480">
+        <v>19</v>
+      </c>
+      <c r="I480">
+        <v>19</v>
+      </c>
+      <c r="J480">
+        <v>0</v>
+      </c>
+      <c r="K480" s="2">
+        <v>1.0158217592592593E-3</v>
+      </c>
+      <c r="L480" s="3">
+        <f t="shared" si="15"/>
+        <v>87.766999999999996</v>
+      </c>
+      <c r="M480">
+        <v>216.614</v>
+      </c>
+      <c r="N480">
+        <v>2</v>
+      </c>
+      <c r="O480" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="481" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A481" t="s">
+        <v>71</v>
+      </c>
+      <c r="B481" t="s">
+        <v>47</v>
+      </c>
+      <c r="C481" t="s">
+        <v>48</v>
+      </c>
+      <c r="D481" t="s">
+        <v>81</v>
+      </c>
+      <c r="E481">
+        <v>0</v>
+      </c>
+      <c r="F481" t="s">
+        <v>33</v>
+      </c>
+      <c r="G481">
+        <v>22</v>
+      </c>
+      <c r="H481">
+        <v>20</v>
+      </c>
+      <c r="I481">
+        <v>20</v>
+      </c>
+      <c r="J481">
+        <v>0</v>
+      </c>
+      <c r="K481" s="2">
+        <v>1.0151620370370371E-3</v>
+      </c>
+      <c r="L481" s="3">
+        <f t="shared" si="15"/>
+        <v>87.710000000000008</v>
+      </c>
+      <c r="M481">
+        <v>216.755</v>
+      </c>
+      <c r="N481">
+        <v>2</v>
+      </c>
+      <c r="O481" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
